--- a/체크리스트생성기/insert.xlsx
+++ b/체크리스트생성기/insert.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonMsLab\놀이터\체크리스트생성기\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonMsLab\r2mTest(잡동사니깃허브)\체크리스트생성기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FF9D05-C08A-41FD-B5F9-E0A8E68172BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E182895C-5BA9-451D-9B4D-E336034967E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8D60C344-9B9F-46DE-BC30-0142C66CDCF5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8D60C344-9B9F-46DE-BC30-0142C66CDCF5}"/>
   </bookViews>
   <sheets>
     <sheet name="34134314" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
   <si>
     <t>희귀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,7 +179,273 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 명</t>
+    <t>mDesc</t>
+  </si>
+  <si>
+    <t>mDPV</t>
+  </si>
+  <si>
+    <t>mRPV</t>
+  </si>
+  <si>
+    <t>mMPV</t>
+  </si>
+  <si>
+    <t>mDDV</t>
+  </si>
+  <si>
+    <t>mRDV</t>
+  </si>
+  <si>
+    <t>mMDV</t>
+  </si>
+  <si>
+    <t>mHIT</t>
+  </si>
+  <si>
+    <t>mMinD</t>
+  </si>
+  <si>
+    <t>mMaxD</t>
+  </si>
+  <si>
+    <t>mHP</t>
+  </si>
+  <si>
+    <t>mMP</t>
+  </si>
+  <si>
+    <t>mHPRegen</t>
+  </si>
+  <si>
+    <t>mMPRegen</t>
+  </si>
+  <si>
+    <t>mFMinD</t>
+  </si>
+  <si>
+    <t>mFMaxD</t>
+  </si>
+  <si>
+    <t>근접</t>
+  </si>
+  <si>
+    <t>원거리</t>
+  </si>
+  <si>
+    <t>몬스터ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬레인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유피 2단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시야 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드롭 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추격 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m02185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[고대] 유피테르의 사자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스_고대_엘테르_유피테르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m02180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[고대] 지배당한 헤이크단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대_엘테르_천사의노래숲_근거리_크리처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m02181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[고대] 마력의 엘더스톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대_엘테르_천사의노래숲_원거리_크리처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m02186</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[고대] 광휘의 엘윈더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대_엘테르_광휘의숲_근거리_크리처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m02187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[고대] 광휘의 베이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m02188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[고대] 광휘의 엘로라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대_엘테르_광휘의숲_원거리_크리처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m02184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[고대] 지배당한 나투라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대_엘테르_마력의숲_근거리_크리처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m02182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[고대] 마력의 엘디온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m02183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[고대] 마력의 엘자드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대_엘테르_마력의숲_원거리_크리처</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +495,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,8 +550,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -392,16 +688,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,12 +873,127 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="14" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="14" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 32" xfId="2" xr:uid="{4FC050CF-A698-4627-ACA2-B859605686D9}"/>
     <cellStyle name="표준 36" xfId="1" xr:uid="{1A468C7F-5468-42B9-A9B7-43E913A395B8}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -795,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6517434B-E7CD-4A5A-BB70-B6B17332CD7F}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -817,538 +1325,1177 @@
     <col min="13" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="49.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL1" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35">
+        <v>262</v>
+      </c>
+      <c r="B2" s="36">
+        <v>2185</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="38">
+        <v>99</v>
+      </c>
+      <c r="M2" s="36">
+        <v>11731808</v>
+      </c>
+      <c r="N2" s="36">
+        <v>122010803</v>
+      </c>
+      <c r="O2" s="36">
+        <v>2500</v>
+      </c>
+      <c r="P2" s="36">
+        <v>6568</v>
+      </c>
+      <c r="Q2" s="39">
+        <v>216</v>
+      </c>
+      <c r="R2" s="39">
+        <v>234</v>
+      </c>
+      <c r="S2" s="39">
+        <v>216</v>
+      </c>
+      <c r="T2" s="39">
+        <v>686.4</v>
+      </c>
+      <c r="U2" s="39">
+        <v>686.4</v>
+      </c>
+      <c r="V2" s="39">
+        <v>739.19999999999993</v>
+      </c>
+      <c r="W2" s="39">
+        <v>683</v>
+      </c>
+      <c r="X2" s="36">
+        <v>608</v>
+      </c>
+      <c r="Y2" s="36">
+        <v>864</v>
+      </c>
+      <c r="Z2" s="39">
+        <v>23050230</v>
+      </c>
+      <c r="AA2" s="39">
+        <v>15124.5</v>
+      </c>
+      <c r="AB2" s="39">
+        <v>375</v>
+      </c>
+      <c r="AC2" s="36">
+        <v>500</v>
+      </c>
+      <c r="AD2" s="36">
+        <v>700</v>
+      </c>
+      <c r="AE2" s="36">
+        <v>5.8</v>
+      </c>
+      <c r="AF2" s="36">
+        <v>19</v>
+      </c>
+      <c r="AG2" s="36">
+        <v>11</v>
+      </c>
+      <c r="AH2" s="36">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="36">
+        <v>5</v>
+      </c>
+      <c r="AJ2" s="36">
+        <v>20</v>
+      </c>
+      <c r="AK2" s="39">
+        <v>243.2</v>
+      </c>
+      <c r="AL2" s="40">
+        <v>345.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41">
+        <v>16519</v>
+      </c>
+      <c r="B3" s="42">
+        <v>2180</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="44">
+        <v>99</v>
+      </c>
+      <c r="M3" s="45">
+        <v>13265</v>
+      </c>
+      <c r="N3" s="45">
+        <v>137956</v>
+      </c>
+      <c r="O3" s="42">
+        <v>1300</v>
+      </c>
+      <c r="P3" s="42">
+        <v>2580</v>
+      </c>
+      <c r="Q3" s="45">
+        <v>155</v>
+      </c>
+      <c r="R3" s="45">
+        <v>171</v>
+      </c>
+      <c r="S3" s="45">
+        <v>155</v>
+      </c>
+      <c r="T3" s="45">
+        <v>598</v>
+      </c>
+      <c r="U3" s="45">
+        <v>609</v>
+      </c>
+      <c r="V3" s="45">
+        <v>721</v>
+      </c>
+      <c r="W3" s="45">
+        <v>630</v>
+      </c>
+      <c r="X3" s="45">
+        <v>421.12000000000006</v>
+      </c>
+      <c r="Y3" s="45">
+        <v>538.70399999999995</v>
+      </c>
+      <c r="Z3" s="45">
+        <v>6596.1</v>
+      </c>
+      <c r="AA3" s="45">
+        <v>288</v>
+      </c>
+      <c r="AB3" s="45">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="42">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="42">
+        <v>700</v>
+      </c>
+      <c r="AE3" s="42">
+        <v>3.4</v>
+      </c>
+      <c r="AF3" s="42">
+        <v>13</v>
+      </c>
+      <c r="AG3" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="AH3" s="42">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="42">
+        <v>20</v>
+      </c>
+      <c r="AK3" s="45">
+        <v>52.640000000000008</v>
+      </c>
+      <c r="AL3" s="46">
+        <v>159.85599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="47">
+        <v>16520</v>
+      </c>
+      <c r="B4" s="48">
+        <v>2181</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="50">
+        <v>99</v>
+      </c>
+      <c r="M4" s="51">
+        <v>14041</v>
+      </c>
+      <c r="N4" s="51">
+        <v>146026</v>
+      </c>
+      <c r="O4" s="48">
+        <v>1300</v>
+      </c>
+      <c r="P4" s="48">
+        <v>2580</v>
+      </c>
+      <c r="Q4" s="51">
+        <v>163</v>
+      </c>
+      <c r="R4" s="51">
+        <v>178</v>
+      </c>
+      <c r="S4" s="51">
+        <v>163</v>
+      </c>
+      <c r="T4" s="51">
+        <v>626</v>
+      </c>
+      <c r="U4" s="51">
+        <v>637</v>
+      </c>
+      <c r="V4" s="51">
+        <v>738</v>
+      </c>
+      <c r="W4" s="51">
+        <v>630</v>
+      </c>
+      <c r="X4" s="51">
+        <v>434.70000000000005</v>
+      </c>
+      <c r="Y4" s="51">
+        <v>542.18399999999986</v>
+      </c>
+      <c r="Z4" s="51">
+        <v>6064.7999999999993</v>
+      </c>
+      <c r="AA4" s="51">
+        <v>288</v>
+      </c>
+      <c r="AB4" s="51">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AC4" s="48">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="48">
+        <v>700</v>
+      </c>
+      <c r="AE4" s="48">
+        <v>3.9</v>
+      </c>
+      <c r="AF4" s="48">
+        <v>13</v>
+      </c>
+      <c r="AG4" s="48">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AH4" s="48">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="48">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="48">
+        <v>20</v>
+      </c>
+      <c r="AK4" s="51">
+        <v>54.337500000000006</v>
+      </c>
+      <c r="AL4" s="52">
+        <v>155.24266666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41">
+        <v>16521</v>
+      </c>
+      <c r="B5" s="42">
+        <v>2186</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="44">
+        <v>99</v>
+      </c>
+      <c r="M5" s="45">
+        <v>13500</v>
+      </c>
+      <c r="N5" s="45">
+        <v>140400</v>
+      </c>
+      <c r="O5" s="42">
+        <v>1300</v>
+      </c>
+      <c r="P5" s="42">
+        <v>2580</v>
+      </c>
+      <c r="Q5" s="45">
+        <v>155</v>
+      </c>
+      <c r="R5" s="45">
+        <v>171</v>
+      </c>
+      <c r="S5" s="45">
+        <v>155</v>
+      </c>
+      <c r="T5" s="45">
+        <v>598</v>
+      </c>
+      <c r="U5" s="45">
+        <v>609</v>
+      </c>
+      <c r="V5" s="45">
+        <v>703</v>
+      </c>
+      <c r="W5" s="45">
+        <v>630</v>
+      </c>
+      <c r="X5" s="45">
+        <v>422</v>
+      </c>
+      <c r="Y5" s="45">
+        <v>569.9079999999999</v>
+      </c>
+      <c r="Z5" s="45">
+        <v>6720</v>
+      </c>
+      <c r="AA5" s="45">
+        <v>288</v>
+      </c>
+      <c r="AB5" s="45">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AC5" s="42">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="42">
+        <v>700</v>
+      </c>
+      <c r="AE5" s="42">
+        <v>3.9</v>
+      </c>
+      <c r="AF5" s="42">
+        <v>13</v>
+      </c>
+      <c r="AG5" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="AH5" s="42">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="42">
+        <v>20</v>
+      </c>
+      <c r="AK5" s="45">
+        <v>52.75</v>
+      </c>
+      <c r="AL5" s="46">
+        <v>163.3231111111111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" s="53">
+        <v>16522</v>
+      </c>
+      <c r="B6" s="54">
+        <v>2187</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="56">
+        <v>99</v>
+      </c>
+      <c r="M6" s="57">
+        <v>13732</v>
+      </c>
+      <c r="N6" s="57">
+        <v>142812</v>
+      </c>
+      <c r="O6" s="54">
+        <v>1300</v>
+      </c>
+      <c r="P6" s="54">
+        <v>2580</v>
+      </c>
+      <c r="Q6" s="57">
+        <v>155</v>
+      </c>
+      <c r="R6" s="57">
+        <v>171</v>
+      </c>
+      <c r="S6" s="57">
+        <v>171</v>
+      </c>
+      <c r="T6" s="57">
+        <v>626</v>
+      </c>
+      <c r="U6" s="57">
+        <v>637</v>
+      </c>
+      <c r="V6" s="57">
+        <v>756</v>
+      </c>
+      <c r="W6" s="57">
+        <v>630</v>
+      </c>
+      <c r="X6" s="57">
+        <v>415.8</v>
+      </c>
+      <c r="Y6" s="57">
+        <v>536.3839999999999</v>
+      </c>
+      <c r="Z6" s="57">
+        <v>7056</v>
+      </c>
+      <c r="AA6" s="57">
+        <v>288</v>
+      </c>
+      <c r="AB6" s="57">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AC6" s="54">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="54">
+        <v>700</v>
+      </c>
+      <c r="AE6" s="54">
+        <v>4.2</v>
+      </c>
+      <c r="AF6" s="54">
+        <v>13</v>
+      </c>
+      <c r="AG6" s="54">
+        <v>1.5</v>
+      </c>
+      <c r="AH6" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="54">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="54">
+        <v>20</v>
+      </c>
+      <c r="AK6" s="57">
+        <v>51.975000000000001</v>
+      </c>
+      <c r="AL6" s="58">
+        <v>154.5982222222222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="47">
+        <v>16523</v>
+      </c>
+      <c r="B7" s="48">
+        <v>2188</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="50">
+        <v>99</v>
+      </c>
+      <c r="M7" s="51">
+        <v>14022</v>
+      </c>
+      <c r="N7" s="51">
+        <v>145828</v>
+      </c>
+      <c r="O7" s="48">
+        <v>1300</v>
+      </c>
+      <c r="P7" s="48">
+        <v>2580</v>
+      </c>
+      <c r="Q7" s="51">
+        <v>163</v>
+      </c>
+      <c r="R7" s="51">
+        <v>178</v>
+      </c>
+      <c r="S7" s="51">
+        <v>163</v>
+      </c>
+      <c r="T7" s="51">
+        <v>598</v>
+      </c>
+      <c r="U7" s="51">
+        <v>609</v>
+      </c>
+      <c r="V7" s="51">
+        <v>703</v>
+      </c>
+      <c r="W7" s="51">
+        <v>630</v>
+      </c>
+      <c r="X7" s="51">
+        <v>419.76000000000005</v>
+      </c>
+      <c r="Y7" s="51">
+        <v>574.24639999999999</v>
+      </c>
+      <c r="Z7" s="51">
+        <v>6384</v>
+      </c>
+      <c r="AA7" s="51">
+        <v>288</v>
+      </c>
+      <c r="AB7" s="51">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AC7" s="48">
+        <v>12</v>
+      </c>
+      <c r="AD7" s="48">
+        <v>500</v>
+      </c>
+      <c r="AE7" s="48">
+        <v>3.9</v>
+      </c>
+      <c r="AF7" s="48">
+        <v>13</v>
+      </c>
+      <c r="AG7" s="48">
+        <v>9</v>
+      </c>
+      <c r="AH7" s="48">
+        <v>5</v>
+      </c>
+      <c r="AI7" s="48">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="48">
+        <v>20</v>
+      </c>
+      <c r="AK7" s="51">
+        <v>52.470000000000006</v>
+      </c>
+      <c r="AL7" s="52">
+        <v>153.80515555555556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41">
+        <v>16524</v>
+      </c>
+      <c r="B8" s="42">
+        <v>2184</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="44">
+        <v>99</v>
+      </c>
+      <c r="M8" s="45">
+        <v>13722</v>
+      </c>
+      <c r="N8" s="45">
+        <v>142708</v>
+      </c>
+      <c r="O8" s="42">
+        <v>1300</v>
+      </c>
+      <c r="P8" s="42">
+        <v>2580</v>
+      </c>
+      <c r="Q8" s="45">
+        <v>155</v>
+      </c>
+      <c r="R8" s="45">
+        <v>171</v>
+      </c>
+      <c r="S8" s="45">
+        <v>155</v>
+      </c>
+      <c r="T8" s="45">
+        <v>598</v>
+      </c>
+      <c r="U8" s="45">
+        <v>609</v>
+      </c>
+      <c r="V8" s="45">
+        <v>703</v>
+      </c>
+      <c r="W8" s="45">
+        <v>630</v>
+      </c>
+      <c r="X8" s="45">
+        <v>413.6</v>
+      </c>
+      <c r="Y8" s="45">
+        <v>538.70399999999995</v>
+      </c>
+      <c r="Z8" s="45">
+        <v>6720</v>
+      </c>
+      <c r="AA8" s="45">
+        <v>288</v>
+      </c>
+      <c r="AB8" s="45">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AC8" s="42">
+        <v>12</v>
+      </c>
+      <c r="AD8" s="42">
+        <v>700</v>
+      </c>
+      <c r="AE8" s="42">
+        <v>4.2</v>
+      </c>
+      <c r="AF8" s="42">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="AG8" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="AH8" s="42">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="42">
+        <v>20</v>
+      </c>
+      <c r="AK8" s="45">
+        <v>51.7</v>
+      </c>
+      <c r="AL8" s="46">
+        <v>154.85599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="53">
+        <v>16525</v>
+      </c>
+      <c r="B9" s="54">
+        <v>2182</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="56">
+        <v>99</v>
+      </c>
+      <c r="M9" s="57">
+        <v>13717</v>
+      </c>
+      <c r="N9" s="57">
+        <v>142656</v>
+      </c>
+      <c r="O9" s="54">
+        <v>1300</v>
+      </c>
+      <c r="P9" s="54">
+        <v>2580</v>
+      </c>
+      <c r="Q9" s="57">
+        <v>159</v>
+      </c>
+      <c r="R9" s="57">
+        <v>174</v>
+      </c>
+      <c r="S9" s="57">
+        <v>155</v>
+      </c>
+      <c r="T9" s="57">
+        <v>602</v>
+      </c>
+      <c r="U9" s="57">
+        <v>612</v>
+      </c>
+      <c r="V9" s="57">
+        <v>714</v>
+      </c>
+      <c r="W9" s="57">
+        <v>630</v>
+      </c>
+      <c r="X9" s="57">
+        <v>417.78</v>
+      </c>
+      <c r="Y9" s="57">
+        <v>549.79359999999986</v>
+      </c>
+      <c r="Z9" s="57">
+        <v>7595</v>
+      </c>
+      <c r="AA9" s="57">
+        <v>288</v>
+      </c>
+      <c r="AB9" s="57">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AC9" s="54">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>14</v>
+      <c r="AD9" s="54">
+        <v>1000</v>
+      </c>
+      <c r="AE9" s="54">
+        <v>3.3</v>
+      </c>
+      <c r="AF9" s="54">
+        <v>10</v>
+      </c>
+      <c r="AG9" s="54">
+        <v>1.5</v>
+      </c>
+      <c r="AH9" s="54">
+        <v>5</v>
+      </c>
+      <c r="AI9" s="54">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="54">
+        <v>20</v>
+      </c>
+      <c r="AK9" s="57">
+        <v>52.222499999999997</v>
+      </c>
+      <c r="AL9" s="58">
+        <v>156.08817777777776</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23">
-        <v>4</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="6">
-        <v>42286</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="8">
-        <v>42280</v>
-      </c>
-      <c r="H2" s="8">
-        <v>6</v>
-      </c>
-      <c r="I2" s="6" t="s">
+    <row r="10" spans="1:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="47">
+        <v>16526</v>
+      </c>
+      <c r="B10" s="48">
+        <v>2183</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="50">
+        <v>99</v>
+      </c>
+      <c r="M10" s="51">
+        <v>14481</v>
+      </c>
+      <c r="N10" s="51">
+        <v>150602</v>
+      </c>
+      <c r="O10" s="48">
+        <v>1300</v>
+      </c>
+      <c r="P10" s="48">
+        <v>2580</v>
+      </c>
+      <c r="Q10" s="51">
+        <v>159</v>
+      </c>
+      <c r="R10" s="51">
+        <v>174</v>
+      </c>
+      <c r="S10" s="51">
+        <v>163</v>
+      </c>
+      <c r="T10" s="51">
+        <v>605</v>
+      </c>
+      <c r="U10" s="51">
+        <v>619</v>
+      </c>
+      <c r="V10" s="51">
+        <v>738</v>
+      </c>
+      <c r="W10" s="51">
+        <v>630</v>
+      </c>
+      <c r="X10" s="51">
+        <v>426.76</v>
+      </c>
+      <c r="Y10" s="51">
+        <v>554.94399999999996</v>
+      </c>
+      <c r="Z10" s="51">
+        <v>6451.2000000000007</v>
+      </c>
+      <c r="AA10" s="51">
+        <v>288</v>
+      </c>
+      <c r="AB10" s="51">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AC10" s="48">
+        <v>12</v>
+      </c>
+      <c r="AD10" s="48">
+        <v>700</v>
+      </c>
+      <c r="AE10" s="48">
+        <v>4.2</v>
+      </c>
+      <c r="AF10" s="48">
+        <v>10</v>
+      </c>
+      <c r="AG10" s="48">
+        <v>9</v>
+      </c>
+      <c r="AH10" s="48">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="48">
         <v>0</v>
       </c>
-      <c r="J2" s="6">
-        <v>60</v>
-      </c>
-      <c r="K2" s="9">
-        <v>8</v>
-      </c>
-      <c r="L2" s="10">
-        <v>5</v>
-      </c>
-      <c r="M2" s="5">
-        <v>5</v>
-      </c>
-      <c r="N2" s="5">
+      <c r="AJ10" s="48">
         <v>20</v>
       </c>
+      <c r="AK10" s="51">
+        <v>53.344999999999999</v>
+      </c>
+      <c r="AL10" s="52">
+        <v>161.66044444444444</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="12">
-        <v>212466</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="14">
-        <v>212460</v>
-      </c>
-      <c r="H3" s="14">
-        <v>6</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>60</v>
-      </c>
-      <c r="K3" s="15">
-        <v>8</v>
-      </c>
-      <c r="L3" s="16">
-        <v>5</v>
-      </c>
-      <c r="M3" s="11">
-        <v>5</v>
-      </c>
-      <c r="N3" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="12">
-        <v>92266</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="14">
-        <v>92260</v>
-      </c>
-      <c r="H4" s="14">
-        <v>6</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>60</v>
-      </c>
-      <c r="K4" s="15">
-        <v>8</v>
-      </c>
-      <c r="L4" s="16">
-        <v>5</v>
-      </c>
-      <c r="M4" s="11">
-        <v>5</v>
-      </c>
-      <c r="N4" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="17">
-        <v>12586</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="19">
-        <v>12580</v>
-      </c>
-      <c r="H5" s="14">
-        <v>6</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>60</v>
-      </c>
-      <c r="K5" s="15">
-        <v>8</v>
-      </c>
-      <c r="L5" s="16">
-        <v>5</v>
-      </c>
-      <c r="M5" s="11">
-        <v>5</v>
-      </c>
-      <c r="N5" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
-        <v>2</v>
-      </c>
-      <c r="B6" s="23">
-        <v>4</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6">
-        <v>32166</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="8">
-        <v>32160</v>
-      </c>
-      <c r="H6" s="8">
-        <v>6</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>60</v>
-      </c>
-      <c r="K6" s="9">
-        <v>8</v>
-      </c>
-      <c r="L6" s="10">
-        <v>5</v>
-      </c>
-      <c r="M6" s="5">
-        <v>5</v>
-      </c>
-      <c r="N6" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="12">
-        <v>212266</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="14">
-        <v>212260</v>
-      </c>
-      <c r="H7" s="14">
-        <v>6</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>60</v>
-      </c>
-      <c r="K7" s="15">
-        <v>8</v>
-      </c>
-      <c r="L7" s="16">
-        <v>5</v>
-      </c>
-      <c r="M7" s="11">
-        <v>5</v>
-      </c>
-      <c r="N7" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="12">
-        <v>92066</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="14">
-        <v>92060</v>
-      </c>
-      <c r="H8" s="14">
-        <v>6</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>60</v>
-      </c>
-      <c r="K8" s="15">
-        <v>8</v>
-      </c>
-      <c r="L8" s="16">
-        <v>5</v>
-      </c>
-      <c r="M8" s="11">
-        <v>5</v>
-      </c>
-      <c r="N8" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="17">
-        <v>102126</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="19">
-        <v>102120</v>
-      </c>
-      <c r="H9" s="14">
-        <v>6</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>60</v>
-      </c>
-      <c r="K9" s="15">
-        <v>8</v>
-      </c>
-      <c r="L9" s="16">
-        <v>5</v>
-      </c>
-      <c r="M9" s="11">
-        <v>5</v>
-      </c>
-      <c r="N9" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
-        <v>3</v>
-      </c>
-      <c r="B10" s="23">
-        <v>4</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="6">
-        <v>72166</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="8">
-        <v>72160</v>
-      </c>
-      <c r="H10" s="8">
-        <v>6</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="6">
-        <v>60</v>
-      </c>
-      <c r="K10" s="9">
-        <v>8</v>
-      </c>
-      <c r="L10" s="10">
-        <v>5</v>
-      </c>
-      <c r="M10" s="5">
-        <v>5</v>
-      </c>
-      <c r="N10" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="12">
-        <v>202206</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="14">
-        <v>202200</v>
-      </c>
-      <c r="H11" s="14">
-        <v>6</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="12">
-        <v>60</v>
-      </c>
-      <c r="K11" s="15">
-        <v>8</v>
-      </c>
-      <c r="L11" s="16">
-        <v>5</v>
-      </c>
-      <c r="M11" s="11">
-        <v>5</v>
-      </c>
-      <c r="N11" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="12">
-        <v>82306</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="14">
-        <v>82300</v>
-      </c>
-      <c r="H12" s="14">
-        <v>6</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="12">
-        <v>60</v>
-      </c>
-      <c r="K12" s="15">
-        <v>8</v>
-      </c>
-      <c r="L12" s="16">
-        <v>5</v>
-      </c>
-      <c r="M12" s="11">
-        <v>5</v>
-      </c>
-      <c r="N12" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="17">
-        <v>12566</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="19">
-        <v>12560</v>
-      </c>
-      <c r="H13" s="14">
-        <v>6</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="12">
-        <v>60</v>
-      </c>
-      <c r="K13" s="15">
-        <v>8</v>
-      </c>
-      <c r="L13" s="16">
-        <v>5</v>
-      </c>
-      <c r="M13" s="11">
-        <v>5</v>
-      </c>
-      <c r="N13" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:38" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I2:K10">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/체크리스트생성기/insert.xlsx
+++ b/체크리스트생성기/insert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\파이썬프로젝트\r2mTest\체크리스트생성기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A1BCCC-DE32-4C78-A5DD-B6A107650CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F74FE17-B95C-43D8-A6E2-2E275A15A3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8D60C344-9B9F-46DE-BC30-0142C66CDCF5}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="34134314 (2)" sheetId="4" r:id="rId4"/>
     <sheet name="34134314 (3)" sheetId="5" r:id="rId5"/>
     <sheet name="타겟 (2)" sheetId="6" r:id="rId6"/>
+    <sheet name="타겟 (3)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="509">
   <si>
     <t>희귀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1612,6 +1613,353 @@
   </si>
   <si>
     <t>PkgName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 설명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일 운세 극복의 성배 상자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>44 :Box</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+사용 시 다음 아이템 중 1종 획득
+- 8강 확정 극복의 성배 상자 1개
+- 행운의 구슬[성배] 888개
+- 행운의 구슬[성배] 88개
+- 행운의 구슬[성배] 8개
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8강 확정 극복의 성배 상자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>44 :Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+사용 시 다음 아이템 획득
+- +8 극복의 성배 1개
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">제작 --&gt; 기타 --&gt; 프로모션
+행운의 구슬[성배] 888개를 통해 제작 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제작 성공 확률 : 50%</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6강 확정 극복의 성배 상자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+사용 시 다음 아이템 획득
+- +6 극복의 성배 1개
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">제작 --&gt; 기타 --&gt; 프로모션
+행운의 구슬[성배] 88개를 통해 제작 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제작 성공 확률 : 50%</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4강 확정 극복의 성배 상자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+사용 시 다음 아이템 획득
+- +4 극복의 성배 1개
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">제작 --&gt; 기타 --&gt; 프로모션
+행운의 구슬[성배] 8개를 통해 제작 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제작 성공 확률 : 15%</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>행운의 구슬[성배]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>43 : Stuff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+행운의 구슬[성배] 개수에 따라 확률을 통해 확정 극복의 성배 상자를 [제작]할 수 있다.
+- 행운의 구슬[성배] 8개 : 4강 확정 극복의 성배 상자
+- 행운의 구슬[성배] 88개 : 6강 확정 극복의 성배 상자
+- 행운의 구슬[성배] 888개 : 8강 확정 극복의 성배 상자
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일 운세 영혼의 부적 상자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+사용 시 다음 아이템 중 1종 획득
+- 8강 확정 영혼의 부적 상자 1개
+- 행운의 구슬[부적] 888개
+- 행운의 구슬[부적] 88개
+- 행운의 구슬[부적] 8개
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8강 확정 영혼의 부적 상자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+사용 시 다음 아이템 획득
+- +8 영혼의 부적 1개
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">제작 --&gt; 기타 --&gt; 프로모션
+행운의 구슬[부적] 888개를 통해 제작 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제작 성공 확률 : 50%</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6강 확정 영혼의 부적 상자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+사용 시 다음 아이템 획득
+- +6 영혼의 부적 1개
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">제작 --&gt; 기타 --&gt; 프로모션
+행운의 구슬[부적] 88개를 통해 제작 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제작 성공 확률 : 50%</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4강 확정 영혼의 부적 상자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+사용 시 다음 아이템 획득
+- +4 영혼의 부적 1개
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">제작 --&gt; 기타 --&gt; 프로모션
+행운의 구슬[부적] 8개를 통해 제작 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제작 성공 확률 : 15%</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>행운의 구슬[부적]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+행운의 구슬[부적] 개수에 따라 확률을 통해 확정 영혼의 부적 상자를 [제작]할 수 있다.
+- 행운의 구슬[부적] 8개 : 4강 확정 영혼의 부적 상자
+- 행운의 구슬[부적] 88개 : 6강 확정 영혼의 부적 상자
+- 행운의 구슬[부적] 888개 : 8강 확정 영혼의 부적 상자
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>전장의 서막 도감 패키지 상자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+사용 시 다음 아이템 획득
+- 전장의 서막 1개
+- 상급 변신 뽑기권[11회] 2개
+- 상급 서번트 뽑기권[11회] 2개
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅 변신 확정 패키지 상자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+사용 시 다음 아이템 획득
+- 최상급 변신 뽑기권[11회] 5개
+- 상급 변신 뽑기권[11회] 5개
+- 희귀 변신 확정 뽑기권 2개
+- 영웅 변신 뽑기권 작은 조각 2개
+- 로얄 코인 275,000개
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤라켄의 특수 매터리얼 패키지 상자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+사용 시 다음 아이템 획득
+- 최상급 특수 매터리얼 상자[14일] 1개
+- 상급 서번트 뽑기권[11회] 5개
+- 최상급 서번트 뽑기권[11회] 5개
+- 빛나는 유피테르의 계약서[1시간] 15개
+- 로얄 코인 275,000개
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤라켄의 특수 매터리얼 상자[14일]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+사용 시 다음 아이템 획득
+- 헤라켄의 특수 매터리얼[14일] 1개
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤라켄의 특수 매터리얼[14일]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>83 :MaterialEvent</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+[4번째 슬롯 / 기간제 14일 아이템]
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1624,7 +1972,7 @@
     <numFmt numFmtId="176" formatCode="0.000%"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1739,8 +2087,33 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1879,8 +2252,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF44546A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="90">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -2981,6 +3372,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3000,7 +3404,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="319">
+  <cellXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3256,6 +3660,549 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="36" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="9" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="9" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="9" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="52" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="21" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="21" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="21" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="21" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="21" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="21" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="21" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="21" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="21" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="20" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="20" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="20" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="20" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="20" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="20" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="20" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="20" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="21" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="21" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="21" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3274,6 +4221,18 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3319,560 +4278,59 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="16" fillId="26" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="16" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="36" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="9" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="9" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="9" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="52" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="20" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="21" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="21" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="21" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="21" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="21" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="21" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="21" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="21" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="21" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="21" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="21" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="21" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="20" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="20" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="20" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="20" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="20" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="20" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="20" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4208,10 +4666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6517434B-E7CD-4A5A-BB70-B6B17332CD7F}">
-  <dimension ref="A1:W76"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4232,3496 +4690,405 @@
     <col min="14" max="14" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="144" t="s">
-        <v>359</v>
-      </c>
-      <c r="B1" s="145" t="s">
-        <v>461</v>
-      </c>
-      <c r="C1" s="145" t="s">
-        <v>360</v>
-      </c>
-      <c r="D1" s="145" t="s">
-        <v>361</v>
-      </c>
-      <c r="E1" s="145" t="s">
-        <v>362</v>
-      </c>
-      <c r="F1" s="145" t="s">
-        <v>458</v>
-      </c>
-      <c r="G1" s="145" t="s">
-        <v>363</v>
-      </c>
-      <c r="H1" s="145" t="s">
-        <v>364</v>
-      </c>
-      <c r="I1" s="145" t="s">
-        <v>365</v>
-      </c>
-      <c r="J1" s="145" t="s">
-        <v>459</v>
-      </c>
-      <c r="K1" s="145" t="s">
-        <v>366</v>
-      </c>
-      <c r="L1" s="145" t="s">
-        <v>367</v>
-      </c>
-      <c r="M1" s="146" t="s">
-        <v>368</v>
-      </c>
-      <c r="N1" s="147" t="s">
-        <v>369</v>
-      </c>
-      <c r="O1" s="147" t="s">
-        <v>460</v>
-      </c>
-      <c r="P1" s="145" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q1" s="145" t="s">
-        <v>371</v>
-      </c>
-      <c r="R1" s="148" t="s">
-        <v>372</v>
-      </c>
-      <c r="S1" s="148" t="s">
-        <v>373</v>
-      </c>
-      <c r="T1" s="148" t="s">
-        <v>374</v>
-      </c>
-      <c r="U1" s="148" t="s">
-        <v>375</v>
-      </c>
-      <c r="V1" s="145" t="s">
-        <v>376</v>
-      </c>
-      <c r="W1" s="148" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="149">
-        <v>50024</v>
-      </c>
-      <c r="B2" s="150" t="s">
-        <v>378</v>
-      </c>
-      <c r="C2" s="151" t="s">
-        <v>379</v>
-      </c>
-      <c r="D2" s="152">
-        <v>1110372</v>
-      </c>
-      <c r="E2" s="152">
-        <v>11</v>
-      </c>
-      <c r="F2" s="153">
-        <v>6</v>
-      </c>
-      <c r="G2" s="154" t="s">
-        <v>380</v>
-      </c>
-      <c r="H2" s="155">
-        <v>452000</v>
-      </c>
-      <c r="I2" s="155">
-        <v>1</v>
-      </c>
-      <c r="J2" s="155">
-        <v>6</v>
-      </c>
-      <c r="K2" s="156" t="s">
-        <v>381</v>
-      </c>
-      <c r="L2" s="157" t="s">
-        <v>381</v>
-      </c>
-      <c r="M2" s="157" t="s">
-        <v>381</v>
-      </c>
-      <c r="N2" s="157" t="s">
-        <v>381</v>
-      </c>
-      <c r="O2" s="157" t="s">
-        <v>381</v>
-      </c>
-      <c r="P2" s="152" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q2" s="152">
-        <v>1</v>
-      </c>
-      <c r="R2" s="152" t="s">
-        <v>383</v>
-      </c>
-      <c r="S2" s="158">
-        <v>45134</v>
-      </c>
-      <c r="T2" s="152" t="s">
-        <v>384</v>
-      </c>
-      <c r="U2" s="152" t="s">
-        <v>385</v>
-      </c>
-      <c r="V2" s="152">
-        <v>120</v>
-      </c>
-      <c r="W2" s="152" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="159"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="164" t="s">
-        <v>387</v>
-      </c>
-      <c r="H3" s="164">
-        <v>360</v>
-      </c>
-      <c r="I3" s="164">
-        <v>8</v>
-      </c>
-      <c r="J3" s="164">
-        <v>6</v>
-      </c>
-      <c r="K3" s="165"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162"/>
-      <c r="T3" s="162"/>
-      <c r="U3" s="162"/>
-      <c r="V3" s="162"/>
-      <c r="W3" s="162"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="167">
-        <v>50025</v>
-      </c>
-      <c r="B4" s="168" t="s">
-        <v>388</v>
-      </c>
-      <c r="C4" s="169" t="s">
-        <v>379</v>
-      </c>
-      <c r="D4" s="169">
-        <v>1110372</v>
-      </c>
-      <c r="E4" s="169">
-        <v>1</v>
-      </c>
-      <c r="F4" s="169">
-        <v>6</v>
-      </c>
-      <c r="G4" s="170" t="s">
-        <v>380</v>
-      </c>
-      <c r="H4" s="171">
-        <v>452000</v>
-      </c>
-      <c r="I4" s="171">
-        <v>1</v>
-      </c>
-      <c r="J4" s="171">
-        <v>6</v>
-      </c>
-      <c r="K4" s="172" t="s">
-        <v>381</v>
-      </c>
-      <c r="L4" s="169" t="s">
-        <v>381</v>
-      </c>
-      <c r="M4" s="169" t="s">
-        <v>381</v>
-      </c>
-      <c r="N4" s="169" t="s">
-        <v>381</v>
-      </c>
-      <c r="O4" s="169" t="s">
-        <v>381</v>
-      </c>
-      <c r="P4" s="169" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q4" s="169">
-        <v>2</v>
-      </c>
-      <c r="R4" s="169" t="s">
-        <v>383</v>
-      </c>
-      <c r="S4" s="173">
-        <v>45134</v>
-      </c>
-      <c r="T4" s="169" t="s">
-        <v>384</v>
-      </c>
-      <c r="U4" s="169" t="s">
-        <v>389</v>
-      </c>
-      <c r="V4" s="169">
-        <v>12</v>
-      </c>
-      <c r="W4" s="169" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="167"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="175" t="s">
-        <v>387</v>
-      </c>
-      <c r="H5" s="176">
-        <v>360</v>
-      </c>
-      <c r="I5" s="176">
-        <v>8</v>
-      </c>
-      <c r="J5" s="176">
-        <v>6</v>
-      </c>
-      <c r="K5" s="172"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="169"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="169"/>
-      <c r="S5" s="169"/>
-      <c r="T5" s="169"/>
-      <c r="U5" s="169"/>
-      <c r="V5" s="169"/>
-      <c r="W5" s="169"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="177">
-        <v>50026</v>
-      </c>
-      <c r="B6" s="178" t="s">
-        <v>390</v>
-      </c>
-      <c r="C6" s="179" t="s">
-        <v>391</v>
-      </c>
-      <c r="D6" s="180">
-        <v>1110373</v>
-      </c>
-      <c r="E6" s="179">
-        <v>11</v>
-      </c>
-      <c r="F6" s="181">
-        <v>6</v>
-      </c>
-      <c r="G6" s="182" t="s">
-        <v>392</v>
-      </c>
-      <c r="H6" s="183">
-        <v>453000</v>
-      </c>
-      <c r="I6" s="184">
-        <v>1</v>
-      </c>
-      <c r="J6" s="185">
-        <v>6</v>
-      </c>
-      <c r="K6" s="186" t="s">
-        <v>381</v>
-      </c>
-      <c r="L6" s="179" t="s">
-        <v>381</v>
-      </c>
-      <c r="M6" s="179" t="s">
-        <v>381</v>
-      </c>
-      <c r="N6" s="179" t="s">
-        <v>381</v>
-      </c>
-      <c r="O6" s="187" t="s">
-        <v>381</v>
-      </c>
-      <c r="P6" s="152" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q6" s="179">
-        <v>3</v>
-      </c>
-      <c r="R6" s="179" t="s">
-        <v>383</v>
-      </c>
-      <c r="S6" s="188">
-        <v>45134</v>
-      </c>
-      <c r="T6" s="179" t="s">
-        <v>384</v>
-      </c>
-      <c r="U6" s="179" t="s">
-        <v>385</v>
-      </c>
-      <c r="V6" s="179">
-        <v>120</v>
-      </c>
-      <c r="W6" s="179" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="189"/>
-      <c r="B7" s="190"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="191"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="193" t="s">
-        <v>387</v>
-      </c>
-      <c r="H7" s="194">
-        <v>360</v>
-      </c>
-      <c r="I7" s="194">
-        <v>8</v>
-      </c>
-      <c r="J7" s="195">
-        <v>6</v>
-      </c>
-      <c r="K7" s="196"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="197"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="191"/>
-      <c r="R7" s="191"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="191"/>
-      <c r="U7" s="191"/>
-      <c r="V7" s="191"/>
-      <c r="W7" s="191"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="198">
-        <v>50027</v>
-      </c>
-      <c r="B8" s="199" t="s">
-        <v>393</v>
-      </c>
-      <c r="C8" s="200" t="s">
-        <v>391</v>
-      </c>
-      <c r="D8" s="169">
-        <v>1110373</v>
-      </c>
-      <c r="E8" s="200">
-        <v>1</v>
-      </c>
-      <c r="F8" s="200">
-        <v>6</v>
-      </c>
-      <c r="G8" s="201" t="s">
-        <v>392</v>
-      </c>
-      <c r="H8" s="202">
-        <v>453000</v>
-      </c>
-      <c r="I8" s="202">
-        <v>1</v>
-      </c>
-      <c r="J8" s="203">
-        <v>6</v>
-      </c>
-      <c r="K8" s="204" t="s">
-        <v>381</v>
-      </c>
-      <c r="L8" s="205" t="s">
-        <v>381</v>
-      </c>
-      <c r="M8" s="205" t="s">
-        <v>381</v>
-      </c>
-      <c r="N8" s="205" t="s">
-        <v>381</v>
-      </c>
-      <c r="O8" s="206" t="s">
-        <v>381</v>
-      </c>
-      <c r="P8" s="198" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q8" s="200">
-        <v>4</v>
-      </c>
-      <c r="R8" s="200" t="s">
-        <v>383</v>
-      </c>
-      <c r="S8" s="207">
-        <v>45134</v>
-      </c>
-      <c r="T8" s="200" t="s">
-        <v>384</v>
-      </c>
-      <c r="U8" s="200" t="s">
-        <v>389</v>
-      </c>
-      <c r="V8" s="200">
-        <v>12</v>
-      </c>
-      <c r="W8" s="200" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="208"/>
-      <c r="B9" s="209"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="210" t="s">
-        <v>387</v>
-      </c>
-      <c r="H9" s="210">
-        <v>360</v>
-      </c>
-      <c r="I9" s="210">
-        <v>8</v>
-      </c>
-      <c r="J9" s="211">
-        <v>6</v>
-      </c>
-      <c r="K9" s="212"/>
-      <c r="L9" s="213"/>
-      <c r="M9" s="213"/>
-      <c r="N9" s="213"/>
-      <c r="O9" s="214"/>
-      <c r="P9" s="208"/>
-      <c r="Q9" s="174"/>
-      <c r="R9" s="174"/>
-      <c r="S9" s="174"/>
-      <c r="T9" s="174"/>
-      <c r="U9" s="174"/>
-      <c r="V9" s="174"/>
-      <c r="W9" s="174"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="215">
-        <v>10315</v>
-      </c>
-      <c r="B10" s="216" t="s">
-        <v>394</v>
-      </c>
-      <c r="C10" s="217" t="s">
-        <v>395</v>
-      </c>
-      <c r="D10" s="217">
-        <v>1110374</v>
-      </c>
-      <c r="E10" s="218">
-        <v>1</v>
-      </c>
-      <c r="F10" s="219">
-        <v>6</v>
-      </c>
-      <c r="G10" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="H10" s="221">
-        <v>1110387</v>
-      </c>
-      <c r="I10" s="219">
-        <v>11</v>
-      </c>
-      <c r="J10" s="219">
-        <v>6</v>
-      </c>
-      <c r="K10" s="222" t="s">
-        <v>379</v>
-      </c>
-      <c r="L10" s="221">
-        <v>1110372</v>
-      </c>
-      <c r="M10" s="222">
-        <v>1</v>
-      </c>
-      <c r="N10" s="223">
-        <v>0.85</v>
-      </c>
-      <c r="O10" s="221">
-        <v>6</v>
-      </c>
-      <c r="P10" s="221" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q10" s="217">
-        <v>26</v>
-      </c>
-      <c r="R10" s="217" t="s">
-        <v>383</v>
-      </c>
-      <c r="S10" s="224">
-        <v>45134</v>
-      </c>
-      <c r="T10" s="224">
-        <v>45148</v>
-      </c>
-      <c r="U10" s="217" t="s">
-        <v>385</v>
-      </c>
-      <c r="V10" s="217">
-        <v>120</v>
-      </c>
-      <c r="W10" s="217" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="215"/>
-      <c r="B11" s="216"/>
-      <c r="C11" s="217"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="218"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="220"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="219"/>
-      <c r="K11" s="225" t="s">
-        <v>379</v>
-      </c>
-      <c r="L11" s="219"/>
-      <c r="M11" s="226">
-        <v>2</v>
-      </c>
-      <c r="N11" s="227">
-        <v>0.06</v>
-      </c>
-      <c r="O11" s="219"/>
-      <c r="P11" s="219"/>
-      <c r="Q11" s="217"/>
-      <c r="R11" s="217"/>
-      <c r="S11" s="216"/>
-      <c r="T11" s="216"/>
-      <c r="U11" s="217"/>
-      <c r="V11" s="217"/>
-      <c r="W11" s="217"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="215"/>
-      <c r="B12" s="216"/>
-      <c r="C12" s="217"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="218"/>
-      <c r="F12" s="219"/>
-      <c r="G12" s="220"/>
-      <c r="H12" s="219"/>
-      <c r="I12" s="219"/>
-      <c r="J12" s="219"/>
-      <c r="K12" s="228" t="s">
-        <v>379</v>
-      </c>
-      <c r="L12" s="219"/>
-      <c r="M12" s="229">
-        <v>3</v>
-      </c>
-      <c r="N12" s="227">
-        <v>0.04</v>
-      </c>
-      <c r="O12" s="219"/>
-      <c r="P12" s="219"/>
-      <c r="Q12" s="217"/>
-      <c r="R12" s="217"/>
-      <c r="S12" s="216"/>
-      <c r="T12" s="216"/>
-      <c r="U12" s="217"/>
-      <c r="V12" s="217"/>
-      <c r="W12" s="217"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
-      <c r="B13" s="216"/>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="218"/>
-      <c r="F13" s="219"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="219"/>
-      <c r="J13" s="219"/>
-      <c r="K13" s="228" t="s">
-        <v>379</v>
-      </c>
-      <c r="L13" s="219"/>
-      <c r="M13" s="229">
-        <v>4</v>
-      </c>
-      <c r="N13" s="227">
-        <v>0.03</v>
-      </c>
-      <c r="O13" s="219"/>
-      <c r="P13" s="219"/>
-      <c r="Q13" s="217"/>
-      <c r="R13" s="217"/>
-      <c r="S13" s="216"/>
-      <c r="T13" s="216"/>
-      <c r="U13" s="217"/>
-      <c r="V13" s="217"/>
-      <c r="W13" s="217"/>
-    </row>
-    <row r="14" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="215"/>
-      <c r="B14" s="216"/>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="218"/>
-      <c r="F14" s="219"/>
-      <c r="G14" s="230"/>
-      <c r="H14" s="231"/>
-      <c r="I14" s="232"/>
-      <c r="J14" s="233"/>
-      <c r="K14" s="234" t="s">
-        <v>379</v>
-      </c>
-      <c r="L14" s="231"/>
-      <c r="M14" s="229">
-        <v>5</v>
-      </c>
-      <c r="N14" s="227">
-        <v>0.02</v>
-      </c>
-      <c r="O14" s="233"/>
-      <c r="P14" s="219"/>
-      <c r="Q14" s="217"/>
-      <c r="R14" s="217"/>
-      <c r="S14" s="216"/>
-      <c r="T14" s="216"/>
-      <c r="U14" s="217"/>
-      <c r="V14" s="217"/>
-      <c r="W14" s="217"/>
-    </row>
-    <row r="15" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="215"/>
-      <c r="B15" s="216"/>
-      <c r="C15" s="217"/>
-      <c r="D15" s="217"/>
-      <c r="E15" s="218"/>
-      <c r="F15" s="233"/>
-      <c r="G15" s="235" t="s">
-        <v>399</v>
-      </c>
-      <c r="H15" s="236">
-        <v>952</v>
-      </c>
-      <c r="I15" s="237">
-        <v>165000</v>
-      </c>
-      <c r="J15" s="235">
-        <v>6</v>
-      </c>
-      <c r="K15" s="238" t="s">
-        <v>381</v>
-      </c>
-      <c r="L15" s="238" t="s">
-        <v>381</v>
-      </c>
-      <c r="M15" s="239" t="s">
-        <v>381</v>
-      </c>
-      <c r="N15" s="239" t="s">
-        <v>381</v>
-      </c>
-      <c r="O15" s="239" t="s">
-        <v>381</v>
-      </c>
-      <c r="P15" s="219"/>
-      <c r="Q15" s="217"/>
-      <c r="R15" s="217"/>
-      <c r="S15" s="216"/>
-      <c r="T15" s="216"/>
-      <c r="U15" s="217"/>
-      <c r="V15" s="217"/>
-      <c r="W15" s="217"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="240">
-        <v>10316</v>
-      </c>
-      <c r="B16" s="221" t="s">
-        <v>400</v>
-      </c>
-      <c r="C16" s="221" t="s">
-        <v>401</v>
-      </c>
-      <c r="D16" s="221">
-        <v>1110375</v>
-      </c>
-      <c r="E16" s="221">
-        <v>1</v>
-      </c>
-      <c r="F16" s="221">
-        <v>6</v>
-      </c>
-      <c r="G16" s="221" t="s">
-        <v>402</v>
-      </c>
-      <c r="H16" s="221">
-        <v>1110388</v>
-      </c>
-      <c r="I16" s="241">
-        <v>11</v>
-      </c>
-      <c r="J16" s="221">
-        <v>6</v>
-      </c>
-      <c r="K16" s="242" t="s">
-        <v>403</v>
-      </c>
-      <c r="L16" s="221">
-        <v>1110373</v>
-      </c>
-      <c r="M16" s="242">
-        <v>1</v>
-      </c>
-      <c r="N16" s="243">
-        <v>0.85</v>
-      </c>
-      <c r="O16" s="221">
-        <v>6</v>
-      </c>
-      <c r="P16" s="221" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q16" s="221">
-        <v>27</v>
-      </c>
-      <c r="R16" s="221" t="s">
-        <v>383</v>
-      </c>
-      <c r="S16" s="244">
-        <v>45134</v>
-      </c>
-      <c r="T16" s="244">
-        <v>45148</v>
-      </c>
-      <c r="U16" s="221" t="s">
-        <v>385</v>
-      </c>
-      <c r="V16" s="221">
-        <v>120</v>
-      </c>
-      <c r="W16" s="221" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="245"/>
-      <c r="B17" s="219"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="219"/>
-      <c r="G17" s="219"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="246"/>
-      <c r="J17" s="219"/>
-      <c r="K17" s="225" t="s">
-        <v>403</v>
-      </c>
-      <c r="L17" s="219"/>
-      <c r="M17" s="225">
-        <v>2</v>
-      </c>
-      <c r="N17" s="247">
-        <v>0.06</v>
-      </c>
-      <c r="O17" s="219"/>
-      <c r="P17" s="219"/>
-      <c r="Q17" s="219"/>
-      <c r="R17" s="219"/>
-      <c r="S17" s="216"/>
-      <c r="T17" s="216"/>
-      <c r="U17" s="219"/>
-      <c r="V17" s="219"/>
-      <c r="W17" s="219"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="245"/>
-      <c r="B18" s="219"/>
-      <c r="C18" s="219"/>
-      <c r="D18" s="219"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="246"/>
-      <c r="J18" s="219"/>
-      <c r="K18" s="248" t="s">
-        <v>403</v>
-      </c>
-      <c r="L18" s="219"/>
-      <c r="M18" s="248">
-        <v>3</v>
-      </c>
-      <c r="N18" s="249">
-        <v>0.04</v>
-      </c>
-      <c r="O18" s="219"/>
-      <c r="P18" s="219"/>
-      <c r="Q18" s="219"/>
-      <c r="R18" s="219"/>
-      <c r="S18" s="216"/>
-      <c r="T18" s="216"/>
-      <c r="U18" s="219"/>
-      <c r="V18" s="219"/>
-      <c r="W18" s="219"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="245"/>
-      <c r="B19" s="219"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="246"/>
-      <c r="J19" s="219"/>
-      <c r="K19" s="248" t="s">
-        <v>403</v>
-      </c>
-      <c r="L19" s="219"/>
-      <c r="M19" s="248">
-        <v>4</v>
-      </c>
-      <c r="N19" s="249">
-        <v>0.03</v>
-      </c>
-      <c r="O19" s="219"/>
-      <c r="P19" s="219"/>
-      <c r="Q19" s="219"/>
-      <c r="R19" s="219"/>
-      <c r="S19" s="216"/>
-      <c r="T19" s="216"/>
-      <c r="U19" s="219"/>
-      <c r="V19" s="219"/>
-      <c r="W19" s="219"/>
-    </row>
-    <row r="20" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="245"/>
-      <c r="B20" s="219"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="219"/>
-      <c r="G20" s="232"/>
-      <c r="H20" s="231"/>
-      <c r="I20" s="246"/>
-      <c r="J20" s="233"/>
-      <c r="K20" s="248" t="s">
-        <v>403</v>
-      </c>
-      <c r="L20" s="231"/>
-      <c r="M20" s="239">
-        <v>5</v>
-      </c>
-      <c r="N20" s="250">
-        <v>0.02</v>
-      </c>
-      <c r="O20" s="232"/>
-      <c r="P20" s="219"/>
-      <c r="Q20" s="219"/>
-      <c r="R20" s="219"/>
-      <c r="S20" s="216"/>
-      <c r="T20" s="216"/>
-      <c r="U20" s="219"/>
-      <c r="V20" s="219"/>
-      <c r="W20" s="219"/>
-    </row>
-    <row r="21" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="251"/>
-      <c r="B21" s="231"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="231"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="231"/>
-      <c r="G21" s="252" t="s">
-        <v>399</v>
-      </c>
-      <c r="H21" s="253">
-        <v>952</v>
-      </c>
-      <c r="I21" s="254">
-        <v>165000</v>
-      </c>
-      <c r="J21" s="255">
-        <v>6</v>
-      </c>
-      <c r="K21" s="256" t="s">
-        <v>381</v>
-      </c>
-      <c r="L21" s="253" t="s">
-        <v>381</v>
-      </c>
-      <c r="M21" s="253" t="s">
-        <v>381</v>
-      </c>
-      <c r="N21" s="253" t="s">
-        <v>381</v>
-      </c>
-      <c r="O21" s="252" t="s">
-        <v>381</v>
-      </c>
-      <c r="P21" s="231"/>
-      <c r="Q21" s="231"/>
-      <c r="R21" s="231"/>
-      <c r="S21" s="257"/>
-      <c r="T21" s="257"/>
-      <c r="U21" s="231"/>
-      <c r="V21" s="231"/>
-      <c r="W21" s="231"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="245">
-        <v>70021</v>
-      </c>
-      <c r="B22" s="258" t="s">
-        <v>404</v>
-      </c>
-      <c r="C22" s="228" t="s">
-        <v>405</v>
-      </c>
-      <c r="D22" s="228">
-        <v>980</v>
-      </c>
-      <c r="E22" s="259">
-        <v>2000</v>
-      </c>
-      <c r="F22" s="228">
-        <v>7</v>
-      </c>
-      <c r="G22" s="228" t="s">
-        <v>381</v>
-      </c>
-      <c r="H22" s="228" t="s">
-        <v>381</v>
-      </c>
-      <c r="I22" s="228" t="s">
-        <v>381</v>
-      </c>
-      <c r="J22" s="235" t="s">
-        <v>381</v>
-      </c>
-      <c r="K22" s="219" t="s">
-        <v>381</v>
-      </c>
-      <c r="L22" s="219" t="s">
-        <v>381</v>
-      </c>
-      <c r="M22" s="219" t="s">
-        <v>381</v>
-      </c>
-      <c r="N22" s="219" t="s">
-        <v>381</v>
-      </c>
-      <c r="O22" s="219" t="s">
-        <v>381</v>
-      </c>
-      <c r="P22" s="219" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q22" s="219">
-        <v>8</v>
-      </c>
-      <c r="R22" s="219" t="s">
-        <v>383</v>
-      </c>
-      <c r="S22" s="260">
-        <v>45134</v>
-      </c>
-      <c r="T22" s="260">
-        <v>45148</v>
-      </c>
-      <c r="U22" s="219" t="s">
-        <v>407</v>
-      </c>
-      <c r="V22" s="219">
-        <v>0</v>
-      </c>
-      <c r="W22" s="219" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="245"/>
-      <c r="B23" s="258"/>
-      <c r="C23" s="219" t="s">
-        <v>409</v>
-      </c>
-      <c r="D23" s="219">
-        <v>1110269</v>
-      </c>
-      <c r="E23" s="219">
-        <v>1</v>
-      </c>
-      <c r="F23" s="219">
-        <v>6</v>
-      </c>
-      <c r="G23" s="228" t="s">
-        <v>410</v>
-      </c>
-      <c r="H23" s="228">
-        <v>630301</v>
-      </c>
-      <c r="I23" s="228">
-        <v>1</v>
-      </c>
-      <c r="J23" s="225">
-        <v>6</v>
-      </c>
-      <c r="K23" s="219"/>
-      <c r="L23" s="219"/>
-      <c r="M23" s="219"/>
-      <c r="N23" s="219"/>
-      <c r="O23" s="219"/>
-      <c r="P23" s="219"/>
-      <c r="Q23" s="219"/>
-      <c r="R23" s="219"/>
-      <c r="S23" s="258"/>
-      <c r="T23" s="258"/>
-      <c r="U23" s="219"/>
-      <c r="V23" s="219"/>
-      <c r="W23" s="219"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="245"/>
-      <c r="B24" s="258"/>
-      <c r="C24" s="219"/>
-      <c r="D24" s="219"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="219"/>
-      <c r="G24" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="H24" s="228">
-        <v>660301</v>
-      </c>
-      <c r="I24" s="228">
-        <v>2</v>
-      </c>
-      <c r="J24" s="228">
-        <v>6</v>
-      </c>
-      <c r="K24" s="219"/>
-      <c r="L24" s="219"/>
-      <c r="M24" s="219"/>
-      <c r="N24" s="219"/>
-      <c r="O24" s="219"/>
-      <c r="P24" s="219"/>
-      <c r="Q24" s="219"/>
-      <c r="R24" s="219"/>
-      <c r="S24" s="258"/>
-      <c r="T24" s="258"/>
-      <c r="U24" s="219"/>
-      <c r="V24" s="219"/>
-      <c r="W24" s="219"/>
-    </row>
-    <row r="25" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="251"/>
-      <c r="B25" s="261"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="231"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="252" t="s">
-        <v>412</v>
-      </c>
-      <c r="H25" s="252">
-        <v>1110204</v>
-      </c>
-      <c r="I25" s="252">
-        <v>1</v>
-      </c>
-      <c r="J25" s="252">
-        <v>6</v>
-      </c>
-      <c r="K25" s="231"/>
-      <c r="L25" s="231"/>
-      <c r="M25" s="231"/>
-      <c r="N25" s="231"/>
-      <c r="O25" s="231"/>
-      <c r="P25" s="231"/>
-      <c r="Q25" s="231"/>
-      <c r="R25" s="231"/>
-      <c r="S25" s="261"/>
-      <c r="T25" s="261"/>
-      <c r="U25" s="231"/>
-      <c r="V25" s="231"/>
-      <c r="W25" s="231"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="240">
-        <v>70026</v>
-      </c>
-      <c r="B26" s="262" t="s">
-        <v>413</v>
-      </c>
-      <c r="C26" s="228" t="s">
-        <v>405</v>
-      </c>
-      <c r="D26" s="228">
-        <v>980</v>
-      </c>
-      <c r="E26" s="259">
-        <v>4000</v>
-      </c>
-      <c r="F26" s="242">
-        <v>7</v>
-      </c>
-      <c r="G26" s="242" t="s">
-        <v>381</v>
-      </c>
-      <c r="H26" s="242" t="s">
-        <v>381</v>
-      </c>
-      <c r="I26" s="242" t="s">
-        <v>381</v>
-      </c>
-      <c r="J26" s="228" t="s">
-        <v>381</v>
-      </c>
-      <c r="K26" s="221" t="s">
-        <v>381</v>
-      </c>
-      <c r="L26" s="221" t="s">
-        <v>381</v>
-      </c>
-      <c r="M26" s="221" t="s">
-        <v>381</v>
-      </c>
-      <c r="N26" s="221" t="s">
-        <v>381</v>
-      </c>
-      <c r="O26" s="221" t="s">
-        <v>381</v>
-      </c>
-      <c r="P26" s="221" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q26" s="221">
-        <v>9</v>
-      </c>
-      <c r="R26" s="221" t="s">
-        <v>383</v>
-      </c>
-      <c r="S26" s="263">
-        <v>45134</v>
-      </c>
-      <c r="T26" s="263">
-        <v>45148</v>
-      </c>
-      <c r="U26" s="221" t="s">
-        <v>414</v>
-      </c>
-      <c r="V26" s="221">
-        <v>0</v>
-      </c>
-      <c r="W26" s="221" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="245"/>
-      <c r="B27" s="258"/>
-      <c r="C27" s="219" t="s">
-        <v>415</v>
-      </c>
-      <c r="D27" s="219">
-        <v>1110299</v>
-      </c>
-      <c r="E27" s="219">
-        <v>1</v>
-      </c>
-      <c r="F27" s="264">
-        <v>6</v>
-      </c>
-      <c r="G27" s="225" t="s">
-        <v>410</v>
-      </c>
-      <c r="H27" s="225">
-        <v>630301</v>
-      </c>
-      <c r="I27" s="225">
-        <v>4</v>
-      </c>
-      <c r="J27" s="228">
-        <v>6</v>
-      </c>
-      <c r="K27" s="219"/>
-      <c r="L27" s="219"/>
-      <c r="M27" s="219"/>
-      <c r="N27" s="219"/>
-      <c r="O27" s="219"/>
-      <c r="P27" s="219"/>
-      <c r="Q27" s="219"/>
-      <c r="R27" s="219"/>
-      <c r="S27" s="258"/>
-      <c r="T27" s="258"/>
-      <c r="U27" s="219"/>
-      <c r="V27" s="219"/>
-      <c r="W27" s="219"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="245"/>
-      <c r="B28" s="258"/>
-      <c r="C28" s="219"/>
-      <c r="D28" s="219"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="228" t="s">
-        <v>411</v>
-      </c>
-      <c r="H28" s="228">
-        <v>660301</v>
-      </c>
-      <c r="I28" s="228">
-        <v>2</v>
-      </c>
-      <c r="J28" s="228">
-        <v>6</v>
-      </c>
-      <c r="K28" s="219"/>
-      <c r="L28" s="219"/>
-      <c r="M28" s="219"/>
-      <c r="N28" s="219"/>
-      <c r="O28" s="219"/>
-      <c r="P28" s="219"/>
-      <c r="Q28" s="219"/>
-      <c r="R28" s="219"/>
-      <c r="S28" s="258"/>
-      <c r="T28" s="258"/>
-      <c r="U28" s="219"/>
-      <c r="V28" s="219"/>
-      <c r="W28" s="219"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="245"/>
-      <c r="B29" s="258"/>
-      <c r="C29" s="219"/>
-      <c r="D29" s="219"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="219"/>
-      <c r="G29" s="228" t="s">
-        <v>412</v>
-      </c>
-      <c r="H29" s="228">
-        <v>1110204</v>
-      </c>
-      <c r="I29" s="228">
-        <v>2</v>
-      </c>
-      <c r="J29" s="228">
-        <v>6</v>
-      </c>
-      <c r="K29" s="232"/>
-      <c r="L29" s="232"/>
-      <c r="M29" s="232"/>
-      <c r="N29" s="232"/>
-      <c r="O29" s="232"/>
-      <c r="P29" s="219"/>
-      <c r="Q29" s="219"/>
-      <c r="R29" s="219"/>
-      <c r="S29" s="258"/>
-      <c r="T29" s="258"/>
-      <c r="U29" s="219"/>
-      <c r="V29" s="219"/>
-      <c r="W29" s="219"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="245"/>
-      <c r="B30" s="258"/>
-      <c r="C30" s="219"/>
-      <c r="D30" s="219"/>
-      <c r="E30" s="219"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="219" t="s">
-        <v>416</v>
-      </c>
-      <c r="H30" s="219">
-        <v>1110280</v>
-      </c>
-      <c r="I30" s="219">
-        <v>1</v>
-      </c>
-      <c r="J30" s="219">
-        <v>7</v>
-      </c>
-      <c r="K30" s="228" t="s">
-        <v>417</v>
-      </c>
-      <c r="L30" s="228">
-        <v>304</v>
-      </c>
-      <c r="M30" s="228">
-        <v>1</v>
-      </c>
-      <c r="N30" s="265">
-        <v>0.995</v>
-      </c>
-      <c r="O30" s="228">
-        <v>6</v>
-      </c>
-      <c r="P30" s="219"/>
-      <c r="Q30" s="219"/>
-      <c r="R30" s="219"/>
-      <c r="S30" s="258"/>
-      <c r="T30" s="258"/>
-      <c r="U30" s="219"/>
-      <c r="V30" s="219"/>
-      <c r="W30" s="219"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="245"/>
-      <c r="B31" s="258"/>
-      <c r="C31" s="219"/>
-      <c r="D31" s="219"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="232"/>
-      <c r="H31" s="232"/>
-      <c r="I31" s="232"/>
-      <c r="J31" s="233"/>
-      <c r="K31" s="228" t="s">
-        <v>418</v>
-      </c>
-      <c r="L31" s="228">
-        <v>7203</v>
-      </c>
-      <c r="M31" s="228">
-        <v>1</v>
-      </c>
-      <c r="N31" s="265">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O31" s="228">
-        <v>7</v>
-      </c>
-      <c r="P31" s="219"/>
-      <c r="Q31" s="219"/>
-      <c r="R31" s="219"/>
-      <c r="S31" s="258"/>
-      <c r="T31" s="258"/>
-      <c r="U31" s="219"/>
-      <c r="V31" s="219"/>
-      <c r="W31" s="219"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="245"/>
-      <c r="B32" s="258"/>
-      <c r="C32" s="219"/>
-      <c r="D32" s="219"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="219" t="s">
-        <v>419</v>
-      </c>
-      <c r="H32" s="219">
-        <v>1110207</v>
-      </c>
-      <c r="I32" s="219">
-        <v>1</v>
-      </c>
-      <c r="J32" s="219">
-        <v>6</v>
-      </c>
-      <c r="K32" s="228" t="s">
-        <v>420</v>
-      </c>
-      <c r="L32" s="228">
-        <v>303</v>
-      </c>
-      <c r="M32" s="228">
-        <v>1</v>
-      </c>
-      <c r="N32" s="265">
-        <v>0.9</v>
-      </c>
-      <c r="O32" s="228">
-        <v>6</v>
-      </c>
-      <c r="P32" s="219"/>
-      <c r="Q32" s="219"/>
-      <c r="R32" s="219"/>
-      <c r="S32" s="258"/>
-      <c r="T32" s="258"/>
-      <c r="U32" s="219"/>
-      <c r="V32" s="219"/>
-      <c r="W32" s="219"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="245"/>
-      <c r="B33" s="258"/>
-      <c r="C33" s="219"/>
-      <c r="D33" s="219"/>
-      <c r="E33" s="219"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="233"/>
-      <c r="H33" s="232"/>
-      <c r="I33" s="232"/>
-      <c r="J33" s="233"/>
-      <c r="K33" s="228" t="s">
-        <v>421</v>
-      </c>
-      <c r="L33" s="228">
-        <v>333</v>
-      </c>
-      <c r="M33" s="228">
-        <v>1</v>
-      </c>
-      <c r="N33" s="265">
-        <v>0.1</v>
-      </c>
-      <c r="O33" s="228">
-        <v>6</v>
-      </c>
-      <c r="P33" s="219"/>
-      <c r="Q33" s="219"/>
-      <c r="R33" s="219"/>
-      <c r="S33" s="258"/>
-      <c r="T33" s="258"/>
-      <c r="U33" s="219"/>
-      <c r="V33" s="219"/>
-      <c r="W33" s="219"/>
-    </row>
-    <row r="34" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="251"/>
-      <c r="B34" s="261"/>
-      <c r="C34" s="231"/>
-      <c r="D34" s="231"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="231"/>
-      <c r="G34" s="252" t="s">
-        <v>422</v>
-      </c>
-      <c r="H34" s="252">
-        <v>600017</v>
-      </c>
-      <c r="I34" s="252">
-        <v>10</v>
-      </c>
-      <c r="J34" s="252">
-        <v>6</v>
-      </c>
-      <c r="K34" s="252" t="s">
-        <v>381</v>
-      </c>
-      <c r="L34" s="252" t="s">
-        <v>381</v>
-      </c>
-      <c r="M34" s="252" t="s">
-        <v>381</v>
-      </c>
-      <c r="N34" s="252" t="s">
-        <v>381</v>
-      </c>
-      <c r="O34" s="252" t="s">
-        <v>381</v>
-      </c>
-      <c r="P34" s="231"/>
-      <c r="Q34" s="231"/>
-      <c r="R34" s="231"/>
-      <c r="S34" s="261"/>
-      <c r="T34" s="261"/>
-      <c r="U34" s="231"/>
-      <c r="V34" s="231"/>
-      <c r="W34" s="231"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" s="189">
-        <v>70025</v>
-      </c>
-      <c r="B35" s="180" t="s">
-        <v>423</v>
-      </c>
-      <c r="C35" s="266" t="s">
-        <v>405</v>
-      </c>
-      <c r="D35" s="266">
-        <v>980</v>
-      </c>
-      <c r="E35" s="267">
-        <v>5500</v>
-      </c>
-      <c r="F35" s="266">
-        <v>6</v>
-      </c>
-      <c r="G35" s="266" t="s">
-        <v>381</v>
-      </c>
-      <c r="H35" s="266" t="s">
-        <v>381</v>
-      </c>
-      <c r="I35" s="266" t="s">
-        <v>381</v>
-      </c>
-      <c r="J35" s="266" t="s">
-        <v>381</v>
-      </c>
-      <c r="K35" s="180" t="s">
-        <v>381</v>
-      </c>
-      <c r="L35" s="180" t="s">
-        <v>381</v>
-      </c>
-      <c r="M35" s="180" t="s">
-        <v>381</v>
-      </c>
-      <c r="N35" s="180" t="s">
-        <v>381</v>
-      </c>
-      <c r="O35" s="268" t="s">
-        <v>381</v>
-      </c>
-      <c r="P35" s="269" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q35" s="180">
-        <v>10</v>
-      </c>
-      <c r="R35" s="180" t="s">
-        <v>383</v>
-      </c>
-      <c r="S35" s="270">
-        <v>45134</v>
-      </c>
-      <c r="T35" s="270">
-        <v>45148</v>
-      </c>
-      <c r="U35" s="180" t="s">
-        <v>424</v>
-      </c>
-      <c r="V35" s="180">
-        <v>0</v>
-      </c>
-      <c r="W35" s="180" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="189"/>
-      <c r="B36" s="180"/>
-      <c r="C36" s="180" t="s">
-        <v>426</v>
-      </c>
-      <c r="D36" s="180">
-        <v>1110298</v>
-      </c>
-      <c r="E36" s="180">
-        <v>1</v>
-      </c>
-      <c r="F36" s="180">
-        <v>6</v>
-      </c>
-      <c r="G36" s="266" t="s">
-        <v>410</v>
-      </c>
-      <c r="H36" s="266">
-        <v>630301</v>
-      </c>
-      <c r="I36" s="266">
-        <v>5</v>
-      </c>
-      <c r="J36" s="266">
-        <v>6</v>
-      </c>
-      <c r="K36" s="180"/>
-      <c r="L36" s="180"/>
-      <c r="M36" s="180"/>
-      <c r="N36" s="180"/>
-      <c r="O36" s="268"/>
-      <c r="P36" s="269"/>
-      <c r="Q36" s="180"/>
-      <c r="R36" s="180"/>
-      <c r="S36" s="180"/>
-      <c r="T36" s="180"/>
-      <c r="U36" s="180"/>
-      <c r="V36" s="180"/>
-      <c r="W36" s="180"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="189"/>
-      <c r="B37" s="180"/>
-      <c r="C37" s="180"/>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="266" t="s">
-        <v>411</v>
-      </c>
-      <c r="H37" s="266">
-        <v>660301</v>
-      </c>
-      <c r="I37" s="266">
-        <v>5</v>
-      </c>
-      <c r="J37" s="266">
-        <v>6</v>
-      </c>
-      <c r="K37" s="180"/>
-      <c r="L37" s="180"/>
-      <c r="M37" s="180"/>
-      <c r="N37" s="180"/>
-      <c r="O37" s="268"/>
-      <c r="P37" s="269"/>
-      <c r="Q37" s="180"/>
-      <c r="R37" s="180"/>
-      <c r="S37" s="180"/>
-      <c r="T37" s="180"/>
-      <c r="U37" s="180"/>
-      <c r="V37" s="180"/>
-      <c r="W37" s="180"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="189"/>
-      <c r="B38" s="180"/>
-      <c r="C38" s="180"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="266" t="s">
-        <v>412</v>
-      </c>
-      <c r="H38" s="266">
-        <v>1110204</v>
-      </c>
-      <c r="I38" s="266">
-        <v>5</v>
-      </c>
-      <c r="J38" s="271">
-        <v>6</v>
-      </c>
-      <c r="K38" s="272"/>
-      <c r="L38" s="272"/>
-      <c r="M38" s="272"/>
-      <c r="N38" s="272"/>
-      <c r="O38" s="273"/>
-      <c r="P38" s="269"/>
-      <c r="Q38" s="180"/>
-      <c r="R38" s="180"/>
-      <c r="S38" s="180"/>
-      <c r="T38" s="180"/>
-      <c r="U38" s="180"/>
-      <c r="V38" s="180"/>
-      <c r="W38" s="180"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="189"/>
-      <c r="B39" s="180"/>
-      <c r="C39" s="180"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="180"/>
-      <c r="G39" s="180" t="s">
-        <v>416</v>
-      </c>
-      <c r="H39" s="180">
-        <v>1110280</v>
-      </c>
-      <c r="I39" s="180">
-        <v>3</v>
-      </c>
-      <c r="J39" s="274">
-        <v>7</v>
-      </c>
-      <c r="K39" s="266" t="s">
-        <v>417</v>
-      </c>
-      <c r="L39" s="266">
-        <v>304</v>
-      </c>
-      <c r="M39" s="266">
-        <v>1</v>
-      </c>
-      <c r="N39" s="275">
-        <v>0.995</v>
-      </c>
-      <c r="O39" s="276">
-        <v>6</v>
-      </c>
-      <c r="P39" s="269"/>
-      <c r="Q39" s="180"/>
-      <c r="R39" s="180"/>
-      <c r="S39" s="180"/>
-      <c r="T39" s="180"/>
-      <c r="U39" s="180"/>
-      <c r="V39" s="180"/>
-      <c r="W39" s="180"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="189"/>
-      <c r="B40" s="180"/>
-      <c r="C40" s="180"/>
-      <c r="D40" s="180"/>
-      <c r="E40" s="180"/>
-      <c r="F40" s="180"/>
-      <c r="G40" s="277"/>
-      <c r="H40" s="277"/>
-      <c r="I40" s="277"/>
-      <c r="J40" s="272"/>
-      <c r="K40" s="266" t="s">
-        <v>418</v>
-      </c>
-      <c r="L40" s="266">
-        <v>7203</v>
-      </c>
-      <c r="M40" s="266">
-        <v>1</v>
-      </c>
-      <c r="N40" s="275">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O40" s="276">
-        <v>7</v>
-      </c>
-      <c r="P40" s="269"/>
-      <c r="Q40" s="180"/>
-      <c r="R40" s="180"/>
-      <c r="S40" s="180"/>
-      <c r="T40" s="180"/>
-      <c r="U40" s="180"/>
-      <c r="V40" s="180"/>
-      <c r="W40" s="180"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A41" s="189"/>
-      <c r="B41" s="180"/>
-      <c r="C41" s="180"/>
-      <c r="D41" s="180"/>
-      <c r="E41" s="180"/>
-      <c r="F41" s="180"/>
-      <c r="G41" s="180" t="s">
-        <v>419</v>
-      </c>
-      <c r="H41" s="180">
-        <v>1110207</v>
-      </c>
-      <c r="I41" s="180">
-        <v>3</v>
-      </c>
-      <c r="J41" s="197">
-        <v>6</v>
-      </c>
-      <c r="K41" s="278" t="s">
-        <v>420</v>
-      </c>
-      <c r="L41" s="279">
-        <v>303</v>
-      </c>
-      <c r="M41" s="279">
-        <v>1</v>
-      </c>
-      <c r="N41" s="280">
-        <v>0.9</v>
-      </c>
-      <c r="O41" s="276">
-        <v>6</v>
-      </c>
-      <c r="P41" s="269"/>
-      <c r="Q41" s="180"/>
-      <c r="R41" s="180"/>
-      <c r="S41" s="180"/>
-      <c r="T41" s="180"/>
-      <c r="U41" s="180"/>
-      <c r="V41" s="180"/>
-      <c r="W41" s="180"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="189"/>
-      <c r="B42" s="180"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="180"/>
-      <c r="G42" s="277"/>
-      <c r="H42" s="277"/>
-      <c r="I42" s="277"/>
-      <c r="J42" s="281"/>
-      <c r="K42" s="282" t="s">
-        <v>421</v>
-      </c>
-      <c r="L42" s="271">
-        <v>333</v>
-      </c>
-      <c r="M42" s="271">
-        <v>1</v>
-      </c>
-      <c r="N42" s="283">
-        <v>0.1</v>
-      </c>
-      <c r="O42" s="266">
-        <v>6</v>
-      </c>
-      <c r="P42" s="269"/>
-      <c r="Q42" s="180"/>
-      <c r="R42" s="180"/>
-      <c r="S42" s="180"/>
-      <c r="T42" s="180"/>
-      <c r="U42" s="180"/>
-      <c r="V42" s="180"/>
-      <c r="W42" s="180"/>
-    </row>
-    <row r="43" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="284"/>
-      <c r="B43" s="162"/>
-      <c r="C43" s="162"/>
-      <c r="D43" s="162"/>
-      <c r="E43" s="162"/>
-      <c r="F43" s="162"/>
-      <c r="G43" s="285" t="s">
-        <v>422</v>
-      </c>
-      <c r="H43" s="285">
-        <v>600017</v>
-      </c>
-      <c r="I43" s="285">
-        <v>10</v>
-      </c>
-      <c r="J43" s="285">
-        <v>6</v>
-      </c>
-      <c r="K43" s="286" t="s">
-        <v>381</v>
-      </c>
-      <c r="L43" s="286" t="s">
-        <v>381</v>
-      </c>
-      <c r="M43" s="286" t="s">
-        <v>381</v>
-      </c>
-      <c r="N43" s="286" t="s">
-        <v>381</v>
-      </c>
-      <c r="O43" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="P43" s="287"/>
-      <c r="Q43" s="162"/>
-      <c r="R43" s="162"/>
-      <c r="S43" s="162"/>
-      <c r="T43" s="162"/>
-      <c r="U43" s="162"/>
-      <c r="V43" s="162"/>
-      <c r="W43" s="162"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="288">
-        <v>10246</v>
-      </c>
-      <c r="B44" s="169" t="s">
-        <v>427</v>
-      </c>
-      <c r="C44" s="289" t="s">
-        <v>428</v>
-      </c>
-      <c r="D44" s="200">
-        <v>1110300</v>
-      </c>
-      <c r="E44" s="200">
-        <v>1</v>
-      </c>
-      <c r="F44" s="200">
-        <v>6</v>
-      </c>
-      <c r="G44" s="290" t="s">
-        <v>429</v>
-      </c>
-      <c r="H44" s="290">
-        <v>930</v>
-      </c>
-      <c r="I44" s="290">
-        <v>1</v>
-      </c>
-      <c r="J44" s="290">
-        <v>6</v>
-      </c>
-      <c r="K44" s="290" t="s">
-        <v>381</v>
-      </c>
-      <c r="L44" s="290" t="s">
-        <v>381</v>
-      </c>
-      <c r="M44" s="290" t="s">
-        <v>381</v>
-      </c>
-      <c r="N44" s="290" t="s">
-        <v>381</v>
-      </c>
-      <c r="O44" s="290" t="s">
-        <v>381</v>
-      </c>
-      <c r="P44" s="200" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q44" s="200">
-        <v>3</v>
-      </c>
-      <c r="R44" s="200" t="s">
-        <v>383</v>
-      </c>
-      <c r="S44" s="207">
-        <v>45134</v>
-      </c>
-      <c r="T44" s="207">
-        <v>45148</v>
-      </c>
-      <c r="U44" s="200" t="s">
-        <v>431</v>
-      </c>
-      <c r="V44" s="200">
-        <v>80</v>
-      </c>
-      <c r="W44" s="200" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="288"/>
-      <c r="B45" s="169"/>
-      <c r="C45" s="291"/>
-      <c r="D45" s="169"/>
-      <c r="E45" s="169"/>
-      <c r="F45" s="169"/>
-      <c r="G45" s="169" t="s">
-        <v>433</v>
-      </c>
-      <c r="H45" s="169">
-        <v>1110278</v>
-      </c>
-      <c r="I45" s="169">
-        <v>1</v>
-      </c>
-      <c r="J45" s="169">
-        <v>7</v>
-      </c>
-      <c r="K45" s="290" t="s">
-        <v>429</v>
-      </c>
-      <c r="L45" s="290">
-        <v>930</v>
-      </c>
-      <c r="M45" s="290">
-        <v>1</v>
-      </c>
-      <c r="N45" s="292">
-        <v>0.75</v>
-      </c>
-      <c r="O45" s="169">
-        <v>6</v>
-      </c>
-      <c r="P45" s="169"/>
-      <c r="Q45" s="169"/>
-      <c r="R45" s="169"/>
-      <c r="S45" s="169"/>
-      <c r="T45" s="169"/>
-      <c r="U45" s="169"/>
-      <c r="V45" s="169"/>
-      <c r="W45" s="169"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A46" s="288"/>
-      <c r="B46" s="169"/>
-      <c r="C46" s="291"/>
-      <c r="D46" s="169"/>
-      <c r="E46" s="169"/>
-      <c r="F46" s="169"/>
-      <c r="G46" s="169"/>
-      <c r="H46" s="169"/>
-      <c r="I46" s="169"/>
-      <c r="J46" s="169"/>
-      <c r="K46" s="290" t="s">
-        <v>429</v>
-      </c>
-      <c r="L46" s="290">
-        <v>930</v>
-      </c>
-      <c r="M46" s="290">
-        <v>2</v>
-      </c>
-      <c r="N46" s="292">
-        <v>0.22</v>
-      </c>
-      <c r="O46" s="169"/>
-      <c r="P46" s="169"/>
-      <c r="Q46" s="169"/>
-      <c r="R46" s="169"/>
-      <c r="S46" s="169"/>
-      <c r="T46" s="169"/>
-      <c r="U46" s="169"/>
-      <c r="V46" s="169"/>
-      <c r="W46" s="169"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47" s="288"/>
-      <c r="B47" s="169"/>
-      <c r="C47" s="291"/>
-      <c r="D47" s="169"/>
-      <c r="E47" s="169"/>
-      <c r="F47" s="169"/>
-      <c r="G47" s="169"/>
-      <c r="H47" s="169"/>
-      <c r="I47" s="169"/>
-      <c r="J47" s="169"/>
-      <c r="K47" s="290" t="s">
-        <v>429</v>
-      </c>
-      <c r="L47" s="290">
-        <v>930</v>
-      </c>
-      <c r="M47" s="290">
-        <v>3</v>
-      </c>
-      <c r="N47" s="292">
-        <v>0.02</v>
-      </c>
-      <c r="O47" s="169"/>
-      <c r="P47" s="169"/>
-      <c r="Q47" s="169"/>
-      <c r="R47" s="169"/>
-      <c r="S47" s="169"/>
-      <c r="T47" s="169"/>
-      <c r="U47" s="169"/>
-      <c r="V47" s="169"/>
-      <c r="W47" s="169"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48" s="288"/>
-      <c r="B48" s="169"/>
-      <c r="C48" s="291"/>
-      <c r="D48" s="169"/>
-      <c r="E48" s="169"/>
-      <c r="F48" s="169"/>
-      <c r="G48" s="293"/>
-      <c r="H48" s="293"/>
-      <c r="I48" s="293"/>
-      <c r="J48" s="294"/>
-      <c r="K48" s="290" t="s">
-        <v>429</v>
-      </c>
-      <c r="L48" s="290">
-        <v>930</v>
-      </c>
-      <c r="M48" s="290">
-        <v>4</v>
-      </c>
-      <c r="N48" s="292">
-        <v>0.01</v>
-      </c>
-      <c r="O48" s="294"/>
-      <c r="P48" s="169"/>
-      <c r="Q48" s="169"/>
-      <c r="R48" s="169"/>
-      <c r="S48" s="169"/>
-      <c r="T48" s="169"/>
-      <c r="U48" s="169"/>
-      <c r="V48" s="169"/>
-      <c r="W48" s="169"/>
-    </row>
-    <row r="49" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="295"/>
-      <c r="B49" s="174"/>
-      <c r="C49" s="296"/>
-      <c r="D49" s="174"/>
-      <c r="E49" s="174"/>
-      <c r="F49" s="174"/>
-      <c r="G49" s="210" t="s">
-        <v>410</v>
-      </c>
-      <c r="H49" s="290">
-        <v>630301</v>
-      </c>
-      <c r="I49" s="210">
-        <v>5</v>
-      </c>
-      <c r="J49" s="210">
-        <v>6</v>
-      </c>
-      <c r="K49" s="210" t="s">
-        <v>381</v>
-      </c>
-      <c r="L49" s="210" t="s">
-        <v>381</v>
-      </c>
-      <c r="M49" s="210" t="s">
-        <v>381</v>
-      </c>
-      <c r="N49" s="210" t="s">
-        <v>381</v>
-      </c>
-      <c r="O49" s="210" t="s">
-        <v>381</v>
-      </c>
-      <c r="P49" s="169"/>
-      <c r="Q49" s="174"/>
-      <c r="R49" s="174"/>
-      <c r="S49" s="174"/>
-      <c r="T49" s="174"/>
-      <c r="U49" s="174"/>
-      <c r="V49" s="174"/>
-      <c r="W49" s="174"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A50" s="189">
-        <v>10247</v>
-      </c>
-      <c r="B50" s="180" t="s">
-        <v>434</v>
-      </c>
-      <c r="C50" s="179" t="s">
-        <v>435</v>
-      </c>
-      <c r="D50" s="179">
-        <v>1110301</v>
-      </c>
-      <c r="E50" s="180">
-        <v>1</v>
-      </c>
-      <c r="F50" s="179">
-        <v>6</v>
-      </c>
-      <c r="G50" s="266" t="s">
-        <v>436</v>
-      </c>
-      <c r="H50" s="297">
-        <v>935</v>
-      </c>
-      <c r="I50" s="266">
-        <v>1</v>
-      </c>
-      <c r="J50" s="266">
-        <v>6</v>
-      </c>
-      <c r="K50" s="266" t="s">
-        <v>381</v>
-      </c>
-      <c r="L50" s="266" t="s">
-        <v>381</v>
-      </c>
-      <c r="M50" s="266" t="s">
-        <v>381</v>
-      </c>
-      <c r="N50" s="266" t="s">
-        <v>381</v>
-      </c>
-      <c r="O50" s="298" t="s">
-        <v>381</v>
-      </c>
-      <c r="P50" s="179" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q50" s="179">
-        <v>4</v>
-      </c>
-      <c r="R50" s="179" t="s">
-        <v>383</v>
-      </c>
-      <c r="S50" s="299">
-        <v>45134</v>
-      </c>
-      <c r="T50" s="299">
-        <v>45148</v>
-      </c>
-      <c r="U50" s="179" t="s">
-        <v>431</v>
-      </c>
-      <c r="V50" s="179">
-        <v>80</v>
-      </c>
-      <c r="W50" s="179" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A51" s="189"/>
-      <c r="B51" s="180"/>
-      <c r="C51" s="180"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="180"/>
-      <c r="F51" s="180"/>
-      <c r="G51" s="180" t="s">
-        <v>437</v>
-      </c>
-      <c r="H51" s="180">
-        <v>1110279</v>
-      </c>
-      <c r="I51" s="180">
-        <v>1</v>
-      </c>
-      <c r="J51" s="180">
-        <v>7</v>
-      </c>
-      <c r="K51" s="266" t="s">
-        <v>436</v>
-      </c>
-      <c r="L51" s="266">
-        <v>935</v>
-      </c>
-      <c r="M51" s="266">
-        <v>1</v>
-      </c>
-      <c r="N51" s="300">
-        <v>0.75</v>
-      </c>
-      <c r="O51" s="274">
-        <v>6</v>
-      </c>
-      <c r="P51" s="180"/>
-      <c r="Q51" s="180"/>
-      <c r="R51" s="180"/>
-      <c r="S51" s="301"/>
-      <c r="T51" s="301"/>
-      <c r="U51" s="180"/>
-      <c r="V51" s="180"/>
-      <c r="W51" s="180"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A52" s="189"/>
-      <c r="B52" s="180"/>
-      <c r="C52" s="180"/>
-      <c r="D52" s="180"/>
-      <c r="E52" s="180"/>
-      <c r="F52" s="180"/>
-      <c r="G52" s="180"/>
-      <c r="H52" s="180"/>
-      <c r="I52" s="180"/>
-      <c r="J52" s="180"/>
-      <c r="K52" s="266" t="s">
-        <v>436</v>
-      </c>
-      <c r="L52" s="266">
-        <v>935</v>
-      </c>
-      <c r="M52" s="266">
-        <v>2</v>
-      </c>
-      <c r="N52" s="300">
-        <v>0.22</v>
-      </c>
-      <c r="O52" s="180"/>
-      <c r="P52" s="180"/>
-      <c r="Q52" s="180"/>
-      <c r="R52" s="180"/>
-      <c r="S52" s="301"/>
-      <c r="T52" s="301"/>
-      <c r="U52" s="180"/>
-      <c r="V52" s="180"/>
-      <c r="W52" s="180"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A53" s="189"/>
-      <c r="B53" s="180"/>
-      <c r="C53" s="180"/>
-      <c r="D53" s="180"/>
-      <c r="E53" s="180"/>
-      <c r="F53" s="180"/>
-      <c r="G53" s="180"/>
-      <c r="H53" s="180"/>
-      <c r="I53" s="180"/>
-      <c r="J53" s="180"/>
-      <c r="K53" s="266" t="s">
-        <v>436</v>
-      </c>
-      <c r="L53" s="266">
-        <v>935</v>
-      </c>
-      <c r="M53" s="266">
-        <v>3</v>
-      </c>
-      <c r="N53" s="300">
-        <v>0.02</v>
-      </c>
-      <c r="O53" s="180"/>
-      <c r="P53" s="180"/>
-      <c r="Q53" s="180"/>
-      <c r="R53" s="180"/>
-      <c r="S53" s="301"/>
-      <c r="T53" s="301"/>
-      <c r="U53" s="180"/>
-      <c r="V53" s="180"/>
-      <c r="W53" s="180"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A54" s="189"/>
-      <c r="B54" s="180"/>
-      <c r="C54" s="180"/>
-      <c r="D54" s="180"/>
-      <c r="E54" s="180"/>
-      <c r="F54" s="180"/>
-      <c r="G54" s="272"/>
-      <c r="H54" s="272"/>
-      <c r="I54" s="272"/>
-      <c r="J54" s="272"/>
-      <c r="K54" s="266" t="s">
-        <v>436</v>
-      </c>
-      <c r="L54" s="266">
-        <v>935</v>
-      </c>
-      <c r="M54" s="266">
-        <v>4</v>
-      </c>
-      <c r="N54" s="300">
-        <v>0.01</v>
-      </c>
-      <c r="O54" s="272"/>
-      <c r="P54" s="180"/>
-      <c r="Q54" s="180"/>
-      <c r="R54" s="180"/>
-      <c r="S54" s="301"/>
-      <c r="T54" s="301"/>
-      <c r="U54" s="180"/>
-      <c r="V54" s="180"/>
-      <c r="W54" s="180"/>
-    </row>
-    <row r="55" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="284"/>
-      <c r="B55" s="162"/>
-      <c r="C55" s="162"/>
-      <c r="D55" s="162"/>
-      <c r="E55" s="162"/>
-      <c r="F55" s="162"/>
-      <c r="G55" s="285" t="s">
-        <v>411</v>
-      </c>
-      <c r="H55" s="285">
-        <v>660301</v>
-      </c>
-      <c r="I55" s="285">
-        <v>5</v>
-      </c>
-      <c r="J55" s="285">
-        <v>6</v>
-      </c>
-      <c r="K55" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="L55" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="M55" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="N55" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="O55" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="P55" s="162"/>
-      <c r="Q55" s="162"/>
-      <c r="R55" s="162"/>
-      <c r="S55" s="302"/>
-      <c r="T55" s="302"/>
-      <c r="U55" s="162"/>
-      <c r="V55" s="162"/>
-      <c r="W55" s="162"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A56" s="198">
-        <v>10317</v>
-      </c>
-      <c r="B56" s="200" t="s">
-        <v>438</v>
-      </c>
-      <c r="C56" s="200" t="s">
-        <v>439</v>
-      </c>
-      <c r="D56" s="200">
-        <v>1110376</v>
-      </c>
-      <c r="E56" s="200">
-        <v>1</v>
-      </c>
-      <c r="F56" s="200">
-        <v>6</v>
-      </c>
-      <c r="G56" s="290" t="s">
-        <v>440</v>
-      </c>
-      <c r="H56" s="290">
-        <v>1110191</v>
-      </c>
-      <c r="I56" s="290">
-        <v>1</v>
-      </c>
-      <c r="J56" s="290">
-        <v>6</v>
-      </c>
-      <c r="K56" s="200" t="s">
-        <v>381</v>
-      </c>
-      <c r="L56" s="200" t="s">
-        <v>381</v>
-      </c>
-      <c r="M56" s="200" t="s">
-        <v>381</v>
-      </c>
-      <c r="N56" s="200" t="s">
-        <v>381</v>
-      </c>
-      <c r="O56" s="200" t="s">
-        <v>381</v>
-      </c>
-      <c r="P56" s="200" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q56" s="200">
-        <v>28</v>
-      </c>
-      <c r="R56" s="200" t="s">
-        <v>383</v>
-      </c>
-      <c r="S56" s="207">
-        <v>45134</v>
-      </c>
-      <c r="T56" s="207">
-        <v>45148</v>
-      </c>
-      <c r="U56" s="200" t="s">
-        <v>441</v>
-      </c>
-      <c r="V56" s="303">
-        <v>900</v>
-      </c>
-      <c r="W56" s="200" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A57" s="304"/>
-      <c r="B57" s="169"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
-      <c r="E57" s="169"/>
-      <c r="F57" s="169"/>
-      <c r="G57" s="290" t="s">
-        <v>442</v>
-      </c>
-      <c r="H57" s="290">
-        <v>2910</v>
-      </c>
-      <c r="I57" s="290">
-        <v>33</v>
-      </c>
-      <c r="J57" s="290">
-        <v>6</v>
-      </c>
-      <c r="K57" s="169"/>
-      <c r="L57" s="169"/>
-      <c r="M57" s="169"/>
-      <c r="N57" s="169"/>
-      <c r="O57" s="169"/>
-      <c r="P57" s="169"/>
-      <c r="Q57" s="169"/>
-      <c r="R57" s="169"/>
-      <c r="S57" s="169"/>
-      <c r="T57" s="169"/>
-      <c r="U57" s="169"/>
-      <c r="V57" s="305"/>
-      <c r="W57" s="169"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A58" s="304"/>
-      <c r="B58" s="169"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="169"/>
-      <c r="E58" s="169"/>
-      <c r="F58" s="169"/>
-      <c r="G58" s="290" t="s">
-        <v>410</v>
-      </c>
-      <c r="H58" s="290">
-        <v>630301</v>
-      </c>
-      <c r="I58" s="290">
-        <v>2</v>
-      </c>
-      <c r="J58" s="290">
-        <v>6</v>
-      </c>
-      <c r="K58" s="169"/>
-      <c r="L58" s="169"/>
-      <c r="M58" s="169"/>
-      <c r="N58" s="169"/>
-      <c r="O58" s="169"/>
-      <c r="P58" s="169"/>
-      <c r="Q58" s="169"/>
-      <c r="R58" s="169"/>
-      <c r="S58" s="169"/>
-      <c r="T58" s="169"/>
-      <c r="U58" s="169"/>
-      <c r="V58" s="305"/>
-      <c r="W58" s="169"/>
-    </row>
-    <row r="59" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="208"/>
-      <c r="B59" s="174"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
-      <c r="E59" s="174"/>
-      <c r="F59" s="174"/>
-      <c r="G59" s="290" t="s">
-        <v>399</v>
-      </c>
-      <c r="H59" s="290">
-        <v>952</v>
-      </c>
-      <c r="I59" s="306">
-        <v>618750</v>
-      </c>
-      <c r="J59" s="290">
-        <v>6</v>
-      </c>
-      <c r="K59" s="174"/>
-      <c r="L59" s="174"/>
-      <c r="M59" s="174"/>
-      <c r="N59" s="174"/>
-      <c r="O59" s="174"/>
-      <c r="P59" s="174"/>
-      <c r="Q59" s="174"/>
-      <c r="R59" s="174"/>
-      <c r="S59" s="174"/>
-      <c r="T59" s="174"/>
-      <c r="U59" s="174"/>
-      <c r="V59" s="307"/>
-      <c r="W59" s="174"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A60" s="177">
-        <v>10318</v>
-      </c>
-      <c r="B60" s="179" t="s">
-        <v>443</v>
-      </c>
-      <c r="C60" s="179" t="s">
-        <v>444</v>
-      </c>
-      <c r="D60" s="179">
-        <v>1110377</v>
-      </c>
-      <c r="E60" s="179">
-        <v>1</v>
-      </c>
-      <c r="F60" s="179">
-        <v>6</v>
-      </c>
-      <c r="G60" s="297" t="s">
-        <v>445</v>
-      </c>
-      <c r="H60" s="297">
-        <v>630014</v>
-      </c>
-      <c r="I60" s="297">
-        <v>1</v>
-      </c>
-      <c r="J60" s="297">
-        <v>6</v>
-      </c>
-      <c r="K60" s="271" t="s">
-        <v>381</v>
-      </c>
-      <c r="L60" s="298" t="s">
-        <v>381</v>
-      </c>
-      <c r="M60" s="298" t="s">
-        <v>381</v>
-      </c>
-      <c r="N60" s="298" t="s">
-        <v>381</v>
-      </c>
-      <c r="O60" s="298" t="s">
-        <v>381</v>
-      </c>
-      <c r="P60" s="179" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q60" s="179">
-        <v>29</v>
-      </c>
-      <c r="R60" s="179" t="s">
-        <v>383</v>
-      </c>
-      <c r="S60" s="188">
-        <v>45134</v>
-      </c>
-      <c r="T60" s="188">
-        <v>45148</v>
-      </c>
-      <c r="U60" s="179" t="s">
-        <v>441</v>
-      </c>
-      <c r="V60" s="303">
-        <v>900</v>
-      </c>
-      <c r="W60" s="179" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A61" s="189"/>
-      <c r="B61" s="180"/>
-      <c r="C61" s="180"/>
-      <c r="D61" s="180"/>
-      <c r="E61" s="180"/>
-      <c r="F61" s="180"/>
-      <c r="G61" s="266" t="s">
-        <v>410</v>
-      </c>
-      <c r="H61" s="266">
-        <v>630301</v>
-      </c>
-      <c r="I61" s="266">
-        <v>2</v>
-      </c>
-      <c r="J61" s="266">
-        <v>6</v>
-      </c>
-      <c r="K61" s="271" t="s">
-        <v>381</v>
-      </c>
-      <c r="L61" s="271" t="s">
-        <v>381</v>
-      </c>
-      <c r="M61" s="271" t="s">
-        <v>381</v>
-      </c>
-      <c r="N61" s="271" t="s">
-        <v>381</v>
-      </c>
-      <c r="O61" s="271" t="s">
-        <v>381</v>
-      </c>
-      <c r="P61" s="180"/>
-      <c r="Q61" s="180"/>
-      <c r="R61" s="180"/>
-      <c r="S61" s="180"/>
-      <c r="T61" s="180"/>
-      <c r="U61" s="180"/>
-      <c r="V61" s="305"/>
-      <c r="W61" s="180"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A62" s="189"/>
-      <c r="B62" s="180"/>
-      <c r="C62" s="180"/>
-      <c r="D62" s="180"/>
-      <c r="E62" s="180"/>
-      <c r="F62" s="180"/>
-      <c r="G62" s="266" t="s">
-        <v>411</v>
-      </c>
-      <c r="H62" s="266">
-        <v>660301</v>
-      </c>
-      <c r="I62" s="266">
-        <v>2</v>
-      </c>
-      <c r="J62" s="266">
-        <v>6</v>
-      </c>
-      <c r="K62" s="271" t="s">
-        <v>381</v>
-      </c>
-      <c r="L62" s="271" t="s">
-        <v>381</v>
-      </c>
-      <c r="M62" s="271" t="s">
-        <v>381</v>
-      </c>
-      <c r="N62" s="271" t="s">
-        <v>381</v>
-      </c>
-      <c r="O62" s="271" t="s">
-        <v>381</v>
-      </c>
-      <c r="P62" s="180"/>
-      <c r="Q62" s="180"/>
-      <c r="R62" s="180"/>
-      <c r="S62" s="180"/>
-      <c r="T62" s="180"/>
-      <c r="U62" s="180"/>
-      <c r="V62" s="305"/>
-      <c r="W62" s="180"/>
-    </row>
-    <row r="63" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="284"/>
-      <c r="B63" s="162"/>
-      <c r="C63" s="162"/>
-      <c r="D63" s="162"/>
-      <c r="E63" s="162"/>
-      <c r="F63" s="162"/>
-      <c r="G63" s="266" t="s">
-        <v>399</v>
-      </c>
-      <c r="H63" s="266">
-        <v>952</v>
-      </c>
-      <c r="I63" s="267">
-        <v>618750</v>
-      </c>
-      <c r="J63" s="266">
-        <v>6</v>
-      </c>
-      <c r="K63" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="L63" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="M63" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="N63" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="O63" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="P63" s="162"/>
-      <c r="Q63" s="162"/>
-      <c r="R63" s="162"/>
-      <c r="S63" s="162"/>
-      <c r="T63" s="162"/>
-      <c r="U63" s="162"/>
-      <c r="V63" s="307"/>
-      <c r="W63" s="162"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A64" s="304">
-        <v>10301</v>
-      </c>
-      <c r="B64" s="169" t="s">
-        <v>446</v>
-      </c>
-      <c r="C64" s="169" t="s">
-        <v>447</v>
-      </c>
-      <c r="D64" s="169">
-        <v>1110283</v>
-      </c>
-      <c r="E64" s="169">
-        <v>1</v>
-      </c>
-      <c r="F64" s="169">
-        <v>6</v>
-      </c>
-      <c r="G64" s="200" t="s">
-        <v>419</v>
-      </c>
-      <c r="H64" s="200">
-        <v>1110207</v>
-      </c>
-      <c r="I64" s="200">
-        <v>35</v>
-      </c>
-      <c r="J64" s="200">
-        <v>6</v>
-      </c>
-      <c r="K64" s="308" t="s">
-        <v>420</v>
-      </c>
-      <c r="L64" s="308">
-        <v>303</v>
-      </c>
-      <c r="M64" s="308">
-        <v>1</v>
-      </c>
-      <c r="N64" s="309">
-        <v>0.9</v>
-      </c>
-      <c r="O64" s="308">
-        <v>6</v>
-      </c>
-      <c r="P64" s="169" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q64" s="169">
-        <v>30</v>
-      </c>
-      <c r="R64" s="168" t="s">
-        <v>383</v>
-      </c>
-      <c r="S64" s="173">
-        <v>45134</v>
-      </c>
-      <c r="T64" s="173">
-        <v>45148</v>
-      </c>
-      <c r="U64" s="169" t="s">
-        <v>449</v>
-      </c>
-      <c r="V64" s="169">
-        <v>200</v>
-      </c>
-      <c r="W64" s="169" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A65" s="304"/>
-      <c r="B65" s="169"/>
-      <c r="C65" s="169"/>
-      <c r="D65" s="169"/>
-      <c r="E65" s="169"/>
-      <c r="F65" s="169"/>
-      <c r="G65" s="294"/>
-      <c r="H65" s="294"/>
-      <c r="I65" s="294"/>
-      <c r="J65" s="294"/>
-      <c r="K65" s="310" t="s">
-        <v>421</v>
-      </c>
-      <c r="L65" s="310">
-        <v>333</v>
-      </c>
-      <c r="M65" s="310">
-        <v>1</v>
-      </c>
-      <c r="N65" s="311">
-        <v>0.1</v>
-      </c>
-      <c r="O65" s="310">
-        <v>6</v>
-      </c>
-      <c r="P65" s="169"/>
-      <c r="Q65" s="169"/>
-      <c r="R65" s="168"/>
-      <c r="S65" s="169"/>
-      <c r="T65" s="169"/>
-      <c r="U65" s="169"/>
-      <c r="V65" s="169"/>
-      <c r="W65" s="169"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A66" s="304"/>
-      <c r="B66" s="169"/>
-      <c r="C66" s="169"/>
-      <c r="D66" s="169"/>
-      <c r="E66" s="169"/>
-      <c r="F66" s="169"/>
-      <c r="G66" s="290" t="s">
-        <v>451</v>
-      </c>
-      <c r="H66" s="290">
-        <v>630001</v>
-      </c>
-      <c r="I66" s="290">
-        <v>2</v>
-      </c>
-      <c r="J66" s="290">
-        <v>6</v>
-      </c>
-      <c r="K66" s="169" t="s">
-        <v>381</v>
-      </c>
-      <c r="L66" s="169" t="s">
-        <v>381</v>
-      </c>
-      <c r="M66" s="169" t="s">
-        <v>381</v>
-      </c>
-      <c r="N66" s="169" t="s">
-        <v>381</v>
-      </c>
-      <c r="O66" s="169" t="s">
-        <v>381</v>
-      </c>
-      <c r="P66" s="169"/>
-      <c r="Q66" s="169"/>
-      <c r="R66" s="168"/>
-      <c r="S66" s="169"/>
-      <c r="T66" s="169"/>
-      <c r="U66" s="169"/>
-      <c r="V66" s="169"/>
-      <c r="W66" s="169"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A67" s="304"/>
-      <c r="B67" s="169"/>
-      <c r="C67" s="169"/>
-      <c r="D67" s="169"/>
-      <c r="E67" s="169"/>
-      <c r="F67" s="169"/>
-      <c r="G67" s="290" t="s">
-        <v>452</v>
-      </c>
-      <c r="H67" s="290">
-        <v>660001</v>
-      </c>
-      <c r="I67" s="290">
-        <v>2</v>
-      </c>
-      <c r="J67" s="290">
-        <v>6</v>
-      </c>
-      <c r="K67" s="169"/>
-      <c r="L67" s="169"/>
-      <c r="M67" s="169"/>
-      <c r="N67" s="169"/>
-      <c r="O67" s="169"/>
-      <c r="P67" s="169"/>
-      <c r="Q67" s="169"/>
-      <c r="R67" s="168"/>
-      <c r="S67" s="169"/>
-      <c r="T67" s="169"/>
-      <c r="U67" s="169"/>
-      <c r="V67" s="169"/>
-      <c r="W67" s="169"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A68" s="304"/>
-      <c r="B68" s="169"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
-      <c r="E68" s="169"/>
-      <c r="F68" s="169"/>
-      <c r="G68" s="290" t="s">
-        <v>453</v>
-      </c>
-      <c r="H68" s="290">
-        <v>600019</v>
-      </c>
-      <c r="I68" s="290">
-        <v>5</v>
-      </c>
-      <c r="J68" s="290">
-        <v>6</v>
-      </c>
-      <c r="K68" s="169"/>
-      <c r="L68" s="169"/>
-      <c r="M68" s="169"/>
-      <c r="N68" s="169"/>
-      <c r="O68" s="169"/>
-      <c r="P68" s="169"/>
-      <c r="Q68" s="169"/>
-      <c r="R68" s="168"/>
-      <c r="S68" s="169"/>
-      <c r="T68" s="169"/>
-      <c r="U68" s="169"/>
-      <c r="V68" s="169"/>
-      <c r="W68" s="169"/>
-    </row>
-    <row r="69" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="312"/>
-      <c r="B69" s="313"/>
-      <c r="C69" s="313"/>
-      <c r="D69" s="313"/>
-      <c r="E69" s="313"/>
-      <c r="F69" s="313"/>
-      <c r="G69" s="210" t="s">
-        <v>399</v>
-      </c>
-      <c r="H69" s="210">
-        <v>952</v>
-      </c>
-      <c r="I69" s="314">
-        <v>275000</v>
-      </c>
-      <c r="J69" s="210">
-        <v>6</v>
-      </c>
-      <c r="K69" s="174"/>
-      <c r="L69" s="174"/>
-      <c r="M69" s="210" t="s">
-        <v>381</v>
-      </c>
-      <c r="N69" s="210" t="s">
-        <v>381</v>
-      </c>
-      <c r="O69" s="210" t="s">
-        <v>381</v>
-      </c>
-      <c r="P69" s="313"/>
-      <c r="Q69" s="313"/>
-      <c r="R69" s="315"/>
-      <c r="S69" s="313"/>
-      <c r="T69" s="313"/>
-      <c r="U69" s="313"/>
-      <c r="V69" s="313"/>
-      <c r="W69" s="313"/>
-    </row>
-    <row r="70" spans="1:23" ht="84.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="316">
-        <v>60009</v>
-      </c>
-      <c r="B70" s="285" t="s">
-        <v>454</v>
-      </c>
-      <c r="C70" s="285" t="s">
-        <v>454</v>
-      </c>
-      <c r="D70" s="285">
-        <v>901</v>
-      </c>
-      <c r="E70" s="285">
-        <v>1</v>
-      </c>
-      <c r="F70" s="285">
-        <v>7</v>
-      </c>
-      <c r="G70" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="H70" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="I70" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="J70" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="K70" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="L70" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="M70" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="N70" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="O70" s="285" t="s">
-        <v>381</v>
-      </c>
-      <c r="P70" s="285" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q70" s="285">
-        <v>2</v>
-      </c>
-      <c r="R70" s="317" t="s">
-        <v>456</v>
-      </c>
-      <c r="S70" s="318">
-        <v>45141</v>
-      </c>
-      <c r="T70" s="318">
-        <v>45148</v>
-      </c>
-      <c r="U70" s="285" t="s">
-        <v>457</v>
-      </c>
-      <c r="V70" s="285">
-        <v>0</v>
-      </c>
-      <c r="W70" s="285" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A71" s="142" t="s">
-        <v>351</v>
-      </c>
-      <c r="B71" s="140" t="s">
-        <v>352</v>
-      </c>
-      <c r="C71" s="140" t="s">
-        <v>350</v>
-      </c>
-      <c r="D71" s="140" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="143" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A72" s="141" t="s">
-        <v>354</v>
-      </c>
-      <c r="B72" s="139" t="s">
-        <v>352</v>
-      </c>
-      <c r="C72" s="139" t="s">
-        <v>350</v>
-      </c>
-      <c r="D72" s="139" t="s">
-        <v>80</v>
-      </c>
-      <c r="E72" s="138" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A73" s="141" t="s">
-        <v>355</v>
-      </c>
-      <c r="B73" s="139" t="s">
-        <v>352</v>
-      </c>
-      <c r="C73" s="139" t="s">
-        <v>350</v>
-      </c>
-      <c r="D73" s="139" t="s">
-        <v>80</v>
-      </c>
-      <c r="E73" s="138" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A74" s="141" t="s">
-        <v>356</v>
-      </c>
-      <c r="B74" s="139" t="s">
-        <v>352</v>
-      </c>
-      <c r="C74" s="139" t="s">
-        <v>350</v>
-      </c>
-      <c r="D74" s="139" t="s">
-        <v>80</v>
-      </c>
-      <c r="E74" s="138" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A75" s="141" t="s">
-        <v>357</v>
-      </c>
-      <c r="B75" s="139" t="s">
-        <v>352</v>
-      </c>
-      <c r="C75" s="139" t="s">
-        <v>350</v>
-      </c>
-      <c r="D75" s="139" t="s">
-        <v>80</v>
-      </c>
-      <c r="E75" s="138" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A76" s="141" t="s">
-        <v>358</v>
-      </c>
-      <c r="B76" s="139" t="s">
-        <v>352</v>
-      </c>
-      <c r="C76" s="139" t="s">
-        <v>350</v>
-      </c>
-      <c r="D76" s="139" t="s">
-        <v>80</v>
-      </c>
-      <c r="E76" s="138" t="s">
-        <v>353</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="319" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" s="319" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" s="319" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1" s="319" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="319" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1" s="320" t="s">
+        <v>466</v>
+      </c>
+      <c r="G1" s="336" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.3">
+      <c r="A2" s="321" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2" s="321">
+        <v>5450159</v>
+      </c>
+      <c r="C2" s="321" t="s">
+        <v>468</v>
+      </c>
+      <c r="D2" s="321" t="s">
+        <v>469</v>
+      </c>
+      <c r="E2" s="322" t="s">
+        <v>470</v>
+      </c>
+      <c r="F2" s="321" t="s">
+        <v>508</v>
+      </c>
+      <c r="G2" t="str">
+        <f>A2&amp;CHAR(10)&amp;B2</f>
+        <v>일일 운세 극복의 성배 상자
+5450159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="A3" s="323" t="s">
+        <v>471</v>
+      </c>
+      <c r="B3" s="323">
+        <v>5450164</v>
+      </c>
+      <c r="C3" s="323" t="s">
+        <v>472</v>
+      </c>
+      <c r="D3" s="323" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="324" t="s">
+        <v>473</v>
+      </c>
+      <c r="F3" s="325" t="s">
+        <v>474</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G10" si="0">A3&amp;CHAR(10)&amp;B3</f>
+        <v>8강 확정 극복의 성배 상자
+5450164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="A4" s="326" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" s="326">
+        <v>5450165</v>
+      </c>
+      <c r="C4" s="326" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="326" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="327" t="s">
+        <v>476</v>
+      </c>
+      <c r="F4" s="327" t="s">
+        <v>477</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>6강 확정 극복의 성배 상자
+5450165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+      <c r="A5" s="323" t="s">
+        <v>478</v>
+      </c>
+      <c r="B5" s="323">
+        <v>5450166</v>
+      </c>
+      <c r="C5" s="323" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" s="323" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="324" t="s">
+        <v>479</v>
+      </c>
+      <c r="F5" s="325" t="s">
+        <v>480</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>4강 확정 극복의 성배 상자
+5450166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+      <c r="A6" s="321" t="s">
+        <v>481</v>
+      </c>
+      <c r="B6" s="321">
+        <v>5000110</v>
+      </c>
+      <c r="C6" s="321" t="s">
+        <v>482</v>
+      </c>
+      <c r="D6" s="321" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="328" t="s">
+        <v>483</v>
+      </c>
+      <c r="F6" s="328" t="s">
+        <v>508</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>행운의 구슬[성배]
+5000110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="108" x14ac:dyDescent="0.3">
+      <c r="A7" s="323" t="s">
+        <v>484</v>
+      </c>
+      <c r="B7" s="323">
+        <v>5450160</v>
+      </c>
+      <c r="C7" s="323" t="s">
+        <v>472</v>
+      </c>
+      <c r="D7" s="323" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="329" t="s">
+        <v>485</v>
+      </c>
+      <c r="F7" s="324" t="s">
+        <v>508</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>일일 운세 영혼의 부적 상자
+5450160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="A8" s="326" t="s">
+        <v>486</v>
+      </c>
+      <c r="B8" s="326">
+        <v>5450167</v>
+      </c>
+      <c r="C8" s="330" t="s">
+        <v>472</v>
+      </c>
+      <c r="D8" s="326" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="327" t="s">
+        <v>487</v>
+      </c>
+      <c r="F8" s="325" t="s">
+        <v>488</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>8강 확정 영혼의 부적 상자
+5450167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="A9" s="323" t="s">
+        <v>489</v>
+      </c>
+      <c r="B9" s="323">
+        <v>5450168</v>
+      </c>
+      <c r="C9" s="331" t="s">
+        <v>472</v>
+      </c>
+      <c r="D9" s="323" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="324" t="s">
+        <v>490</v>
+      </c>
+      <c r="F9" s="324" t="s">
+        <v>491</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>6강 확정 영혼의 부적 상자
+5450168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+      <c r="A10" s="321" t="s">
+        <v>492</v>
+      </c>
+      <c r="B10" s="321">
+        <v>5450169</v>
+      </c>
+      <c r="C10" s="332" t="s">
+        <v>472</v>
+      </c>
+      <c r="D10" s="321" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="327" t="s">
+        <v>493</v>
+      </c>
+      <c r="F10" s="333" t="s">
+        <v>494</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>4강 확정 영혼의 부적 상자
+5450169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+      <c r="A11" s="323" t="s">
+        <v>495</v>
+      </c>
+      <c r="B11" s="323">
+        <v>5000111</v>
+      </c>
+      <c r="C11" s="323" t="s">
+        <v>482</v>
+      </c>
+      <c r="D11" s="323" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="324" t="s">
+        <v>496</v>
+      </c>
+      <c r="F11" s="323" t="s">
+        <v>508</v>
+      </c>
+      <c r="G11" t="str">
+        <f>A11&amp;CHAR(10)&amp;B11</f>
+        <v>행운의 구슬[부적]
+5000111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+      <c r="A12" s="321" t="s">
+        <v>497</v>
+      </c>
+      <c r="B12" s="321">
+        <v>5450161</v>
+      </c>
+      <c r="C12" s="332" t="s">
+        <v>472</v>
+      </c>
+      <c r="D12" s="321" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="333" t="s">
+        <v>498</v>
+      </c>
+      <c r="F12" s="334" t="s">
+        <v>508</v>
+      </c>
+      <c r="G12" t="str">
+        <f>A12&amp;CHAR(10)&amp;B12</f>
+        <v>전장의 서막 도감 패키지 상자
+5450161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.3">
+      <c r="A13" s="323" t="s">
+        <v>499</v>
+      </c>
+      <c r="B13" s="323">
+        <v>5450162</v>
+      </c>
+      <c r="C13" s="323" t="s">
+        <v>472</v>
+      </c>
+      <c r="D13" s="323" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="325" t="s">
+        <v>500</v>
+      </c>
+      <c r="F13" s="335" t="s">
+        <v>508</v>
+      </c>
+      <c r="G13" t="str">
+        <f>A13&amp;CHAR(10)&amp;B13</f>
+        <v>영웅 변신 확정 패키지 상자
+5450162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="108" x14ac:dyDescent="0.3">
+      <c r="A14" s="321" t="s">
+        <v>501</v>
+      </c>
+      <c r="B14" s="321">
+        <v>5450163</v>
+      </c>
+      <c r="C14" s="332" t="s">
+        <v>472</v>
+      </c>
+      <c r="D14" s="321" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="322" t="s">
+        <v>502</v>
+      </c>
+      <c r="F14" s="334" t="s">
+        <v>508</v>
+      </c>
+      <c r="G14" t="str">
+        <f>A14&amp;CHAR(10)&amp;B14</f>
+        <v>헤라켄의 특수 매터리얼 패키지 상자
+5450163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+      <c r="A15" s="323" t="s">
+        <v>503</v>
+      </c>
+      <c r="B15" s="323">
+        <v>5201003</v>
+      </c>
+      <c r="C15" s="323" t="s">
+        <v>472</v>
+      </c>
+      <c r="D15" s="323" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="324" t="s">
+        <v>504</v>
+      </c>
+      <c r="F15" s="335" t="s">
+        <v>508</v>
+      </c>
+      <c r="G15" t="str">
+        <f>A15&amp;CHAR(10)&amp;B15</f>
+        <v>헤라켄의 특수 매터리얼 상자[14일]
+5201003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A16" s="321" t="s">
+        <v>505</v>
+      </c>
+      <c r="B16" s="321">
+        <v>5000112</v>
+      </c>
+      <c r="C16" s="332" t="s">
+        <v>506</v>
+      </c>
+      <c r="D16" s="321" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="322" t="s">
+        <v>507</v>
+      </c>
+      <c r="F16" s="334" t="s">
+        <v>508</v>
+      </c>
+      <c r="G16" t="str">
+        <f>A16&amp;CHAR(10)&amp;B16</f>
+        <v>헤라켄의 특수 매터리얼[14일]
+5000112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="283">
-    <mergeCell ref="T64:T69"/>
-    <mergeCell ref="U64:U69"/>
-    <mergeCell ref="V64:V69"/>
-    <mergeCell ref="W64:W69"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="M66:M68"/>
-    <mergeCell ref="N66:N68"/>
-    <mergeCell ref="O66:O68"/>
-    <mergeCell ref="V60:V63"/>
-    <mergeCell ref="W60:W63"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="E64:E69"/>
-    <mergeCell ref="F64:F69"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="P64:P69"/>
-    <mergeCell ref="Q64:Q69"/>
-    <mergeCell ref="R64:R69"/>
-    <mergeCell ref="S64:S69"/>
-    <mergeCell ref="T56:T59"/>
-    <mergeCell ref="U56:U59"/>
-    <mergeCell ref="V56:V59"/>
-    <mergeCell ref="W56:W59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="P60:P63"/>
-    <mergeCell ref="Q60:Q63"/>
-    <mergeCell ref="R60:R63"/>
-    <mergeCell ref="S60:S63"/>
-    <mergeCell ref="T60:T63"/>
-    <mergeCell ref="U60:U63"/>
-    <mergeCell ref="O56:O59"/>
-    <mergeCell ref="P56:P59"/>
-    <mergeCell ref="Q56:Q59"/>
-    <mergeCell ref="R56:R59"/>
-    <mergeCell ref="S56:S59"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="K56:K59"/>
-    <mergeCell ref="L56:L59"/>
-    <mergeCell ref="M56:M59"/>
-    <mergeCell ref="N56:N59"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="T50:T55"/>
-    <mergeCell ref="U50:U55"/>
-    <mergeCell ref="V50:V55"/>
-    <mergeCell ref="W50:W55"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="I51:I54"/>
-    <mergeCell ref="J51:J54"/>
-    <mergeCell ref="O51:O54"/>
-    <mergeCell ref="F50:F55"/>
-    <mergeCell ref="P50:P55"/>
-    <mergeCell ref="Q50:Q55"/>
-    <mergeCell ref="R50:R55"/>
-    <mergeCell ref="S50:S55"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="C50:C55"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="E50:E55"/>
-    <mergeCell ref="U44:U49"/>
-    <mergeCell ref="V44:V49"/>
-    <mergeCell ref="W44:W49"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="J45:J48"/>
-    <mergeCell ref="O45:O48"/>
-    <mergeCell ref="P44:P49"/>
-    <mergeCell ref="Q44:Q49"/>
-    <mergeCell ref="R44:R49"/>
-    <mergeCell ref="S44:S49"/>
-    <mergeCell ref="T44:T49"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="E44:E49"/>
-    <mergeCell ref="F44:F49"/>
-    <mergeCell ref="S35:S43"/>
-    <mergeCell ref="T35:T43"/>
-    <mergeCell ref="U35:U43"/>
-    <mergeCell ref="V35:V43"/>
-    <mergeCell ref="W35:W43"/>
-    <mergeCell ref="N35:N38"/>
-    <mergeCell ref="O35:O38"/>
-    <mergeCell ref="P35:P43"/>
-    <mergeCell ref="Q35:Q43"/>
-    <mergeCell ref="R35:R43"/>
-    <mergeCell ref="A35:A43"/>
-    <mergeCell ref="B35:B43"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="M35:M38"/>
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="D36:D43"/>
-    <mergeCell ref="E36:E43"/>
-    <mergeCell ref="F36:F43"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="U26:U34"/>
-    <mergeCell ref="V26:V34"/>
-    <mergeCell ref="W26:W34"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="F27:F34"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="P26:P34"/>
-    <mergeCell ref="Q26:Q34"/>
-    <mergeCell ref="R26:R34"/>
-    <mergeCell ref="S26:S34"/>
-    <mergeCell ref="T26:T34"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="W16:W21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="P22:P25"/>
-    <mergeCell ref="Q22:Q25"/>
-    <mergeCell ref="R22:R25"/>
-    <mergeCell ref="S22:S25"/>
-    <mergeCell ref="T22:T25"/>
-    <mergeCell ref="U22:U25"/>
-    <mergeCell ref="V22:V25"/>
-    <mergeCell ref="W22:W25"/>
-    <mergeCell ref="R16:R21"/>
-    <mergeCell ref="S16:S21"/>
-    <mergeCell ref="T16:T21"/>
-    <mergeCell ref="U16:U21"/>
-    <mergeCell ref="V16:V21"/>
-    <mergeCell ref="V10:V15"/>
-    <mergeCell ref="W10:W15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="J16:J20"/>
-    <mergeCell ref="L16:L20"/>
-    <mergeCell ref="O16:O20"/>
-    <mergeCell ref="P16:P21"/>
-    <mergeCell ref="Q16:Q21"/>
-    <mergeCell ref="Q10:Q15"/>
-    <mergeCell ref="R10:R15"/>
-    <mergeCell ref="S10:S15"/>
-    <mergeCell ref="T10:T15"/>
-    <mergeCell ref="U10:U15"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="L10:L14"/>
-    <mergeCell ref="O10:O14"/>
-    <mergeCell ref="P10:P15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="C10:C15"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8968,13 +6335,13 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="113">
+      <c r="A2" s="294">
         <v>1</v>
       </c>
-      <c r="B2" s="116">
+      <c r="B2" s="297">
         <v>4</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="297" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="6">
@@ -9012,9 +6379,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="114"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
+      <c r="A3" s="295"/>
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
       <c r="D3" s="12">
         <v>212466</v>
       </c>
@@ -9050,9 +6417,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="114"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
+      <c r="A4" s="295"/>
+      <c r="B4" s="298"/>
+      <c r="C4" s="298"/>
       <c r="D4" s="12">
         <v>92266</v>
       </c>
@@ -9088,9 +6455,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="115"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
+      <c r="A5" s="296"/>
+      <c r="B5" s="299"/>
+      <c r="C5" s="299"/>
       <c r="D5" s="17">
         <v>12586</v>
       </c>
@@ -9126,13 +6493,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113">
+      <c r="A6" s="294">
         <v>2</v>
       </c>
-      <c r="B6" s="116">
+      <c r="B6" s="297">
         <v>4</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="297" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6">
@@ -9170,9 +6537,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="114"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
+      <c r="A7" s="295"/>
+      <c r="B7" s="298"/>
+      <c r="C7" s="298"/>
       <c r="D7" s="12">
         <v>212266</v>
       </c>
@@ -9208,9 +6575,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="114"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
+      <c r="A8" s="295"/>
+      <c r="B8" s="298"/>
+      <c r="C8" s="298"/>
       <c r="D8" s="12">
         <v>92066</v>
       </c>
@@ -9246,9 +6613,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="115"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
+      <c r="A9" s="296"/>
+      <c r="B9" s="299"/>
+      <c r="C9" s="299"/>
       <c r="D9" s="17">
         <v>102126</v>
       </c>
@@ -9284,13 +6651,13 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="113">
+      <c r="A10" s="294">
         <v>3</v>
       </c>
-      <c r="B10" s="116">
+      <c r="B10" s="297">
         <v>4</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="297" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="6">
@@ -9328,9 +6695,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="114"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
+      <c r="A11" s="295"/>
+      <c r="B11" s="298"/>
+      <c r="C11" s="298"/>
       <c r="D11" s="12">
         <v>202206</v>
       </c>
@@ -9366,9 +6733,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="114"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
+      <c r="A12" s="295"/>
+      <c r="B12" s="298"/>
+      <c r="C12" s="298"/>
       <c r="D12" s="12">
         <v>82306</v>
       </c>
@@ -9404,9 +6771,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="115"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
+      <c r="A13" s="296"/>
+      <c r="B13" s="299"/>
+      <c r="C13" s="299"/>
       <c r="D13" s="17">
         <v>12566</v>
       </c>
@@ -9534,10 +6901,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="304" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="306" t="s">
         <v>180</v>
       </c>
       <c r="C2" s="90" t="s">
@@ -9587,8 +6954,8 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="119"/>
-      <c r="B3" s="121"/>
+      <c r="A3" s="304"/>
+      <c r="B3" s="306"/>
       <c r="C3" s="91" t="s">
         <v>143</v>
       </c>
@@ -9636,8 +7003,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
-      <c r="B4" s="121"/>
+      <c r="A4" s="304"/>
+      <c r="B4" s="306"/>
       <c r="C4" s="91" t="s">
         <v>144</v>
       </c>
@@ -9685,8 +7052,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="119"/>
-      <c r="B5" s="121"/>
+      <c r="A5" s="304"/>
+      <c r="B5" s="306"/>
       <c r="C5" s="91" t="s">
         <v>145</v>
       </c>
@@ -9734,8 +7101,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="119"/>
-      <c r="B6" s="121"/>
+      <c r="A6" s="304"/>
+      <c r="B6" s="306"/>
       <c r="C6" s="91" t="s">
         <v>146</v>
       </c>
@@ -9783,8 +7150,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="119"/>
-      <c r="B7" s="121"/>
+      <c r="A7" s="304"/>
+      <c r="B7" s="306"/>
       <c r="C7" s="91" t="s">
         <v>147</v>
       </c>
@@ -9832,8 +7199,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="119"/>
-      <c r="B8" s="121"/>
+      <c r="A8" s="304"/>
+      <c r="B8" s="306"/>
       <c r="C8" s="91" t="s">
         <v>148</v>
       </c>
@@ -9881,8 +7248,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="119"/>
-      <c r="B9" s="121"/>
+      <c r="A9" s="304"/>
+      <c r="B9" s="306"/>
       <c r="C9" s="91" t="s">
         <v>149</v>
       </c>
@@ -9930,8 +7297,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="119"/>
-      <c r="B10" s="121"/>
+      <c r="A10" s="304"/>
+      <c r="B10" s="306"/>
       <c r="C10" s="91" t="s">
         <v>150</v>
       </c>
@@ -9979,8 +7346,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="119"/>
-      <c r="B11" s="122"/>
+      <c r="A11" s="304"/>
+      <c r="B11" s="307"/>
       <c r="C11" s="91" t="s">
         <v>151</v>
       </c>
@@ -10028,7 +7395,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="119"/>
+      <c r="A12" s="304"/>
       <c r="B12" s="91" t="s">
         <v>152</v>
       </c>
@@ -10061,7 +7428,7 @@
       <c r="Q12" s="71"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="119"/>
+      <c r="A13" s="304"/>
       <c r="B13" s="91" t="s">
         <v>154</v>
       </c>
@@ -10094,7 +7461,7 @@
       <c r="Q13" s="71"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="119"/>
+      <c r="A14" s="304"/>
       <c r="B14" s="91" t="s">
         <v>155</v>
       </c>
@@ -10127,7 +7494,7 @@
       <c r="Q14" s="71"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="119"/>
+      <c r="A15" s="304"/>
       <c r="B15" s="105"/>
       <c r="C15" s="105"/>
       <c r="D15" s="105">
@@ -10156,7 +7523,7 @@
       <c r="Q15" s="109"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="119"/>
+      <c r="A16" s="304"/>
       <c r="B16" s="105"/>
       <c r="C16" s="105"/>
       <c r="D16" s="105">
@@ -10185,7 +7552,7 @@
       <c r="Q16" s="109"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="119"/>
+      <c r="A17" s="304"/>
       <c r="B17" s="105"/>
       <c r="C17" s="105"/>
       <c r="D17" s="105">
@@ -10214,7 +7581,7 @@
       <c r="Q17" s="109"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="119"/>
+      <c r="A18" s="304"/>
       <c r="B18" s="105"/>
       <c r="C18" s="105"/>
       <c r="D18" s="105">
@@ -10243,7 +7610,7 @@
       <c r="Q18" s="109"/>
     </row>
     <row r="19" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="120"/>
+      <c r="A19" s="305"/>
       <c r="B19" s="92" t="s">
         <v>181</v>
       </c>
@@ -10276,10 +7643,10 @@
       <c r="Q19" s="75"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="308" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="312" t="s">
         <v>180</v>
       </c>
       <c r="C20" s="93" t="s">
@@ -10323,8 +7690,8 @@
       <c r="Q20" s="81"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="124"/>
-      <c r="B21" s="128"/>
+      <c r="A21" s="309"/>
+      <c r="B21" s="313"/>
       <c r="C21" s="94" t="s">
         <v>143</v>
       </c>
@@ -10366,8 +7733,8 @@
       <c r="Q21" s="71"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="124"/>
-      <c r="B22" s="128"/>
+      <c r="A22" s="309"/>
+      <c r="B22" s="313"/>
       <c r="C22" s="94" t="s">
         <v>144</v>
       </c>
@@ -10409,8 +7776,8 @@
       <c r="Q22" s="71"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="124"/>
-      <c r="B23" s="128"/>
+      <c r="A23" s="309"/>
+      <c r="B23" s="313"/>
       <c r="C23" s="94" t="s">
         <v>145</v>
       </c>
@@ -10452,8 +7819,8 @@
       <c r="Q23" s="71"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="124"/>
-      <c r="B24" s="128"/>
+      <c r="A24" s="309"/>
+      <c r="B24" s="313"/>
       <c r="C24" s="94" t="s">
         <v>146</v>
       </c>
@@ -10495,8 +7862,8 @@
       <c r="Q24" s="71"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="124"/>
-      <c r="B25" s="128"/>
+      <c r="A25" s="309"/>
+      <c r="B25" s="313"/>
       <c r="C25" s="94" t="s">
         <v>147</v>
       </c>
@@ -10538,8 +7905,8 @@
       <c r="Q25" s="71"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="124"/>
-      <c r="B26" s="128"/>
+      <c r="A26" s="309"/>
+      <c r="B26" s="313"/>
       <c r="C26" s="94" t="s">
         <v>148</v>
       </c>
@@ -10581,8 +7948,8 @@
       <c r="Q26" s="71"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="124"/>
-      <c r="B27" s="128"/>
+      <c r="A27" s="309"/>
+      <c r="B27" s="313"/>
       <c r="C27" s="94" t="s">
         <v>149</v>
       </c>
@@ -10624,8 +7991,8 @@
       <c r="Q27" s="71"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="124"/>
-      <c r="B28" s="128"/>
+      <c r="A28" s="309"/>
+      <c r="B28" s="313"/>
       <c r="C28" s="94" t="s">
         <v>150</v>
       </c>
@@ -10667,8 +8034,8 @@
       <c r="Q28" s="71"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="124"/>
-      <c r="B29" s="128"/>
+      <c r="A29" s="309"/>
+      <c r="B29" s="313"/>
       <c r="C29" s="94" t="s">
         <v>151</v>
       </c>
@@ -10710,8 +8077,8 @@
       <c r="Q29" s="71"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="124"/>
-      <c r="B30" s="128"/>
+      <c r="A30" s="309"/>
+      <c r="B30" s="313"/>
       <c r="C30" s="94" t="s">
         <v>157</v>
       </c>
@@ -10753,8 +8120,8 @@
       <c r="Q30" s="71"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="124"/>
-      <c r="B31" s="128"/>
+      <c r="A31" s="309"/>
+      <c r="B31" s="313"/>
       <c r="C31" s="94" t="s">
         <v>158</v>
       </c>
@@ -10796,8 +8163,8 @@
       <c r="Q31" s="71"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="124"/>
-      <c r="B32" s="128"/>
+      <c r="A32" s="309"/>
+      <c r="B32" s="313"/>
       <c r="C32" s="94" t="s">
         <v>159</v>
       </c>
@@ -10839,8 +8206,8 @@
       <c r="Q32" s="71"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="124"/>
-      <c r="B33" s="129"/>
+      <c r="A33" s="309"/>
+      <c r="B33" s="314"/>
       <c r="C33" s="94" t="s">
         <v>160</v>
       </c>
@@ -10882,7 +8249,7 @@
       <c r="Q33" s="71"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="124"/>
+      <c r="A34" s="309"/>
       <c r="B34" s="95" t="s">
         <v>182</v>
       </c>
@@ -10915,7 +8282,7 @@
       <c r="Q34" s="71"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="124"/>
+      <c r="A35" s="309"/>
       <c r="B35" s="94" t="s">
         <v>161</v>
       </c>
@@ -10948,7 +8315,7 @@
       <c r="Q35" s="71"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="124"/>
+      <c r="A36" s="309"/>
       <c r="B36" s="94" t="s">
         <v>162</v>
       </c>
@@ -10981,7 +8348,7 @@
       <c r="Q36" s="71"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="124"/>
+      <c r="A37" s="309"/>
       <c r="B37" s="94" t="s">
         <v>163</v>
       </c>
@@ -11014,7 +8381,7 @@
       <c r="Q37" s="71"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="125"/>
+      <c r="A38" s="310"/>
       <c r="B38" s="110"/>
       <c r="C38" s="110"/>
       <c r="D38" s="110">
@@ -11043,7 +8410,7 @@
       <c r="Q38" s="109"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="125"/>
+      <c r="A39" s="310"/>
       <c r="B39" s="110"/>
       <c r="C39" s="110"/>
       <c r="D39" s="110">
@@ -11072,7 +8439,7 @@
       <c r="Q39" s="109"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="125"/>
+      <c r="A40" s="310"/>
       <c r="B40" s="110"/>
       <c r="C40" s="110"/>
       <c r="D40" s="110">
@@ -11101,7 +8468,7 @@
       <c r="Q40" s="109"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="125"/>
+      <c r="A41" s="310"/>
       <c r="B41" s="110"/>
       <c r="C41" s="110"/>
       <c r="D41" s="110">
@@ -11130,7 +8497,7 @@
       <c r="Q41" s="109"/>
     </row>
     <row r="42" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="126"/>
+      <c r="A42" s="311"/>
       <c r="B42" s="97" t="s">
         <v>184</v>
       </c>
@@ -11163,7 +8530,7 @@
       <c r="Q42" s="75"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="130" t="s">
+      <c r="A43" s="315" t="s">
         <v>165</v>
       </c>
       <c r="B43" s="98" t="s">
@@ -11198,7 +8565,7 @@
       <c r="Q43" s="81"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="131"/>
+      <c r="A44" s="316"/>
       <c r="B44" s="99" t="s">
         <v>167</v>
       </c>
@@ -11231,7 +8598,7 @@
       <c r="Q44" s="71"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="131"/>
+      <c r="A45" s="316"/>
       <c r="B45" s="99" t="s">
         <v>108</v>
       </c>
@@ -11264,7 +8631,7 @@
       <c r="Q45" s="71"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="131"/>
+      <c r="A46" s="316"/>
       <c r="B46" s="99"/>
       <c r="C46" s="99" t="s">
         <v>145</v>
@@ -11295,7 +8662,7 @@
       <c r="Q46" s="71"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="131"/>
+      <c r="A47" s="316"/>
       <c r="B47" s="99"/>
       <c r="C47" s="99" t="s">
         <v>146</v>
@@ -11326,7 +8693,7 @@
       <c r="Q47" s="71"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="131"/>
+      <c r="A48" s="316"/>
       <c r="B48" s="99"/>
       <c r="C48" s="99" t="s">
         <v>147</v>
@@ -11357,7 +8724,7 @@
       <c r="Q48" s="71"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="131"/>
+      <c r="A49" s="316"/>
       <c r="B49" s="99"/>
       <c r="C49" s="99" t="s">
         <v>148</v>
@@ -11388,7 +8755,7 @@
       <c r="Q49" s="71"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="131"/>
+      <c r="A50" s="316"/>
       <c r="B50" s="99"/>
       <c r="C50" s="99" t="s">
         <v>149</v>
@@ -11419,7 +8786,7 @@
       <c r="Q50" s="71"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="131"/>
+      <c r="A51" s="316"/>
       <c r="B51" s="99"/>
       <c r="C51" s="99" t="s">
         <v>150</v>
@@ -11450,7 +8817,7 @@
       <c r="Q51" s="71"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="131"/>
+      <c r="A52" s="316"/>
       <c r="B52" s="99"/>
       <c r="C52" s="99" t="s">
         <v>151</v>
@@ -11481,7 +8848,7 @@
       <c r="Q52" s="71"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="131"/>
+      <c r="A53" s="316"/>
       <c r="B53" s="99" t="s">
         <v>182</v>
       </c>
@@ -11514,7 +8881,7 @@
       <c r="Q53" s="71"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="131"/>
+      <c r="A54" s="316"/>
       <c r="B54" s="99" t="s">
         <v>168</v>
       </c>
@@ -11547,7 +8914,7 @@
       <c r="Q54" s="71"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="131"/>
+      <c r="A55" s="316"/>
       <c r="B55" s="99" t="s">
         <v>169</v>
       </c>
@@ -11580,7 +8947,7 @@
       <c r="Q55" s="71"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="132"/>
+      <c r="A56" s="317"/>
       <c r="B56" s="111"/>
       <c r="C56" s="111"/>
       <c r="D56" s="111">
@@ -11607,7 +8974,7 @@
       <c r="Q56" s="109"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="132"/>
+      <c r="A57" s="317"/>
       <c r="B57" s="111"/>
       <c r="C57" s="111"/>
       <c r="D57" s="111">
@@ -11634,7 +9001,7 @@
       <c r="Q57" s="109"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="132"/>
+      <c r="A58" s="317"/>
       <c r="B58" s="111"/>
       <c r="C58" s="111"/>
       <c r="D58" s="111">
@@ -11661,7 +9028,7 @@
       <c r="Q58" s="109"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="132"/>
+      <c r="A59" s="317"/>
       <c r="B59" s="111"/>
       <c r="C59" s="111"/>
       <c r="D59" s="111">
@@ -11688,7 +9055,7 @@
       <c r="Q59" s="109"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="133"/>
+      <c r="A60" s="318"/>
       <c r="B60" s="100" t="s">
         <v>181</v>
       </c>
@@ -11721,7 +9088,7 @@
       <c r="Q60" s="75"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="134" t="s">
+      <c r="A61" s="300" t="s">
         <v>170</v>
       </c>
       <c r="B61" s="101" t="s">
@@ -11756,7 +9123,7 @@
       <c r="Q61" s="81"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="135"/>
+      <c r="A62" s="301"/>
       <c r="B62" s="102" t="s">
         <v>171</v>
       </c>
@@ -11789,7 +9156,7 @@
       <c r="Q62" s="87"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="136"/>
+      <c r="A63" s="302"/>
       <c r="B63" s="103" t="s">
         <v>172</v>
       </c>
@@ -11822,7 +9189,7 @@
       <c r="Q63" s="71"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="136"/>
+      <c r="A64" s="302"/>
       <c r="B64" s="103" t="s">
         <v>173</v>
       </c>
@@ -11855,7 +9222,7 @@
       <c r="Q64" s="71"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="136"/>
+      <c r="A65" s="302"/>
       <c r="B65" s="103" t="s">
         <v>174</v>
       </c>
@@ -11888,7 +9255,7 @@
       <c r="Q65" s="71"/>
     </row>
     <row r="66" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="137"/>
+      <c r="A66" s="303"/>
       <c r="B66" s="104" t="s">
         <v>175</v>
       </c>
@@ -16096,4 +13463,3526 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E948EE82-0920-4605-AD50-713EC35575DB}">
+  <dimension ref="A1:W76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="36.625" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="120" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1" s="120" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="120" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" s="120" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" s="120" t="s">
+        <v>458</v>
+      </c>
+      <c r="G1" s="120" t="s">
+        <v>363</v>
+      </c>
+      <c r="H1" s="120" t="s">
+        <v>364</v>
+      </c>
+      <c r="I1" s="120" t="s">
+        <v>365</v>
+      </c>
+      <c r="J1" s="120" t="s">
+        <v>459</v>
+      </c>
+      <c r="K1" s="120" t="s">
+        <v>366</v>
+      </c>
+      <c r="L1" s="120" t="s">
+        <v>367</v>
+      </c>
+      <c r="M1" s="121" t="s">
+        <v>368</v>
+      </c>
+      <c r="N1" s="122" t="s">
+        <v>369</v>
+      </c>
+      <c r="O1" s="122" t="s">
+        <v>460</v>
+      </c>
+      <c r="P1" s="120" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q1" s="120" t="s">
+        <v>371</v>
+      </c>
+      <c r="R1" s="123" t="s">
+        <v>372</v>
+      </c>
+      <c r="S1" s="123" t="s">
+        <v>373</v>
+      </c>
+      <c r="T1" s="123" t="s">
+        <v>374</v>
+      </c>
+      <c r="U1" s="123" t="s">
+        <v>375</v>
+      </c>
+      <c r="V1" s="120" t="s">
+        <v>376</v>
+      </c>
+      <c r="W1" s="123" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="287">
+        <v>50024</v>
+      </c>
+      <c r="B2" s="289" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="291" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" s="277">
+        <v>1110372</v>
+      </c>
+      <c r="E2" s="277">
+        <v>11</v>
+      </c>
+      <c r="F2" s="283">
+        <v>6</v>
+      </c>
+      <c r="G2" s="124" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2" s="125">
+        <v>452000</v>
+      </c>
+      <c r="I2" s="125">
+        <v>1</v>
+      </c>
+      <c r="J2" s="125">
+        <v>6</v>
+      </c>
+      <c r="K2" s="285" t="s">
+        <v>381</v>
+      </c>
+      <c r="L2" s="281" t="s">
+        <v>381</v>
+      </c>
+      <c r="M2" s="281" t="s">
+        <v>381</v>
+      </c>
+      <c r="N2" s="281" t="s">
+        <v>381</v>
+      </c>
+      <c r="O2" s="281" t="s">
+        <v>381</v>
+      </c>
+      <c r="P2" s="277" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q2" s="277">
+        <v>1</v>
+      </c>
+      <c r="R2" s="277" t="s">
+        <v>383</v>
+      </c>
+      <c r="S2" s="280">
+        <v>45134</v>
+      </c>
+      <c r="T2" s="277" t="s">
+        <v>384</v>
+      </c>
+      <c r="U2" s="277" t="s">
+        <v>385</v>
+      </c>
+      <c r="V2" s="277">
+        <v>120</v>
+      </c>
+      <c r="W2" s="277" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="288"/>
+      <c r="B3" s="290"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="126" t="s">
+        <v>387</v>
+      </c>
+      <c r="H3" s="126">
+        <v>360</v>
+      </c>
+      <c r="I3" s="126">
+        <v>8</v>
+      </c>
+      <c r="J3" s="126">
+        <v>6</v>
+      </c>
+      <c r="K3" s="286"/>
+      <c r="L3" s="282"/>
+      <c r="M3" s="282"/>
+      <c r="N3" s="282"/>
+      <c r="O3" s="282"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="278">
+        <v>50025</v>
+      </c>
+      <c r="B4" s="209" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" s="196" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="196">
+        <v>1110372</v>
+      </c>
+      <c r="E4" s="196">
+        <v>1</v>
+      </c>
+      <c r="F4" s="196">
+        <v>6</v>
+      </c>
+      <c r="G4" s="127" t="s">
+        <v>380</v>
+      </c>
+      <c r="H4" s="128">
+        <v>452000</v>
+      </c>
+      <c r="I4" s="128">
+        <v>1</v>
+      </c>
+      <c r="J4" s="128">
+        <v>6</v>
+      </c>
+      <c r="K4" s="279" t="s">
+        <v>381</v>
+      </c>
+      <c r="L4" s="196" t="s">
+        <v>381</v>
+      </c>
+      <c r="M4" s="196" t="s">
+        <v>381</v>
+      </c>
+      <c r="N4" s="196" t="s">
+        <v>381</v>
+      </c>
+      <c r="O4" s="196" t="s">
+        <v>381</v>
+      </c>
+      <c r="P4" s="196" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q4" s="196">
+        <v>2</v>
+      </c>
+      <c r="R4" s="196" t="s">
+        <v>383</v>
+      </c>
+      <c r="S4" s="195">
+        <v>45134</v>
+      </c>
+      <c r="T4" s="196" t="s">
+        <v>384</v>
+      </c>
+      <c r="U4" s="196" t="s">
+        <v>389</v>
+      </c>
+      <c r="V4" s="196">
+        <v>12</v>
+      </c>
+      <c r="W4" s="196" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="278"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="129" t="s">
+        <v>387</v>
+      </c>
+      <c r="H5" s="130">
+        <v>360</v>
+      </c>
+      <c r="I5" s="130">
+        <v>8</v>
+      </c>
+      <c r="J5" s="130">
+        <v>6</v>
+      </c>
+      <c r="K5" s="279"/>
+      <c r="L5" s="196"/>
+      <c r="M5" s="196"/>
+      <c r="N5" s="196"/>
+      <c r="O5" s="196"/>
+      <c r="P5" s="196"/>
+      <c r="Q5" s="196"/>
+      <c r="R5" s="196"/>
+      <c r="S5" s="196"/>
+      <c r="T5" s="196"/>
+      <c r="U5" s="196"/>
+      <c r="V5" s="196"/>
+      <c r="W5" s="196"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="212">
+        <v>50026</v>
+      </c>
+      <c r="B6" s="270" t="s">
+        <v>390</v>
+      </c>
+      <c r="C6" s="202" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="203">
+        <v>1110373</v>
+      </c>
+      <c r="E6" s="202">
+        <v>11</v>
+      </c>
+      <c r="F6" s="272">
+        <v>6</v>
+      </c>
+      <c r="G6" s="132" t="s">
+        <v>392</v>
+      </c>
+      <c r="H6" s="133">
+        <v>453000</v>
+      </c>
+      <c r="I6" s="134">
+        <v>1</v>
+      </c>
+      <c r="J6" s="135">
+        <v>6</v>
+      </c>
+      <c r="K6" s="274" t="s">
+        <v>381</v>
+      </c>
+      <c r="L6" s="202" t="s">
+        <v>381</v>
+      </c>
+      <c r="M6" s="202" t="s">
+        <v>381</v>
+      </c>
+      <c r="N6" s="202" t="s">
+        <v>381</v>
+      </c>
+      <c r="O6" s="276" t="s">
+        <v>381</v>
+      </c>
+      <c r="P6" s="277" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q6" s="202">
+        <v>3</v>
+      </c>
+      <c r="R6" s="202" t="s">
+        <v>383</v>
+      </c>
+      <c r="S6" s="215">
+        <v>45134</v>
+      </c>
+      <c r="T6" s="202" t="s">
+        <v>384</v>
+      </c>
+      <c r="U6" s="202" t="s">
+        <v>385</v>
+      </c>
+      <c r="V6" s="202">
+        <v>120</v>
+      </c>
+      <c r="W6" s="202" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="213"/>
+      <c r="B7" s="271"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="273"/>
+      <c r="G7" s="137" t="s">
+        <v>387</v>
+      </c>
+      <c r="H7" s="138">
+        <v>360</v>
+      </c>
+      <c r="I7" s="138">
+        <v>8</v>
+      </c>
+      <c r="J7" s="139">
+        <v>6</v>
+      </c>
+      <c r="K7" s="275"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="224"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="261"/>
+      <c r="R7" s="261"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="261"/>
+      <c r="U7" s="261"/>
+      <c r="V7" s="261"/>
+      <c r="W7" s="261"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="216">
+        <v>50027</v>
+      </c>
+      <c r="B8" s="262" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="207" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="196">
+        <v>1110373</v>
+      </c>
+      <c r="E8" s="207">
+        <v>1</v>
+      </c>
+      <c r="F8" s="207">
+        <v>6</v>
+      </c>
+      <c r="G8" s="141" t="s">
+        <v>392</v>
+      </c>
+      <c r="H8" s="142">
+        <v>453000</v>
+      </c>
+      <c r="I8" s="142">
+        <v>1</v>
+      </c>
+      <c r="J8" s="143">
+        <v>6</v>
+      </c>
+      <c r="K8" s="264" t="s">
+        <v>381</v>
+      </c>
+      <c r="L8" s="266" t="s">
+        <v>381</v>
+      </c>
+      <c r="M8" s="266" t="s">
+        <v>381</v>
+      </c>
+      <c r="N8" s="266" t="s">
+        <v>381</v>
+      </c>
+      <c r="O8" s="268" t="s">
+        <v>381</v>
+      </c>
+      <c r="P8" s="216" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q8" s="207">
+        <v>4</v>
+      </c>
+      <c r="R8" s="207" t="s">
+        <v>383</v>
+      </c>
+      <c r="S8" s="211">
+        <v>45134</v>
+      </c>
+      <c r="T8" s="207" t="s">
+        <v>384</v>
+      </c>
+      <c r="U8" s="207" t="s">
+        <v>389</v>
+      </c>
+      <c r="V8" s="207">
+        <v>12</v>
+      </c>
+      <c r="W8" s="207" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="217"/>
+      <c r="B9" s="263"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="144" t="s">
+        <v>387</v>
+      </c>
+      <c r="H9" s="144">
+        <v>360</v>
+      </c>
+      <c r="I9" s="144">
+        <v>8</v>
+      </c>
+      <c r="J9" s="145">
+        <v>6</v>
+      </c>
+      <c r="K9" s="265"/>
+      <c r="L9" s="267"/>
+      <c r="M9" s="267"/>
+      <c r="N9" s="267"/>
+      <c r="O9" s="269"/>
+      <c r="P9" s="217"/>
+      <c r="Q9" s="198"/>
+      <c r="R9" s="198"/>
+      <c r="S9" s="198"/>
+      <c r="T9" s="198"/>
+      <c r="U9" s="198"/>
+      <c r="V9" s="198"/>
+      <c r="W9" s="198"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="293">
+        <v>10315</v>
+      </c>
+      <c r="B10" s="252" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" s="254" t="s">
+        <v>395</v>
+      </c>
+      <c r="D10" s="254">
+        <v>1110374</v>
+      </c>
+      <c r="E10" s="258">
+        <v>1</v>
+      </c>
+      <c r="F10" s="238">
+        <v>6</v>
+      </c>
+      <c r="G10" s="259" t="s">
+        <v>396</v>
+      </c>
+      <c r="H10" s="237">
+        <v>1110387</v>
+      </c>
+      <c r="I10" s="238">
+        <v>11</v>
+      </c>
+      <c r="J10" s="238">
+        <v>6</v>
+      </c>
+      <c r="K10" s="147" t="s">
+        <v>379</v>
+      </c>
+      <c r="L10" s="237">
+        <v>1110372</v>
+      </c>
+      <c r="M10" s="147">
+        <v>1</v>
+      </c>
+      <c r="N10" s="148">
+        <v>0.85</v>
+      </c>
+      <c r="O10" s="237">
+        <v>6</v>
+      </c>
+      <c r="P10" s="237" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q10" s="254">
+        <v>26</v>
+      </c>
+      <c r="R10" s="254" t="s">
+        <v>383</v>
+      </c>
+      <c r="S10" s="257">
+        <v>45134</v>
+      </c>
+      <c r="T10" s="257">
+        <v>45148</v>
+      </c>
+      <c r="U10" s="254" t="s">
+        <v>385</v>
+      </c>
+      <c r="V10" s="254">
+        <v>120</v>
+      </c>
+      <c r="W10" s="254" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="293"/>
+      <c r="B11" s="252"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="254"/>
+      <c r="E11" s="258"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="259"/>
+      <c r="H11" s="238"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="149" t="s">
+        <v>379</v>
+      </c>
+      <c r="L11" s="238"/>
+      <c r="M11" s="150">
+        <v>2</v>
+      </c>
+      <c r="N11" s="151">
+        <v>0.06</v>
+      </c>
+      <c r="O11" s="238"/>
+      <c r="P11" s="238"/>
+      <c r="Q11" s="254"/>
+      <c r="R11" s="254"/>
+      <c r="S11" s="252"/>
+      <c r="T11" s="252"/>
+      <c r="U11" s="254"/>
+      <c r="V11" s="254"/>
+      <c r="W11" s="254"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="293"/>
+      <c r="B12" s="252"/>
+      <c r="C12" s="254"/>
+      <c r="D12" s="254"/>
+      <c r="E12" s="258"/>
+      <c r="F12" s="238"/>
+      <c r="G12" s="259"/>
+      <c r="H12" s="238"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="238"/>
+      <c r="K12" s="152" t="s">
+        <v>379</v>
+      </c>
+      <c r="L12" s="238"/>
+      <c r="M12" s="153">
+        <v>3</v>
+      </c>
+      <c r="N12" s="151">
+        <v>0.04</v>
+      </c>
+      <c r="O12" s="238"/>
+      <c r="P12" s="238"/>
+      <c r="Q12" s="254"/>
+      <c r="R12" s="254"/>
+      <c r="S12" s="252"/>
+      <c r="T12" s="252"/>
+      <c r="U12" s="254"/>
+      <c r="V12" s="254"/>
+      <c r="W12" s="254"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="293"/>
+      <c r="B13" s="252"/>
+      <c r="C13" s="254"/>
+      <c r="D13" s="254"/>
+      <c r="E13" s="258"/>
+      <c r="F13" s="238"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="238"/>
+      <c r="I13" s="238"/>
+      <c r="J13" s="238"/>
+      <c r="K13" s="152" t="s">
+        <v>379</v>
+      </c>
+      <c r="L13" s="238"/>
+      <c r="M13" s="153">
+        <v>4</v>
+      </c>
+      <c r="N13" s="151">
+        <v>0.03</v>
+      </c>
+      <c r="O13" s="238"/>
+      <c r="P13" s="238"/>
+      <c r="Q13" s="254"/>
+      <c r="R13" s="254"/>
+      <c r="S13" s="252"/>
+      <c r="T13" s="252"/>
+      <c r="U13" s="254"/>
+      <c r="V13" s="254"/>
+      <c r="W13" s="254"/>
+    </row>
+    <row r="14" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="293"/>
+      <c r="B14" s="252"/>
+      <c r="C14" s="254"/>
+      <c r="D14" s="254"/>
+      <c r="E14" s="258"/>
+      <c r="F14" s="238"/>
+      <c r="G14" s="260"/>
+      <c r="H14" s="239"/>
+      <c r="I14" s="241"/>
+      <c r="J14" s="242"/>
+      <c r="K14" s="154" t="s">
+        <v>379</v>
+      </c>
+      <c r="L14" s="239"/>
+      <c r="M14" s="153">
+        <v>5</v>
+      </c>
+      <c r="N14" s="151">
+        <v>0.02</v>
+      </c>
+      <c r="O14" s="242"/>
+      <c r="P14" s="238"/>
+      <c r="Q14" s="254"/>
+      <c r="R14" s="254"/>
+      <c r="S14" s="252"/>
+      <c r="T14" s="252"/>
+      <c r="U14" s="254"/>
+      <c r="V14" s="254"/>
+      <c r="W14" s="254"/>
+    </row>
+    <row r="15" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="293"/>
+      <c r="B15" s="252"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="254"/>
+      <c r="E15" s="258"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="146" t="s">
+        <v>399</v>
+      </c>
+      <c r="H15" s="155">
+        <v>952</v>
+      </c>
+      <c r="I15" s="156">
+        <v>165000</v>
+      </c>
+      <c r="J15" s="146">
+        <v>6</v>
+      </c>
+      <c r="K15" s="157" t="s">
+        <v>381</v>
+      </c>
+      <c r="L15" s="157" t="s">
+        <v>381</v>
+      </c>
+      <c r="M15" s="158" t="s">
+        <v>381</v>
+      </c>
+      <c r="N15" s="158" t="s">
+        <v>381</v>
+      </c>
+      <c r="O15" s="158" t="s">
+        <v>381</v>
+      </c>
+      <c r="P15" s="238"/>
+      <c r="Q15" s="254"/>
+      <c r="R15" s="254"/>
+      <c r="S15" s="252"/>
+      <c r="T15" s="252"/>
+      <c r="U15" s="254"/>
+      <c r="V15" s="254"/>
+      <c r="W15" s="254"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="246">
+        <v>10316</v>
+      </c>
+      <c r="B16" s="237" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" s="237" t="s">
+        <v>401</v>
+      </c>
+      <c r="D16" s="237">
+        <v>1110375</v>
+      </c>
+      <c r="E16" s="237">
+        <v>1</v>
+      </c>
+      <c r="F16" s="237">
+        <v>6</v>
+      </c>
+      <c r="G16" s="237" t="s">
+        <v>402</v>
+      </c>
+      <c r="H16" s="237">
+        <v>1110388</v>
+      </c>
+      <c r="I16" s="255">
+        <v>11</v>
+      </c>
+      <c r="J16" s="237">
+        <v>6</v>
+      </c>
+      <c r="K16" s="159" t="s">
+        <v>403</v>
+      </c>
+      <c r="L16" s="237">
+        <v>1110373</v>
+      </c>
+      <c r="M16" s="159">
+        <v>1</v>
+      </c>
+      <c r="N16" s="160">
+        <v>0.85</v>
+      </c>
+      <c r="O16" s="237">
+        <v>6</v>
+      </c>
+      <c r="P16" s="237" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q16" s="237">
+        <v>27</v>
+      </c>
+      <c r="R16" s="237" t="s">
+        <v>383</v>
+      </c>
+      <c r="S16" s="251">
+        <v>45134</v>
+      </c>
+      <c r="T16" s="251">
+        <v>45148</v>
+      </c>
+      <c r="U16" s="237" t="s">
+        <v>385</v>
+      </c>
+      <c r="V16" s="237">
+        <v>120</v>
+      </c>
+      <c r="W16" s="237" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="247"/>
+      <c r="B17" s="238"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="238"/>
+      <c r="F17" s="238"/>
+      <c r="G17" s="238"/>
+      <c r="H17" s="238"/>
+      <c r="I17" s="256"/>
+      <c r="J17" s="238"/>
+      <c r="K17" s="149" t="s">
+        <v>403</v>
+      </c>
+      <c r="L17" s="238"/>
+      <c r="M17" s="149">
+        <v>2</v>
+      </c>
+      <c r="N17" s="161">
+        <v>0.06</v>
+      </c>
+      <c r="O17" s="238"/>
+      <c r="P17" s="238"/>
+      <c r="Q17" s="238"/>
+      <c r="R17" s="238"/>
+      <c r="S17" s="252"/>
+      <c r="T17" s="252"/>
+      <c r="U17" s="238"/>
+      <c r="V17" s="238"/>
+      <c r="W17" s="238"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="247"/>
+      <c r="B18" s="238"/>
+      <c r="C18" s="238"/>
+      <c r="D18" s="238"/>
+      <c r="E18" s="238"/>
+      <c r="F18" s="238"/>
+      <c r="G18" s="238"/>
+      <c r="H18" s="238"/>
+      <c r="I18" s="256"/>
+      <c r="J18" s="238"/>
+      <c r="K18" s="162" t="s">
+        <v>403</v>
+      </c>
+      <c r="L18" s="238"/>
+      <c r="M18" s="162">
+        <v>3</v>
+      </c>
+      <c r="N18" s="163">
+        <v>0.04</v>
+      </c>
+      <c r="O18" s="238"/>
+      <c r="P18" s="238"/>
+      <c r="Q18" s="238"/>
+      <c r="R18" s="238"/>
+      <c r="S18" s="252"/>
+      <c r="T18" s="252"/>
+      <c r="U18" s="238"/>
+      <c r="V18" s="238"/>
+      <c r="W18" s="238"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="247"/>
+      <c r="B19" s="238"/>
+      <c r="C19" s="238"/>
+      <c r="D19" s="238"/>
+      <c r="E19" s="238"/>
+      <c r="F19" s="238"/>
+      <c r="G19" s="238"/>
+      <c r="H19" s="238"/>
+      <c r="I19" s="256"/>
+      <c r="J19" s="238"/>
+      <c r="K19" s="162" t="s">
+        <v>403</v>
+      </c>
+      <c r="L19" s="238"/>
+      <c r="M19" s="162">
+        <v>4</v>
+      </c>
+      <c r="N19" s="163">
+        <v>0.03</v>
+      </c>
+      <c r="O19" s="238"/>
+      <c r="P19" s="238"/>
+      <c r="Q19" s="238"/>
+      <c r="R19" s="238"/>
+      <c r="S19" s="252"/>
+      <c r="T19" s="252"/>
+      <c r="U19" s="238"/>
+      <c r="V19" s="238"/>
+      <c r="W19" s="238"/>
+    </row>
+    <row r="20" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="247"/>
+      <c r="B20" s="238"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="238"/>
+      <c r="E20" s="238"/>
+      <c r="F20" s="238"/>
+      <c r="G20" s="241"/>
+      <c r="H20" s="239"/>
+      <c r="I20" s="256"/>
+      <c r="J20" s="242"/>
+      <c r="K20" s="162" t="s">
+        <v>403</v>
+      </c>
+      <c r="L20" s="239"/>
+      <c r="M20" s="158">
+        <v>5</v>
+      </c>
+      <c r="N20" s="164">
+        <v>0.02</v>
+      </c>
+      <c r="O20" s="241"/>
+      <c r="P20" s="238"/>
+      <c r="Q20" s="238"/>
+      <c r="R20" s="238"/>
+      <c r="S20" s="252"/>
+      <c r="T20" s="252"/>
+      <c r="U20" s="238"/>
+      <c r="V20" s="238"/>
+      <c r="W20" s="238"/>
+    </row>
+    <row r="21" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="248"/>
+      <c r="B21" s="239"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="239"/>
+      <c r="E21" s="239"/>
+      <c r="F21" s="239"/>
+      <c r="G21" s="165" t="s">
+        <v>399</v>
+      </c>
+      <c r="H21" s="166">
+        <v>952</v>
+      </c>
+      <c r="I21" s="167">
+        <v>165000</v>
+      </c>
+      <c r="J21" s="168">
+        <v>6</v>
+      </c>
+      <c r="K21" s="169" t="s">
+        <v>381</v>
+      </c>
+      <c r="L21" s="166" t="s">
+        <v>381</v>
+      </c>
+      <c r="M21" s="166" t="s">
+        <v>381</v>
+      </c>
+      <c r="N21" s="166" t="s">
+        <v>381</v>
+      </c>
+      <c r="O21" s="165" t="s">
+        <v>381</v>
+      </c>
+      <c r="P21" s="239"/>
+      <c r="Q21" s="239"/>
+      <c r="R21" s="239"/>
+      <c r="S21" s="253"/>
+      <c r="T21" s="253"/>
+      <c r="U21" s="239"/>
+      <c r="V21" s="239"/>
+      <c r="W21" s="239"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="247">
+        <v>70021</v>
+      </c>
+      <c r="B22" s="244" t="s">
+        <v>404</v>
+      </c>
+      <c r="C22" s="152" t="s">
+        <v>405</v>
+      </c>
+      <c r="D22" s="152">
+        <v>980</v>
+      </c>
+      <c r="E22" s="170">
+        <v>2000</v>
+      </c>
+      <c r="F22" s="152">
+        <v>7</v>
+      </c>
+      <c r="G22" s="152" t="s">
+        <v>381</v>
+      </c>
+      <c r="H22" s="152" t="s">
+        <v>381</v>
+      </c>
+      <c r="I22" s="152" t="s">
+        <v>381</v>
+      </c>
+      <c r="J22" s="146" t="s">
+        <v>381</v>
+      </c>
+      <c r="K22" s="238" t="s">
+        <v>381</v>
+      </c>
+      <c r="L22" s="238" t="s">
+        <v>381</v>
+      </c>
+      <c r="M22" s="238" t="s">
+        <v>381</v>
+      </c>
+      <c r="N22" s="238" t="s">
+        <v>381</v>
+      </c>
+      <c r="O22" s="238" t="s">
+        <v>381</v>
+      </c>
+      <c r="P22" s="238" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q22" s="238">
+        <v>8</v>
+      </c>
+      <c r="R22" s="238" t="s">
+        <v>383</v>
+      </c>
+      <c r="S22" s="250">
+        <v>45134</v>
+      </c>
+      <c r="T22" s="250">
+        <v>45148</v>
+      </c>
+      <c r="U22" s="238" t="s">
+        <v>407</v>
+      </c>
+      <c r="V22" s="238">
+        <v>0</v>
+      </c>
+      <c r="W22" s="238" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="247"/>
+      <c r="B23" s="244"/>
+      <c r="C23" s="238" t="s">
+        <v>409</v>
+      </c>
+      <c r="D23" s="238">
+        <v>1110269</v>
+      </c>
+      <c r="E23" s="238">
+        <v>1</v>
+      </c>
+      <c r="F23" s="238">
+        <v>6</v>
+      </c>
+      <c r="G23" s="152" t="s">
+        <v>410</v>
+      </c>
+      <c r="H23" s="152">
+        <v>630301</v>
+      </c>
+      <c r="I23" s="152">
+        <v>1</v>
+      </c>
+      <c r="J23" s="149">
+        <v>6</v>
+      </c>
+      <c r="K23" s="238"/>
+      <c r="L23" s="238"/>
+      <c r="M23" s="238"/>
+      <c r="N23" s="238"/>
+      <c r="O23" s="238"/>
+      <c r="P23" s="238"/>
+      <c r="Q23" s="238"/>
+      <c r="R23" s="238"/>
+      <c r="S23" s="244"/>
+      <c r="T23" s="244"/>
+      <c r="U23" s="238"/>
+      <c r="V23" s="238"/>
+      <c r="W23" s="238"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="247"/>
+      <c r="B24" s="244"/>
+      <c r="C24" s="238"/>
+      <c r="D24" s="238"/>
+      <c r="E24" s="238"/>
+      <c r="F24" s="238"/>
+      <c r="G24" s="152" t="s">
+        <v>411</v>
+      </c>
+      <c r="H24" s="152">
+        <v>660301</v>
+      </c>
+      <c r="I24" s="152">
+        <v>2</v>
+      </c>
+      <c r="J24" s="152">
+        <v>6</v>
+      </c>
+      <c r="K24" s="238"/>
+      <c r="L24" s="238"/>
+      <c r="M24" s="238"/>
+      <c r="N24" s="238"/>
+      <c r="O24" s="238"/>
+      <c r="P24" s="238"/>
+      <c r="Q24" s="238"/>
+      <c r="R24" s="238"/>
+      <c r="S24" s="244"/>
+      <c r="T24" s="244"/>
+      <c r="U24" s="238"/>
+      <c r="V24" s="238"/>
+      <c r="W24" s="238"/>
+    </row>
+    <row r="25" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="248"/>
+      <c r="B25" s="245"/>
+      <c r="C25" s="239"/>
+      <c r="D25" s="239"/>
+      <c r="E25" s="239"/>
+      <c r="F25" s="239"/>
+      <c r="G25" s="165" t="s">
+        <v>412</v>
+      </c>
+      <c r="H25" s="165">
+        <v>1110204</v>
+      </c>
+      <c r="I25" s="165">
+        <v>1</v>
+      </c>
+      <c r="J25" s="165">
+        <v>6</v>
+      </c>
+      <c r="K25" s="239"/>
+      <c r="L25" s="239"/>
+      <c r="M25" s="239"/>
+      <c r="N25" s="239"/>
+      <c r="O25" s="239"/>
+      <c r="P25" s="239"/>
+      <c r="Q25" s="239"/>
+      <c r="R25" s="239"/>
+      <c r="S25" s="245"/>
+      <c r="T25" s="245"/>
+      <c r="U25" s="239"/>
+      <c r="V25" s="239"/>
+      <c r="W25" s="239"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="246">
+        <v>70026</v>
+      </c>
+      <c r="B26" s="249" t="s">
+        <v>413</v>
+      </c>
+      <c r="C26" s="152" t="s">
+        <v>405</v>
+      </c>
+      <c r="D26" s="152">
+        <v>980</v>
+      </c>
+      <c r="E26" s="170">
+        <v>4000</v>
+      </c>
+      <c r="F26" s="159">
+        <v>7</v>
+      </c>
+      <c r="G26" s="159" t="s">
+        <v>381</v>
+      </c>
+      <c r="H26" s="159" t="s">
+        <v>381</v>
+      </c>
+      <c r="I26" s="159" t="s">
+        <v>381</v>
+      </c>
+      <c r="J26" s="152" t="s">
+        <v>381</v>
+      </c>
+      <c r="K26" s="237" t="s">
+        <v>381</v>
+      </c>
+      <c r="L26" s="237" t="s">
+        <v>381</v>
+      </c>
+      <c r="M26" s="237" t="s">
+        <v>381</v>
+      </c>
+      <c r="N26" s="237" t="s">
+        <v>381</v>
+      </c>
+      <c r="O26" s="237" t="s">
+        <v>381</v>
+      </c>
+      <c r="P26" s="237" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q26" s="237">
+        <v>9</v>
+      </c>
+      <c r="R26" s="237" t="s">
+        <v>383</v>
+      </c>
+      <c r="S26" s="243">
+        <v>45134</v>
+      </c>
+      <c r="T26" s="243">
+        <v>45148</v>
+      </c>
+      <c r="U26" s="237" t="s">
+        <v>414</v>
+      </c>
+      <c r="V26" s="237">
+        <v>0</v>
+      </c>
+      <c r="W26" s="237" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="247"/>
+      <c r="B27" s="244"/>
+      <c r="C27" s="238" t="s">
+        <v>415</v>
+      </c>
+      <c r="D27" s="238">
+        <v>1110299</v>
+      </c>
+      <c r="E27" s="238">
+        <v>1</v>
+      </c>
+      <c r="F27" s="240">
+        <v>6</v>
+      </c>
+      <c r="G27" s="149" t="s">
+        <v>410</v>
+      </c>
+      <c r="H27" s="149">
+        <v>630301</v>
+      </c>
+      <c r="I27" s="149">
+        <v>4</v>
+      </c>
+      <c r="J27" s="152">
+        <v>6</v>
+      </c>
+      <c r="K27" s="238"/>
+      <c r="L27" s="238"/>
+      <c r="M27" s="238"/>
+      <c r="N27" s="238"/>
+      <c r="O27" s="238"/>
+      <c r="P27" s="238"/>
+      <c r="Q27" s="238"/>
+      <c r="R27" s="238"/>
+      <c r="S27" s="244"/>
+      <c r="T27" s="244"/>
+      <c r="U27" s="238"/>
+      <c r="V27" s="238"/>
+      <c r="W27" s="238"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="247"/>
+      <c r="B28" s="244"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="238"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="152" t="s">
+        <v>411</v>
+      </c>
+      <c r="H28" s="152">
+        <v>660301</v>
+      </c>
+      <c r="I28" s="152">
+        <v>2</v>
+      </c>
+      <c r="J28" s="152">
+        <v>6</v>
+      </c>
+      <c r="K28" s="238"/>
+      <c r="L28" s="238"/>
+      <c r="M28" s="238"/>
+      <c r="N28" s="238"/>
+      <c r="O28" s="238"/>
+      <c r="P28" s="238"/>
+      <c r="Q28" s="238"/>
+      <c r="R28" s="238"/>
+      <c r="S28" s="244"/>
+      <c r="T28" s="244"/>
+      <c r="U28" s="238"/>
+      <c r="V28" s="238"/>
+      <c r="W28" s="238"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="247"/>
+      <c r="B29" s="244"/>
+      <c r="C29" s="238"/>
+      <c r="D29" s="238"/>
+      <c r="E29" s="238"/>
+      <c r="F29" s="238"/>
+      <c r="G29" s="152" t="s">
+        <v>412</v>
+      </c>
+      <c r="H29" s="152">
+        <v>1110204</v>
+      </c>
+      <c r="I29" s="152">
+        <v>2</v>
+      </c>
+      <c r="J29" s="152">
+        <v>6</v>
+      </c>
+      <c r="K29" s="241"/>
+      <c r="L29" s="241"/>
+      <c r="M29" s="241"/>
+      <c r="N29" s="241"/>
+      <c r="O29" s="241"/>
+      <c r="P29" s="238"/>
+      <c r="Q29" s="238"/>
+      <c r="R29" s="238"/>
+      <c r="S29" s="244"/>
+      <c r="T29" s="244"/>
+      <c r="U29" s="238"/>
+      <c r="V29" s="238"/>
+      <c r="W29" s="238"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="247"/>
+      <c r="B30" s="244"/>
+      <c r="C30" s="238"/>
+      <c r="D30" s="238"/>
+      <c r="E30" s="238"/>
+      <c r="F30" s="238"/>
+      <c r="G30" s="238" t="s">
+        <v>416</v>
+      </c>
+      <c r="H30" s="238">
+        <v>1110280</v>
+      </c>
+      <c r="I30" s="238">
+        <v>1</v>
+      </c>
+      <c r="J30" s="238">
+        <v>7</v>
+      </c>
+      <c r="K30" s="152" t="s">
+        <v>417</v>
+      </c>
+      <c r="L30" s="152">
+        <v>304</v>
+      </c>
+      <c r="M30" s="152">
+        <v>1</v>
+      </c>
+      <c r="N30" s="171">
+        <v>0.995</v>
+      </c>
+      <c r="O30" s="152">
+        <v>6</v>
+      </c>
+      <c r="P30" s="238"/>
+      <c r="Q30" s="238"/>
+      <c r="R30" s="238"/>
+      <c r="S30" s="244"/>
+      <c r="T30" s="244"/>
+      <c r="U30" s="238"/>
+      <c r="V30" s="238"/>
+      <c r="W30" s="238"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="247"/>
+      <c r="B31" s="244"/>
+      <c r="C31" s="238"/>
+      <c r="D31" s="238"/>
+      <c r="E31" s="238"/>
+      <c r="F31" s="238"/>
+      <c r="G31" s="241"/>
+      <c r="H31" s="241"/>
+      <c r="I31" s="241"/>
+      <c r="J31" s="242"/>
+      <c r="K31" s="152" t="s">
+        <v>418</v>
+      </c>
+      <c r="L31" s="152">
+        <v>7203</v>
+      </c>
+      <c r="M31" s="152">
+        <v>1</v>
+      </c>
+      <c r="N31" s="171">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O31" s="152">
+        <v>7</v>
+      </c>
+      <c r="P31" s="238"/>
+      <c r="Q31" s="238"/>
+      <c r="R31" s="238"/>
+      <c r="S31" s="244"/>
+      <c r="T31" s="244"/>
+      <c r="U31" s="238"/>
+      <c r="V31" s="238"/>
+      <c r="W31" s="238"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="247"/>
+      <c r="B32" s="244"/>
+      <c r="C32" s="238"/>
+      <c r="D32" s="238"/>
+      <c r="E32" s="238"/>
+      <c r="F32" s="238"/>
+      <c r="G32" s="238" t="s">
+        <v>419</v>
+      </c>
+      <c r="H32" s="238">
+        <v>1110207</v>
+      </c>
+      <c r="I32" s="238">
+        <v>1</v>
+      </c>
+      <c r="J32" s="238">
+        <v>6</v>
+      </c>
+      <c r="K32" s="152" t="s">
+        <v>420</v>
+      </c>
+      <c r="L32" s="152">
+        <v>303</v>
+      </c>
+      <c r="M32" s="152">
+        <v>1</v>
+      </c>
+      <c r="N32" s="171">
+        <v>0.9</v>
+      </c>
+      <c r="O32" s="152">
+        <v>6</v>
+      </c>
+      <c r="P32" s="238"/>
+      <c r="Q32" s="238"/>
+      <c r="R32" s="238"/>
+      <c r="S32" s="244"/>
+      <c r="T32" s="244"/>
+      <c r="U32" s="238"/>
+      <c r="V32" s="238"/>
+      <c r="W32" s="238"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="247"/>
+      <c r="B33" s="244"/>
+      <c r="C33" s="238"/>
+      <c r="D33" s="238"/>
+      <c r="E33" s="238"/>
+      <c r="F33" s="238"/>
+      <c r="G33" s="242"/>
+      <c r="H33" s="241"/>
+      <c r="I33" s="241"/>
+      <c r="J33" s="242"/>
+      <c r="K33" s="152" t="s">
+        <v>421</v>
+      </c>
+      <c r="L33" s="152">
+        <v>333</v>
+      </c>
+      <c r="M33" s="152">
+        <v>1</v>
+      </c>
+      <c r="N33" s="171">
+        <v>0.1</v>
+      </c>
+      <c r="O33" s="152">
+        <v>6</v>
+      </c>
+      <c r="P33" s="238"/>
+      <c r="Q33" s="238"/>
+      <c r="R33" s="238"/>
+      <c r="S33" s="244"/>
+      <c r="T33" s="244"/>
+      <c r="U33" s="238"/>
+      <c r="V33" s="238"/>
+      <c r="W33" s="238"/>
+    </row>
+    <row r="34" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="248"/>
+      <c r="B34" s="245"/>
+      <c r="C34" s="239"/>
+      <c r="D34" s="239"/>
+      <c r="E34" s="239"/>
+      <c r="F34" s="239"/>
+      <c r="G34" s="165" t="s">
+        <v>422</v>
+      </c>
+      <c r="H34" s="165">
+        <v>600017</v>
+      </c>
+      <c r="I34" s="165">
+        <v>10</v>
+      </c>
+      <c r="J34" s="165">
+        <v>6</v>
+      </c>
+      <c r="K34" s="165" t="s">
+        <v>381</v>
+      </c>
+      <c r="L34" s="165" t="s">
+        <v>381</v>
+      </c>
+      <c r="M34" s="165" t="s">
+        <v>381</v>
+      </c>
+      <c r="N34" s="165" t="s">
+        <v>381</v>
+      </c>
+      <c r="O34" s="165" t="s">
+        <v>381</v>
+      </c>
+      <c r="P34" s="239"/>
+      <c r="Q34" s="239"/>
+      <c r="R34" s="239"/>
+      <c r="S34" s="245"/>
+      <c r="T34" s="245"/>
+      <c r="U34" s="239"/>
+      <c r="V34" s="239"/>
+      <c r="W34" s="239"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="213">
+        <v>70025</v>
+      </c>
+      <c r="B35" s="203" t="s">
+        <v>423</v>
+      </c>
+      <c r="C35" s="172" t="s">
+        <v>405</v>
+      </c>
+      <c r="D35" s="172">
+        <v>980</v>
+      </c>
+      <c r="E35" s="173">
+        <v>5500</v>
+      </c>
+      <c r="F35" s="172">
+        <v>6</v>
+      </c>
+      <c r="G35" s="172" t="s">
+        <v>381</v>
+      </c>
+      <c r="H35" s="172" t="s">
+        <v>381</v>
+      </c>
+      <c r="I35" s="172" t="s">
+        <v>381</v>
+      </c>
+      <c r="J35" s="172" t="s">
+        <v>381</v>
+      </c>
+      <c r="K35" s="203" t="s">
+        <v>381</v>
+      </c>
+      <c r="L35" s="203" t="s">
+        <v>381</v>
+      </c>
+      <c r="M35" s="203" t="s">
+        <v>381</v>
+      </c>
+      <c r="N35" s="203" t="s">
+        <v>381</v>
+      </c>
+      <c r="O35" s="232" t="s">
+        <v>381</v>
+      </c>
+      <c r="P35" s="234" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q35" s="203">
+        <v>10</v>
+      </c>
+      <c r="R35" s="203" t="s">
+        <v>383</v>
+      </c>
+      <c r="S35" s="231">
+        <v>45134</v>
+      </c>
+      <c r="T35" s="231">
+        <v>45148</v>
+      </c>
+      <c r="U35" s="203" t="s">
+        <v>424</v>
+      </c>
+      <c r="V35" s="203">
+        <v>0</v>
+      </c>
+      <c r="W35" s="203" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="213"/>
+      <c r="B36" s="203"/>
+      <c r="C36" s="203" t="s">
+        <v>426</v>
+      </c>
+      <c r="D36" s="203">
+        <v>1110298</v>
+      </c>
+      <c r="E36" s="203">
+        <v>1</v>
+      </c>
+      <c r="F36" s="203">
+        <v>6</v>
+      </c>
+      <c r="G36" s="172" t="s">
+        <v>410</v>
+      </c>
+      <c r="H36" s="172">
+        <v>630301</v>
+      </c>
+      <c r="I36" s="172">
+        <v>5</v>
+      </c>
+      <c r="J36" s="172">
+        <v>6</v>
+      </c>
+      <c r="K36" s="203"/>
+      <c r="L36" s="203"/>
+      <c r="M36" s="203"/>
+      <c r="N36" s="203"/>
+      <c r="O36" s="232"/>
+      <c r="P36" s="234"/>
+      <c r="Q36" s="203"/>
+      <c r="R36" s="203"/>
+      <c r="S36" s="203"/>
+      <c r="T36" s="203"/>
+      <c r="U36" s="203"/>
+      <c r="V36" s="203"/>
+      <c r="W36" s="203"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="213"/>
+      <c r="B37" s="203"/>
+      <c r="C37" s="203"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="172" t="s">
+        <v>411</v>
+      </c>
+      <c r="H37" s="172">
+        <v>660301</v>
+      </c>
+      <c r="I37" s="172">
+        <v>5</v>
+      </c>
+      <c r="J37" s="172">
+        <v>6</v>
+      </c>
+      <c r="K37" s="203"/>
+      <c r="L37" s="203"/>
+      <c r="M37" s="203"/>
+      <c r="N37" s="203"/>
+      <c r="O37" s="232"/>
+      <c r="P37" s="234"/>
+      <c r="Q37" s="203"/>
+      <c r="R37" s="203"/>
+      <c r="S37" s="203"/>
+      <c r="T37" s="203"/>
+      <c r="U37" s="203"/>
+      <c r="V37" s="203"/>
+      <c r="W37" s="203"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" s="213"/>
+      <c r="B38" s="203"/>
+      <c r="C38" s="203"/>
+      <c r="D38" s="203"/>
+      <c r="E38" s="203"/>
+      <c r="F38" s="203"/>
+      <c r="G38" s="172" t="s">
+        <v>412</v>
+      </c>
+      <c r="H38" s="172">
+        <v>1110204</v>
+      </c>
+      <c r="I38" s="172">
+        <v>5</v>
+      </c>
+      <c r="J38" s="140">
+        <v>6</v>
+      </c>
+      <c r="K38" s="221"/>
+      <c r="L38" s="221"/>
+      <c r="M38" s="221"/>
+      <c r="N38" s="221"/>
+      <c r="O38" s="233"/>
+      <c r="P38" s="234"/>
+      <c r="Q38" s="203"/>
+      <c r="R38" s="203"/>
+      <c r="S38" s="203"/>
+      <c r="T38" s="203"/>
+      <c r="U38" s="203"/>
+      <c r="V38" s="203"/>
+      <c r="W38" s="203"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="213"/>
+      <c r="B39" s="203"/>
+      <c r="C39" s="203"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="203"/>
+      <c r="G39" s="203" t="s">
+        <v>416</v>
+      </c>
+      <c r="H39" s="203">
+        <v>1110280</v>
+      </c>
+      <c r="I39" s="203">
+        <v>3</v>
+      </c>
+      <c r="J39" s="222">
+        <v>7</v>
+      </c>
+      <c r="K39" s="172" t="s">
+        <v>417</v>
+      </c>
+      <c r="L39" s="172">
+        <v>304</v>
+      </c>
+      <c r="M39" s="172">
+        <v>1</v>
+      </c>
+      <c r="N39" s="174">
+        <v>0.995</v>
+      </c>
+      <c r="O39" s="175">
+        <v>6</v>
+      </c>
+      <c r="P39" s="234"/>
+      <c r="Q39" s="203"/>
+      <c r="R39" s="203"/>
+      <c r="S39" s="203"/>
+      <c r="T39" s="203"/>
+      <c r="U39" s="203"/>
+      <c r="V39" s="203"/>
+      <c r="W39" s="203"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" s="213"/>
+      <c r="B40" s="203"/>
+      <c r="C40" s="203"/>
+      <c r="D40" s="203"/>
+      <c r="E40" s="203"/>
+      <c r="F40" s="203"/>
+      <c r="G40" s="236"/>
+      <c r="H40" s="236"/>
+      <c r="I40" s="236"/>
+      <c r="J40" s="221"/>
+      <c r="K40" s="172" t="s">
+        <v>418</v>
+      </c>
+      <c r="L40" s="172">
+        <v>7203</v>
+      </c>
+      <c r="M40" s="172">
+        <v>1</v>
+      </c>
+      <c r="N40" s="174">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O40" s="175">
+        <v>7</v>
+      </c>
+      <c r="P40" s="234"/>
+      <c r="Q40" s="203"/>
+      <c r="R40" s="203"/>
+      <c r="S40" s="203"/>
+      <c r="T40" s="203"/>
+      <c r="U40" s="203"/>
+      <c r="V40" s="203"/>
+      <c r="W40" s="203"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" s="213"/>
+      <c r="B41" s="203"/>
+      <c r="C41" s="203"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="203"/>
+      <c r="G41" s="203" t="s">
+        <v>419</v>
+      </c>
+      <c r="H41" s="203">
+        <v>1110207</v>
+      </c>
+      <c r="I41" s="203">
+        <v>3</v>
+      </c>
+      <c r="J41" s="224">
+        <v>6</v>
+      </c>
+      <c r="K41" s="131" t="s">
+        <v>420</v>
+      </c>
+      <c r="L41" s="176">
+        <v>303</v>
+      </c>
+      <c r="M41" s="176">
+        <v>1</v>
+      </c>
+      <c r="N41" s="177">
+        <v>0.9</v>
+      </c>
+      <c r="O41" s="175">
+        <v>6</v>
+      </c>
+      <c r="P41" s="234"/>
+      <c r="Q41" s="203"/>
+      <c r="R41" s="203"/>
+      <c r="S41" s="203"/>
+      <c r="T41" s="203"/>
+      <c r="U41" s="203"/>
+      <c r="V41" s="203"/>
+      <c r="W41" s="203"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" s="213"/>
+      <c r="B42" s="203"/>
+      <c r="C42" s="203"/>
+      <c r="D42" s="203"/>
+      <c r="E42" s="203"/>
+      <c r="F42" s="203"/>
+      <c r="G42" s="236"/>
+      <c r="H42" s="236"/>
+      <c r="I42" s="236"/>
+      <c r="J42" s="225"/>
+      <c r="K42" s="178" t="s">
+        <v>421</v>
+      </c>
+      <c r="L42" s="140">
+        <v>333</v>
+      </c>
+      <c r="M42" s="140">
+        <v>1</v>
+      </c>
+      <c r="N42" s="179">
+        <v>0.1</v>
+      </c>
+      <c r="O42" s="172">
+        <v>6</v>
+      </c>
+      <c r="P42" s="234"/>
+      <c r="Q42" s="203"/>
+      <c r="R42" s="203"/>
+      <c r="S42" s="203"/>
+      <c r="T42" s="203"/>
+      <c r="U42" s="203"/>
+      <c r="V42" s="203"/>
+      <c r="W42" s="203"/>
+    </row>
+    <row r="43" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="214"/>
+      <c r="B43" s="204"/>
+      <c r="C43" s="204"/>
+      <c r="D43" s="204"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="204"/>
+      <c r="G43" s="180" t="s">
+        <v>422</v>
+      </c>
+      <c r="H43" s="180">
+        <v>600017</v>
+      </c>
+      <c r="I43" s="180">
+        <v>10</v>
+      </c>
+      <c r="J43" s="180">
+        <v>6</v>
+      </c>
+      <c r="K43" s="181" t="s">
+        <v>381</v>
+      </c>
+      <c r="L43" s="181" t="s">
+        <v>381</v>
+      </c>
+      <c r="M43" s="181" t="s">
+        <v>381</v>
+      </c>
+      <c r="N43" s="181" t="s">
+        <v>381</v>
+      </c>
+      <c r="O43" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="P43" s="235"/>
+      <c r="Q43" s="204"/>
+      <c r="R43" s="204"/>
+      <c r="S43" s="204"/>
+      <c r="T43" s="204"/>
+      <c r="U43" s="204"/>
+      <c r="V43" s="204"/>
+      <c r="W43" s="204"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" s="226">
+        <v>10246</v>
+      </c>
+      <c r="B44" s="196" t="s">
+        <v>427</v>
+      </c>
+      <c r="C44" s="228" t="s">
+        <v>428</v>
+      </c>
+      <c r="D44" s="207">
+        <v>1110300</v>
+      </c>
+      <c r="E44" s="207">
+        <v>1</v>
+      </c>
+      <c r="F44" s="207">
+        <v>6</v>
+      </c>
+      <c r="G44" s="182" t="s">
+        <v>429</v>
+      </c>
+      <c r="H44" s="182">
+        <v>930</v>
+      </c>
+      <c r="I44" s="182">
+        <v>1</v>
+      </c>
+      <c r="J44" s="182">
+        <v>6</v>
+      </c>
+      <c r="K44" s="182" t="s">
+        <v>381</v>
+      </c>
+      <c r="L44" s="182" t="s">
+        <v>381</v>
+      </c>
+      <c r="M44" s="182" t="s">
+        <v>381</v>
+      </c>
+      <c r="N44" s="182" t="s">
+        <v>381</v>
+      </c>
+      <c r="O44" s="182" t="s">
+        <v>381</v>
+      </c>
+      <c r="P44" s="207" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q44" s="207">
+        <v>3</v>
+      </c>
+      <c r="R44" s="207" t="s">
+        <v>383</v>
+      </c>
+      <c r="S44" s="211">
+        <v>45134</v>
+      </c>
+      <c r="T44" s="211">
+        <v>45148</v>
+      </c>
+      <c r="U44" s="207" t="s">
+        <v>431</v>
+      </c>
+      <c r="V44" s="207">
+        <v>80</v>
+      </c>
+      <c r="W44" s="207" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A45" s="226"/>
+      <c r="B45" s="196"/>
+      <c r="C45" s="229"/>
+      <c r="D45" s="196"/>
+      <c r="E45" s="196"/>
+      <c r="F45" s="196"/>
+      <c r="G45" s="196" t="s">
+        <v>433</v>
+      </c>
+      <c r="H45" s="196">
+        <v>1110278</v>
+      </c>
+      <c r="I45" s="196">
+        <v>1</v>
+      </c>
+      <c r="J45" s="196">
+        <v>7</v>
+      </c>
+      <c r="K45" s="182" t="s">
+        <v>429</v>
+      </c>
+      <c r="L45" s="182">
+        <v>930</v>
+      </c>
+      <c r="M45" s="182">
+        <v>1</v>
+      </c>
+      <c r="N45" s="183">
+        <v>0.75</v>
+      </c>
+      <c r="O45" s="196">
+        <v>6</v>
+      </c>
+      <c r="P45" s="196"/>
+      <c r="Q45" s="196"/>
+      <c r="R45" s="196"/>
+      <c r="S45" s="196"/>
+      <c r="T45" s="196"/>
+      <c r="U45" s="196"/>
+      <c r="V45" s="196"/>
+      <c r="W45" s="196"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46" s="226"/>
+      <c r="B46" s="196"/>
+      <c r="C46" s="229"/>
+      <c r="D46" s="196"/>
+      <c r="E46" s="196"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="196"/>
+      <c r="H46" s="196"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="196"/>
+      <c r="K46" s="182" t="s">
+        <v>429</v>
+      </c>
+      <c r="L46" s="182">
+        <v>930</v>
+      </c>
+      <c r="M46" s="182">
+        <v>2</v>
+      </c>
+      <c r="N46" s="183">
+        <v>0.22</v>
+      </c>
+      <c r="O46" s="196"/>
+      <c r="P46" s="196"/>
+      <c r="Q46" s="196"/>
+      <c r="R46" s="196"/>
+      <c r="S46" s="196"/>
+      <c r="T46" s="196"/>
+      <c r="U46" s="196"/>
+      <c r="V46" s="196"/>
+      <c r="W46" s="196"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A47" s="226"/>
+      <c r="B47" s="196"/>
+      <c r="C47" s="229"/>
+      <c r="D47" s="196"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="196"/>
+      <c r="G47" s="196"/>
+      <c r="H47" s="196"/>
+      <c r="I47" s="196"/>
+      <c r="J47" s="196"/>
+      <c r="K47" s="182" t="s">
+        <v>429</v>
+      </c>
+      <c r="L47" s="182">
+        <v>930</v>
+      </c>
+      <c r="M47" s="182">
+        <v>3</v>
+      </c>
+      <c r="N47" s="183">
+        <v>0.02</v>
+      </c>
+      <c r="O47" s="196"/>
+      <c r="P47" s="196"/>
+      <c r="Q47" s="196"/>
+      <c r="R47" s="196"/>
+      <c r="S47" s="196"/>
+      <c r="T47" s="196"/>
+      <c r="U47" s="196"/>
+      <c r="V47" s="196"/>
+      <c r="W47" s="196"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A48" s="226"/>
+      <c r="B48" s="196"/>
+      <c r="C48" s="229"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="196"/>
+      <c r="G48" s="223"/>
+      <c r="H48" s="223"/>
+      <c r="I48" s="223"/>
+      <c r="J48" s="208"/>
+      <c r="K48" s="182" t="s">
+        <v>429</v>
+      </c>
+      <c r="L48" s="182">
+        <v>930</v>
+      </c>
+      <c r="M48" s="182">
+        <v>4</v>
+      </c>
+      <c r="N48" s="183">
+        <v>0.01</v>
+      </c>
+      <c r="O48" s="208"/>
+      <c r="P48" s="196"/>
+      <c r="Q48" s="196"/>
+      <c r="R48" s="196"/>
+      <c r="S48" s="196"/>
+      <c r="T48" s="196"/>
+      <c r="U48" s="196"/>
+      <c r="V48" s="196"/>
+      <c r="W48" s="196"/>
+    </row>
+    <row r="49" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="227"/>
+      <c r="B49" s="198"/>
+      <c r="C49" s="230"/>
+      <c r="D49" s="198"/>
+      <c r="E49" s="198"/>
+      <c r="F49" s="198"/>
+      <c r="G49" s="144" t="s">
+        <v>410</v>
+      </c>
+      <c r="H49" s="182">
+        <v>630301</v>
+      </c>
+      <c r="I49" s="144">
+        <v>5</v>
+      </c>
+      <c r="J49" s="144">
+        <v>6</v>
+      </c>
+      <c r="K49" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="L49" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="M49" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="N49" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="O49" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="P49" s="196"/>
+      <c r="Q49" s="198"/>
+      <c r="R49" s="198"/>
+      <c r="S49" s="198"/>
+      <c r="T49" s="198"/>
+      <c r="U49" s="198"/>
+      <c r="V49" s="198"/>
+      <c r="W49" s="198"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A50" s="213">
+        <v>10247</v>
+      </c>
+      <c r="B50" s="203" t="s">
+        <v>434</v>
+      </c>
+      <c r="C50" s="202" t="s">
+        <v>435</v>
+      </c>
+      <c r="D50" s="202">
+        <v>1110301</v>
+      </c>
+      <c r="E50" s="203">
+        <v>1</v>
+      </c>
+      <c r="F50" s="202">
+        <v>6</v>
+      </c>
+      <c r="G50" s="172" t="s">
+        <v>436</v>
+      </c>
+      <c r="H50" s="184">
+        <v>935</v>
+      </c>
+      <c r="I50" s="172">
+        <v>1</v>
+      </c>
+      <c r="J50" s="172">
+        <v>6</v>
+      </c>
+      <c r="K50" s="172" t="s">
+        <v>381</v>
+      </c>
+      <c r="L50" s="172" t="s">
+        <v>381</v>
+      </c>
+      <c r="M50" s="172" t="s">
+        <v>381</v>
+      </c>
+      <c r="N50" s="172" t="s">
+        <v>381</v>
+      </c>
+      <c r="O50" s="136" t="s">
+        <v>381</v>
+      </c>
+      <c r="P50" s="202" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q50" s="202">
+        <v>4</v>
+      </c>
+      <c r="R50" s="202" t="s">
+        <v>383</v>
+      </c>
+      <c r="S50" s="218">
+        <v>45134</v>
+      </c>
+      <c r="T50" s="218">
+        <v>45148</v>
+      </c>
+      <c r="U50" s="202" t="s">
+        <v>431</v>
+      </c>
+      <c r="V50" s="202">
+        <v>80</v>
+      </c>
+      <c r="W50" s="202" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A51" s="213"/>
+      <c r="B51" s="203"/>
+      <c r="C51" s="203"/>
+      <c r="D51" s="203"/>
+      <c r="E51" s="203"/>
+      <c r="F51" s="203"/>
+      <c r="G51" s="203" t="s">
+        <v>437</v>
+      </c>
+      <c r="H51" s="203">
+        <v>1110279</v>
+      </c>
+      <c r="I51" s="203">
+        <v>1</v>
+      </c>
+      <c r="J51" s="203">
+        <v>7</v>
+      </c>
+      <c r="K51" s="172" t="s">
+        <v>436</v>
+      </c>
+      <c r="L51" s="172">
+        <v>935</v>
+      </c>
+      <c r="M51" s="172">
+        <v>1</v>
+      </c>
+      <c r="N51" s="185">
+        <v>0.75</v>
+      </c>
+      <c r="O51" s="222">
+        <v>6</v>
+      </c>
+      <c r="P51" s="203"/>
+      <c r="Q51" s="203"/>
+      <c r="R51" s="203"/>
+      <c r="S51" s="219"/>
+      <c r="T51" s="219"/>
+      <c r="U51" s="203"/>
+      <c r="V51" s="203"/>
+      <c r="W51" s="203"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A52" s="213"/>
+      <c r="B52" s="203"/>
+      <c r="C52" s="203"/>
+      <c r="D52" s="203"/>
+      <c r="E52" s="203"/>
+      <c r="F52" s="203"/>
+      <c r="G52" s="203"/>
+      <c r="H52" s="203"/>
+      <c r="I52" s="203"/>
+      <c r="J52" s="203"/>
+      <c r="K52" s="172" t="s">
+        <v>436</v>
+      </c>
+      <c r="L52" s="172">
+        <v>935</v>
+      </c>
+      <c r="M52" s="172">
+        <v>2</v>
+      </c>
+      <c r="N52" s="185">
+        <v>0.22</v>
+      </c>
+      <c r="O52" s="203"/>
+      <c r="P52" s="203"/>
+      <c r="Q52" s="203"/>
+      <c r="R52" s="203"/>
+      <c r="S52" s="219"/>
+      <c r="T52" s="219"/>
+      <c r="U52" s="203"/>
+      <c r="V52" s="203"/>
+      <c r="W52" s="203"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A53" s="213"/>
+      <c r="B53" s="203"/>
+      <c r="C53" s="203"/>
+      <c r="D53" s="203"/>
+      <c r="E53" s="203"/>
+      <c r="F53" s="203"/>
+      <c r="G53" s="203"/>
+      <c r="H53" s="203"/>
+      <c r="I53" s="203"/>
+      <c r="J53" s="203"/>
+      <c r="K53" s="172" t="s">
+        <v>436</v>
+      </c>
+      <c r="L53" s="172">
+        <v>935</v>
+      </c>
+      <c r="M53" s="172">
+        <v>3</v>
+      </c>
+      <c r="N53" s="185">
+        <v>0.02</v>
+      </c>
+      <c r="O53" s="203"/>
+      <c r="P53" s="203"/>
+      <c r="Q53" s="203"/>
+      <c r="R53" s="203"/>
+      <c r="S53" s="219"/>
+      <c r="T53" s="219"/>
+      <c r="U53" s="203"/>
+      <c r="V53" s="203"/>
+      <c r="W53" s="203"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A54" s="213"/>
+      <c r="B54" s="203"/>
+      <c r="C54" s="203"/>
+      <c r="D54" s="203"/>
+      <c r="E54" s="203"/>
+      <c r="F54" s="203"/>
+      <c r="G54" s="221"/>
+      <c r="H54" s="221"/>
+      <c r="I54" s="221"/>
+      <c r="J54" s="221"/>
+      <c r="K54" s="172" t="s">
+        <v>436</v>
+      </c>
+      <c r="L54" s="172">
+        <v>935</v>
+      </c>
+      <c r="M54" s="172">
+        <v>4</v>
+      </c>
+      <c r="N54" s="185">
+        <v>0.01</v>
+      </c>
+      <c r="O54" s="221"/>
+      <c r="P54" s="203"/>
+      <c r="Q54" s="203"/>
+      <c r="R54" s="203"/>
+      <c r="S54" s="219"/>
+      <c r="T54" s="219"/>
+      <c r="U54" s="203"/>
+      <c r="V54" s="203"/>
+      <c r="W54" s="203"/>
+    </row>
+    <row r="55" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="214"/>
+      <c r="B55" s="204"/>
+      <c r="C55" s="204"/>
+      <c r="D55" s="204"/>
+      <c r="E55" s="204"/>
+      <c r="F55" s="204"/>
+      <c r="G55" s="180" t="s">
+        <v>411</v>
+      </c>
+      <c r="H55" s="180">
+        <v>660301</v>
+      </c>
+      <c r="I55" s="180">
+        <v>5</v>
+      </c>
+      <c r="J55" s="180">
+        <v>6</v>
+      </c>
+      <c r="K55" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="L55" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="M55" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="N55" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="O55" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="P55" s="204"/>
+      <c r="Q55" s="204"/>
+      <c r="R55" s="204"/>
+      <c r="S55" s="220"/>
+      <c r="T55" s="220"/>
+      <c r="U55" s="204"/>
+      <c r="V55" s="204"/>
+      <c r="W55" s="204"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A56" s="216">
+        <v>10317</v>
+      </c>
+      <c r="B56" s="207" t="s">
+        <v>438</v>
+      </c>
+      <c r="C56" s="207" t="s">
+        <v>439</v>
+      </c>
+      <c r="D56" s="207">
+        <v>1110376</v>
+      </c>
+      <c r="E56" s="207">
+        <v>1</v>
+      </c>
+      <c r="F56" s="207">
+        <v>6</v>
+      </c>
+      <c r="G56" s="182" t="s">
+        <v>440</v>
+      </c>
+      <c r="H56" s="182">
+        <v>1110191</v>
+      </c>
+      <c r="I56" s="182">
+        <v>1</v>
+      </c>
+      <c r="J56" s="182">
+        <v>6</v>
+      </c>
+      <c r="K56" s="207" t="s">
+        <v>381</v>
+      </c>
+      <c r="L56" s="207" t="s">
+        <v>381</v>
+      </c>
+      <c r="M56" s="207" t="s">
+        <v>381</v>
+      </c>
+      <c r="N56" s="207" t="s">
+        <v>381</v>
+      </c>
+      <c r="O56" s="207" t="s">
+        <v>381</v>
+      </c>
+      <c r="P56" s="207" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q56" s="207">
+        <v>28</v>
+      </c>
+      <c r="R56" s="207" t="s">
+        <v>383</v>
+      </c>
+      <c r="S56" s="211">
+        <v>45134</v>
+      </c>
+      <c r="T56" s="211">
+        <v>45148</v>
+      </c>
+      <c r="U56" s="207" t="s">
+        <v>441</v>
+      </c>
+      <c r="V56" s="199">
+        <v>900</v>
+      </c>
+      <c r="W56" s="207" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A57" s="205"/>
+      <c r="B57" s="196"/>
+      <c r="C57" s="196"/>
+      <c r="D57" s="196"/>
+      <c r="E57" s="196"/>
+      <c r="F57" s="196"/>
+      <c r="G57" s="182" t="s">
+        <v>442</v>
+      </c>
+      <c r="H57" s="182">
+        <v>2910</v>
+      </c>
+      <c r="I57" s="182">
+        <v>33</v>
+      </c>
+      <c r="J57" s="182">
+        <v>6</v>
+      </c>
+      <c r="K57" s="196"/>
+      <c r="L57" s="196"/>
+      <c r="M57" s="196"/>
+      <c r="N57" s="196"/>
+      <c r="O57" s="196"/>
+      <c r="P57" s="196"/>
+      <c r="Q57" s="196"/>
+      <c r="R57" s="196"/>
+      <c r="S57" s="196"/>
+      <c r="T57" s="196"/>
+      <c r="U57" s="196"/>
+      <c r="V57" s="200"/>
+      <c r="W57" s="196"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A58" s="205"/>
+      <c r="B58" s="196"/>
+      <c r="C58" s="196"/>
+      <c r="D58" s="196"/>
+      <c r="E58" s="196"/>
+      <c r="F58" s="196"/>
+      <c r="G58" s="182" t="s">
+        <v>410</v>
+      </c>
+      <c r="H58" s="182">
+        <v>630301</v>
+      </c>
+      <c r="I58" s="182">
+        <v>2</v>
+      </c>
+      <c r="J58" s="182">
+        <v>6</v>
+      </c>
+      <c r="K58" s="196"/>
+      <c r="L58" s="196"/>
+      <c r="M58" s="196"/>
+      <c r="N58" s="196"/>
+      <c r="O58" s="196"/>
+      <c r="P58" s="196"/>
+      <c r="Q58" s="196"/>
+      <c r="R58" s="196"/>
+      <c r="S58" s="196"/>
+      <c r="T58" s="196"/>
+      <c r="U58" s="196"/>
+      <c r="V58" s="200"/>
+      <c r="W58" s="196"/>
+    </row>
+    <row r="59" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="217"/>
+      <c r="B59" s="198"/>
+      <c r="C59" s="198"/>
+      <c r="D59" s="198"/>
+      <c r="E59" s="198"/>
+      <c r="F59" s="198"/>
+      <c r="G59" s="182" t="s">
+        <v>399</v>
+      </c>
+      <c r="H59" s="182">
+        <v>952</v>
+      </c>
+      <c r="I59" s="186">
+        <v>618750</v>
+      </c>
+      <c r="J59" s="182">
+        <v>6</v>
+      </c>
+      <c r="K59" s="198"/>
+      <c r="L59" s="198"/>
+      <c r="M59" s="198"/>
+      <c r="N59" s="198"/>
+      <c r="O59" s="198"/>
+      <c r="P59" s="198"/>
+      <c r="Q59" s="198"/>
+      <c r="R59" s="198"/>
+      <c r="S59" s="198"/>
+      <c r="T59" s="198"/>
+      <c r="U59" s="198"/>
+      <c r="V59" s="201"/>
+      <c r="W59" s="198"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A60" s="212">
+        <v>10318</v>
+      </c>
+      <c r="B60" s="202" t="s">
+        <v>443</v>
+      </c>
+      <c r="C60" s="202" t="s">
+        <v>444</v>
+      </c>
+      <c r="D60" s="202">
+        <v>1110377</v>
+      </c>
+      <c r="E60" s="202">
+        <v>1</v>
+      </c>
+      <c r="F60" s="202">
+        <v>6</v>
+      </c>
+      <c r="G60" s="184" t="s">
+        <v>445</v>
+      </c>
+      <c r="H60" s="184">
+        <v>630014</v>
+      </c>
+      <c r="I60" s="184">
+        <v>1</v>
+      </c>
+      <c r="J60" s="184">
+        <v>6</v>
+      </c>
+      <c r="K60" s="140" t="s">
+        <v>381</v>
+      </c>
+      <c r="L60" s="136" t="s">
+        <v>381</v>
+      </c>
+      <c r="M60" s="136" t="s">
+        <v>381</v>
+      </c>
+      <c r="N60" s="136" t="s">
+        <v>381</v>
+      </c>
+      <c r="O60" s="136" t="s">
+        <v>381</v>
+      </c>
+      <c r="P60" s="202" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q60" s="202">
+        <v>29</v>
+      </c>
+      <c r="R60" s="202" t="s">
+        <v>383</v>
+      </c>
+      <c r="S60" s="215">
+        <v>45134</v>
+      </c>
+      <c r="T60" s="215">
+        <v>45148</v>
+      </c>
+      <c r="U60" s="202" t="s">
+        <v>441</v>
+      </c>
+      <c r="V60" s="199">
+        <v>900</v>
+      </c>
+      <c r="W60" s="202" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A61" s="213"/>
+      <c r="B61" s="203"/>
+      <c r="C61" s="203"/>
+      <c r="D61" s="203"/>
+      <c r="E61" s="203"/>
+      <c r="F61" s="203"/>
+      <c r="G61" s="172" t="s">
+        <v>410</v>
+      </c>
+      <c r="H61" s="172">
+        <v>630301</v>
+      </c>
+      <c r="I61" s="172">
+        <v>2</v>
+      </c>
+      <c r="J61" s="172">
+        <v>6</v>
+      </c>
+      <c r="K61" s="140" t="s">
+        <v>381</v>
+      </c>
+      <c r="L61" s="140" t="s">
+        <v>381</v>
+      </c>
+      <c r="M61" s="140" t="s">
+        <v>381</v>
+      </c>
+      <c r="N61" s="140" t="s">
+        <v>381</v>
+      </c>
+      <c r="O61" s="140" t="s">
+        <v>381</v>
+      </c>
+      <c r="P61" s="203"/>
+      <c r="Q61" s="203"/>
+      <c r="R61" s="203"/>
+      <c r="S61" s="203"/>
+      <c r="T61" s="203"/>
+      <c r="U61" s="203"/>
+      <c r="V61" s="200"/>
+      <c r="W61" s="203"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A62" s="213"/>
+      <c r="B62" s="203"/>
+      <c r="C62" s="203"/>
+      <c r="D62" s="203"/>
+      <c r="E62" s="203"/>
+      <c r="F62" s="203"/>
+      <c r="G62" s="172" t="s">
+        <v>411</v>
+      </c>
+      <c r="H62" s="172">
+        <v>660301</v>
+      </c>
+      <c r="I62" s="172">
+        <v>2</v>
+      </c>
+      <c r="J62" s="172">
+        <v>6</v>
+      </c>
+      <c r="K62" s="140" t="s">
+        <v>381</v>
+      </c>
+      <c r="L62" s="140" t="s">
+        <v>381</v>
+      </c>
+      <c r="M62" s="140" t="s">
+        <v>381</v>
+      </c>
+      <c r="N62" s="140" t="s">
+        <v>381</v>
+      </c>
+      <c r="O62" s="140" t="s">
+        <v>381</v>
+      </c>
+      <c r="P62" s="203"/>
+      <c r="Q62" s="203"/>
+      <c r="R62" s="203"/>
+      <c r="S62" s="203"/>
+      <c r="T62" s="203"/>
+      <c r="U62" s="203"/>
+      <c r="V62" s="200"/>
+      <c r="W62" s="203"/>
+    </row>
+    <row r="63" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="214"/>
+      <c r="B63" s="204"/>
+      <c r="C63" s="204"/>
+      <c r="D63" s="204"/>
+      <c r="E63" s="204"/>
+      <c r="F63" s="204"/>
+      <c r="G63" s="172" t="s">
+        <v>399</v>
+      </c>
+      <c r="H63" s="172">
+        <v>952</v>
+      </c>
+      <c r="I63" s="173">
+        <v>618750</v>
+      </c>
+      <c r="J63" s="172">
+        <v>6</v>
+      </c>
+      <c r="K63" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="L63" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="M63" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="N63" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="O63" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="P63" s="204"/>
+      <c r="Q63" s="204"/>
+      <c r="R63" s="204"/>
+      <c r="S63" s="204"/>
+      <c r="T63" s="204"/>
+      <c r="U63" s="204"/>
+      <c r="V63" s="201"/>
+      <c r="W63" s="204"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A64" s="205">
+        <v>10301</v>
+      </c>
+      <c r="B64" s="196" t="s">
+        <v>446</v>
+      </c>
+      <c r="C64" s="196" t="s">
+        <v>447</v>
+      </c>
+      <c r="D64" s="196">
+        <v>1110283</v>
+      </c>
+      <c r="E64" s="196">
+        <v>1</v>
+      </c>
+      <c r="F64" s="196">
+        <v>6</v>
+      </c>
+      <c r="G64" s="207" t="s">
+        <v>419</v>
+      </c>
+      <c r="H64" s="207">
+        <v>1110207</v>
+      </c>
+      <c r="I64" s="207">
+        <v>35</v>
+      </c>
+      <c r="J64" s="207">
+        <v>6</v>
+      </c>
+      <c r="K64" s="187" t="s">
+        <v>420</v>
+      </c>
+      <c r="L64" s="187">
+        <v>303</v>
+      </c>
+      <c r="M64" s="187">
+        <v>1</v>
+      </c>
+      <c r="N64" s="188">
+        <v>0.9</v>
+      </c>
+      <c r="O64" s="187">
+        <v>6</v>
+      </c>
+      <c r="P64" s="196" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q64" s="196">
+        <v>30</v>
+      </c>
+      <c r="R64" s="209" t="s">
+        <v>383</v>
+      </c>
+      <c r="S64" s="195">
+        <v>45134</v>
+      </c>
+      <c r="T64" s="195">
+        <v>45148</v>
+      </c>
+      <c r="U64" s="196" t="s">
+        <v>449</v>
+      </c>
+      <c r="V64" s="196">
+        <v>200</v>
+      </c>
+      <c r="W64" s="196" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A65" s="205"/>
+      <c r="B65" s="196"/>
+      <c r="C65" s="196"/>
+      <c r="D65" s="196"/>
+      <c r="E65" s="196"/>
+      <c r="F65" s="196"/>
+      <c r="G65" s="208"/>
+      <c r="H65" s="208"/>
+      <c r="I65" s="208"/>
+      <c r="J65" s="208"/>
+      <c r="K65" s="189" t="s">
+        <v>421</v>
+      </c>
+      <c r="L65" s="189">
+        <v>333</v>
+      </c>
+      <c r="M65" s="189">
+        <v>1</v>
+      </c>
+      <c r="N65" s="190">
+        <v>0.1</v>
+      </c>
+      <c r="O65" s="189">
+        <v>6</v>
+      </c>
+      <c r="P65" s="196"/>
+      <c r="Q65" s="196"/>
+      <c r="R65" s="209"/>
+      <c r="S65" s="196"/>
+      <c r="T65" s="196"/>
+      <c r="U65" s="196"/>
+      <c r="V65" s="196"/>
+      <c r="W65" s="196"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A66" s="205"/>
+      <c r="B66" s="196"/>
+      <c r="C66" s="196"/>
+      <c r="D66" s="196"/>
+      <c r="E66" s="196"/>
+      <c r="F66" s="196"/>
+      <c r="G66" s="182" t="s">
+        <v>451</v>
+      </c>
+      <c r="H66" s="182">
+        <v>630001</v>
+      </c>
+      <c r="I66" s="182">
+        <v>2</v>
+      </c>
+      <c r="J66" s="182">
+        <v>6</v>
+      </c>
+      <c r="K66" s="196" t="s">
+        <v>381</v>
+      </c>
+      <c r="L66" s="196" t="s">
+        <v>381</v>
+      </c>
+      <c r="M66" s="196" t="s">
+        <v>381</v>
+      </c>
+      <c r="N66" s="196" t="s">
+        <v>381</v>
+      </c>
+      <c r="O66" s="196" t="s">
+        <v>381</v>
+      </c>
+      <c r="P66" s="196"/>
+      <c r="Q66" s="196"/>
+      <c r="R66" s="209"/>
+      <c r="S66" s="196"/>
+      <c r="T66" s="196"/>
+      <c r="U66" s="196"/>
+      <c r="V66" s="196"/>
+      <c r="W66" s="196"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A67" s="205"/>
+      <c r="B67" s="196"/>
+      <c r="C67" s="196"/>
+      <c r="D67" s="196"/>
+      <c r="E67" s="196"/>
+      <c r="F67" s="196"/>
+      <c r="G67" s="182" t="s">
+        <v>452</v>
+      </c>
+      <c r="H67" s="182">
+        <v>660001</v>
+      </c>
+      <c r="I67" s="182">
+        <v>2</v>
+      </c>
+      <c r="J67" s="182">
+        <v>6</v>
+      </c>
+      <c r="K67" s="196"/>
+      <c r="L67" s="196"/>
+      <c r="M67" s="196"/>
+      <c r="N67" s="196"/>
+      <c r="O67" s="196"/>
+      <c r="P67" s="196"/>
+      <c r="Q67" s="196"/>
+      <c r="R67" s="209"/>
+      <c r="S67" s="196"/>
+      <c r="T67" s="196"/>
+      <c r="U67" s="196"/>
+      <c r="V67" s="196"/>
+      <c r="W67" s="196"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A68" s="205"/>
+      <c r="B68" s="196"/>
+      <c r="C68" s="196"/>
+      <c r="D68" s="196"/>
+      <c r="E68" s="196"/>
+      <c r="F68" s="196"/>
+      <c r="G68" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="H68" s="182">
+        <v>600019</v>
+      </c>
+      <c r="I68" s="182">
+        <v>5</v>
+      </c>
+      <c r="J68" s="182">
+        <v>6</v>
+      </c>
+      <c r="K68" s="196"/>
+      <c r="L68" s="196"/>
+      <c r="M68" s="196"/>
+      <c r="N68" s="196"/>
+      <c r="O68" s="196"/>
+      <c r="P68" s="196"/>
+      <c r="Q68" s="196"/>
+      <c r="R68" s="209"/>
+      <c r="S68" s="196"/>
+      <c r="T68" s="196"/>
+      <c r="U68" s="196"/>
+      <c r="V68" s="196"/>
+      <c r="W68" s="196"/>
+    </row>
+    <row r="69" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="206"/>
+      <c r="B69" s="197"/>
+      <c r="C69" s="197"/>
+      <c r="D69" s="197"/>
+      <c r="E69" s="197"/>
+      <c r="F69" s="197"/>
+      <c r="G69" s="144" t="s">
+        <v>399</v>
+      </c>
+      <c r="H69" s="144">
+        <v>952</v>
+      </c>
+      <c r="I69" s="191">
+        <v>275000</v>
+      </c>
+      <c r="J69" s="144">
+        <v>6</v>
+      </c>
+      <c r="K69" s="198"/>
+      <c r="L69" s="198"/>
+      <c r="M69" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="N69" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="O69" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="P69" s="197"/>
+      <c r="Q69" s="197"/>
+      <c r="R69" s="210"/>
+      <c r="S69" s="197"/>
+      <c r="T69" s="197"/>
+      <c r="U69" s="197"/>
+      <c r="V69" s="197"/>
+      <c r="W69" s="197"/>
+    </row>
+    <row r="70" spans="1:23" ht="84.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="192">
+        <v>60009</v>
+      </c>
+      <c r="B70" s="180" t="s">
+        <v>454</v>
+      </c>
+      <c r="C70" s="180" t="s">
+        <v>454</v>
+      </c>
+      <c r="D70" s="180">
+        <v>901</v>
+      </c>
+      <c r="E70" s="180">
+        <v>1</v>
+      </c>
+      <c r="F70" s="180">
+        <v>7</v>
+      </c>
+      <c r="G70" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="H70" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="I70" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="J70" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="K70" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="L70" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="M70" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="N70" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="O70" s="180" t="s">
+        <v>381</v>
+      </c>
+      <c r="P70" s="180" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q70" s="180">
+        <v>2</v>
+      </c>
+      <c r="R70" s="193" t="s">
+        <v>456</v>
+      </c>
+      <c r="S70" s="194">
+        <v>45141</v>
+      </c>
+      <c r="T70" s="194">
+        <v>45148</v>
+      </c>
+      <c r="U70" s="180" t="s">
+        <v>457</v>
+      </c>
+      <c r="V70" s="180">
+        <v>0</v>
+      </c>
+      <c r="W70" s="180" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A71" s="117" t="s">
+        <v>351</v>
+      </c>
+      <c r="B71" s="115" t="s">
+        <v>352</v>
+      </c>
+      <c r="C71" s="115" t="s">
+        <v>350</v>
+      </c>
+      <c r="D71" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="E71" s="118" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A72" s="116" t="s">
+        <v>354</v>
+      </c>
+      <c r="B72" s="114" t="s">
+        <v>352</v>
+      </c>
+      <c r="C72" s="114" t="s">
+        <v>350</v>
+      </c>
+      <c r="D72" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="113" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A73" s="116" t="s">
+        <v>355</v>
+      </c>
+      <c r="B73" s="114" t="s">
+        <v>352</v>
+      </c>
+      <c r="C73" s="114" t="s">
+        <v>350</v>
+      </c>
+      <c r="D73" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" s="113" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A74" s="116" t="s">
+        <v>356</v>
+      </c>
+      <c r="B74" s="114" t="s">
+        <v>352</v>
+      </c>
+      <c r="C74" s="114" t="s">
+        <v>350</v>
+      </c>
+      <c r="D74" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="113" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A75" s="116" t="s">
+        <v>357</v>
+      </c>
+      <c r="B75" s="114" t="s">
+        <v>352</v>
+      </c>
+      <c r="C75" s="114" t="s">
+        <v>350</v>
+      </c>
+      <c r="D75" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" s="113" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A76" s="116" t="s">
+        <v>358</v>
+      </c>
+      <c r="B76" s="114" t="s">
+        <v>352</v>
+      </c>
+      <c r="C76" s="114" t="s">
+        <v>350</v>
+      </c>
+      <c r="D76" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76" s="113" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="283">
+    <mergeCell ref="W64:W69"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="M66:M68"/>
+    <mergeCell ref="N66:N68"/>
+    <mergeCell ref="O66:O68"/>
+    <mergeCell ref="Q64:Q69"/>
+    <mergeCell ref="R64:R69"/>
+    <mergeCell ref="S64:S69"/>
+    <mergeCell ref="T64:T69"/>
+    <mergeCell ref="U64:U69"/>
+    <mergeCell ref="V64:V69"/>
+    <mergeCell ref="F64:F69"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="P64:P69"/>
+    <mergeCell ref="S60:S63"/>
+    <mergeCell ref="T60:T63"/>
+    <mergeCell ref="U60:U63"/>
+    <mergeCell ref="V60:V63"/>
+    <mergeCell ref="W60:W63"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="E64:E69"/>
+    <mergeCell ref="W56:W59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="P60:P63"/>
+    <mergeCell ref="Q60:Q63"/>
+    <mergeCell ref="R60:R63"/>
+    <mergeCell ref="Q56:Q59"/>
+    <mergeCell ref="R56:R59"/>
+    <mergeCell ref="S56:S59"/>
+    <mergeCell ref="T56:T59"/>
+    <mergeCell ref="U56:U59"/>
+    <mergeCell ref="V56:V59"/>
+    <mergeCell ref="K56:K59"/>
+    <mergeCell ref="L56:L59"/>
+    <mergeCell ref="M56:M59"/>
+    <mergeCell ref="N56:N59"/>
+    <mergeCell ref="O56:O59"/>
+    <mergeCell ref="P56:P59"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="V50:V55"/>
+    <mergeCell ref="W50:W55"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="O51:O54"/>
+    <mergeCell ref="P50:P55"/>
+    <mergeCell ref="Q50:Q55"/>
+    <mergeCell ref="R50:R55"/>
+    <mergeCell ref="S50:S55"/>
+    <mergeCell ref="T50:T55"/>
+    <mergeCell ref="U50:U55"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="C50:C55"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="E50:E55"/>
+    <mergeCell ref="F50:F55"/>
+    <mergeCell ref="V44:V49"/>
+    <mergeCell ref="W44:W49"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="J45:J48"/>
+    <mergeCell ref="O45:O48"/>
+    <mergeCell ref="P44:P49"/>
+    <mergeCell ref="Q44:Q49"/>
+    <mergeCell ref="R44:R49"/>
+    <mergeCell ref="S44:S49"/>
+    <mergeCell ref="T44:T49"/>
+    <mergeCell ref="U44:U49"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="E44:E49"/>
+    <mergeCell ref="F44:F49"/>
+    <mergeCell ref="T35:T43"/>
+    <mergeCell ref="U35:U43"/>
+    <mergeCell ref="V35:V43"/>
+    <mergeCell ref="W35:W43"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="N35:N38"/>
+    <mergeCell ref="O35:O38"/>
+    <mergeCell ref="P35:P43"/>
+    <mergeCell ref="Q35:Q43"/>
+    <mergeCell ref="R35:R43"/>
+    <mergeCell ref="S35:S43"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="M35:M38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="U26:U34"/>
+    <mergeCell ref="V26:V34"/>
+    <mergeCell ref="W26:W34"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="F27:F34"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P34"/>
+    <mergeCell ref="Q26:Q34"/>
+    <mergeCell ref="R26:R34"/>
+    <mergeCell ref="S26:S34"/>
+    <mergeCell ref="T26:T34"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="U22:U25"/>
+    <mergeCell ref="V22:V25"/>
+    <mergeCell ref="W22:W25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="P22:P25"/>
+    <mergeCell ref="Q22:Q25"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="S22:S25"/>
+    <mergeCell ref="T22:T25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="R16:R21"/>
+    <mergeCell ref="S16:S21"/>
+    <mergeCell ref="T16:T21"/>
+    <mergeCell ref="U16:U21"/>
+    <mergeCell ref="V16:V21"/>
+    <mergeCell ref="W16:W21"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="L16:L20"/>
+    <mergeCell ref="O16:O20"/>
+    <mergeCell ref="P16:P21"/>
+    <mergeCell ref="Q16:Q21"/>
+    <mergeCell ref="V10:V15"/>
+    <mergeCell ref="W10:W15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="P10:P15"/>
+    <mergeCell ref="Q10:Q15"/>
+    <mergeCell ref="R10:R15"/>
+    <mergeCell ref="S10:S15"/>
+    <mergeCell ref="T10:T15"/>
+    <mergeCell ref="U10:U15"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="O10:O14"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/체크리스트생성기/insert.xlsx
+++ b/체크리스트생성기/insert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\파이썬프로젝트\r2mTest\체크리스트생성기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F74FE17-B95C-43D8-A6E2-2E275A15A3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72D1D79-854A-486D-9CA3-8C4231083AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8D60C344-9B9F-46DE-BC30-0142C66CDCF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8D60C344-9B9F-46DE-BC30-0142C66CDCF5}"/>
   </bookViews>
   <sheets>
     <sheet name="타겟" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="484">
   <si>
     <t>희귀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1616,351 +1616,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 설명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>일일 운세 극복의 성배 상자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>44 :Box</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-사용 시 다음 아이템 중 1종 획득
-- 8강 확정 극복의 성배 상자 1개
-- 행운의 구슬[성배] 888개
-- 행운의 구슬[성배] 88개
-- 행운의 구슬[성배] 8개
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8강 확정 극복의 성배 상자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>44 :Box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-사용 시 다음 아이템 획득
-- +8 극복의 성배 1개
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">제작 --&gt; 기타 --&gt; 프로모션
-행운의 구슬[성배] 888개를 통해 제작 가능
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제작 성공 확률 : 50%</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6강 확정 극복의 성배 상자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-사용 시 다음 아이템 획득
-- +6 극복의 성배 1개
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">제작 --&gt; 기타 --&gt; 프로모션
-행운의 구슬[성배] 88개를 통해 제작 가능
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제작 성공 확률 : 50%</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4강 확정 극복의 성배 상자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-사용 시 다음 아이템 획득
-- +4 극복의 성배 1개
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">제작 --&gt; 기타 --&gt; 프로모션
-행운의 구슬[성배] 8개를 통해 제작 가능
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제작 성공 확률 : 15%</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>행운의 구슬[성배]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>43 : Stuff</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-행운의 구슬[성배] 개수에 따라 확률을 통해 확정 극복의 성배 상자를 [제작]할 수 있다.
-- 행운의 구슬[성배] 8개 : 4강 확정 극복의 성배 상자
-- 행운의 구슬[성배] 88개 : 6강 확정 극복의 성배 상자
-- 행운의 구슬[성배] 888개 : 8강 확정 극복의 성배 상자
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>일일 운세 영혼의 부적 상자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-사용 시 다음 아이템 중 1종 획득
-- 8강 확정 영혼의 부적 상자 1개
-- 행운의 구슬[부적] 888개
-- 행운의 구슬[부적] 88개
-- 행운의 구슬[부적] 8개
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8강 확정 영혼의 부적 상자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-사용 시 다음 아이템 획득
-- +8 영혼의 부적 1개
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">제작 --&gt; 기타 --&gt; 프로모션
-행운의 구슬[부적] 888개를 통해 제작 가능
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제작 성공 확률 : 50%</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6강 확정 영혼의 부적 상자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-사용 시 다음 아이템 획득
-- +6 영혼의 부적 1개
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">제작 --&gt; 기타 --&gt; 프로모션
-행운의 구슬[부적] 88개를 통해 제작 가능
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제작 성공 확률 : 50%</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4강 확정 영혼의 부적 상자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-사용 시 다음 아이템 획득
-- +4 영혼의 부적 1개
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">제작 --&gt; 기타 --&gt; 프로모션
-행운의 구슬[부적] 8개를 통해 제작 가능
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제작 성공 확률 : 15%</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>행운의 구슬[부적]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-행운의 구슬[부적] 개수에 따라 확률을 통해 확정 영혼의 부적 상자를 [제작]할 수 있다.
-- 행운의 구슬[부적] 8개 : 4강 확정 영혼의 부적 상자
-- 행운의 구슬[부적] 88개 : 6강 확정 영혼의 부적 상자
-- 행운의 구슬[부적] 888개 : 8강 확정 영혼의 부적 상자
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>전장의 서막 도감 패키지 상자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-사용 시 다음 아이템 획득
-- 전장의 서막 1개
-- 상급 변신 뽑기권[11회] 2개
-- 상급 서번트 뽑기권[11회] 2개
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>영웅 변신 확정 패키지 상자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-사용 시 다음 아이템 획득
-- 최상급 변신 뽑기권[11회] 5개
-- 상급 변신 뽑기권[11회] 5개
-- 희귀 변신 확정 뽑기권 2개
-- 영웅 변신 뽑기권 작은 조각 2개
-- 로얄 코인 275,000개
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤라켄의 특수 매터리얼 패키지 상자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-사용 시 다음 아이템 획득
-- 최상급 특수 매터리얼 상자[14일] 1개
-- 상급 서번트 뽑기권[11회] 5개
-- 최상급 서번트 뽑기권[11회] 5개
-- 빛나는 유피테르의 계약서[1시간] 15개
-- 로얄 코인 275,000개
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤라켄의 특수 매터리얼 상자[14일]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-사용 시 다음 아이템 획득
-- 헤라켄의 특수 매터리얼[14일] 1개
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤라켄의 특수 매터리얼[14일]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>83 :MaterialEvent</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-[4번째 슬롯 / 기간제 14일 아이템]
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>신규
+변신 카드 ID</t>
+  </si>
+  <si>
+    <t>클래스</t>
+  </si>
+  <si>
+    <t>능력치 옵션</t>
+  </si>
+  <si>
+    <t>수치</t>
+  </si>
+  <si>
+    <t>릴리아</t>
+  </si>
+  <si>
+    <t>위저드</t>
+  </si>
+  <si>
+    <t>영웅</t>
+  </si>
+  <si>
+    <t>최대 HP</t>
+  </si>
+  <si>
+    <t>공격 속도</t>
+  </si>
+  <si>
+    <t>이동 속도</t>
+  </si>
+  <si>
+    <t>지능</t>
+  </si>
+  <si>
+    <t>물리 공격력(근접)</t>
+  </si>
+  <si>
+    <t>마법 공격력</t>
+  </si>
+  <si>
+    <t>물리 피해 감소</t>
+  </si>
+  <si>
+    <t>마법 피해 감소</t>
+  </si>
+  <si>
+    <t>[PVP 슬레인] 마법 명중력</t>
+  </si>
+  <si>
+    <t>장합</t>
+  </si>
+  <si>
+    <t>나이트</t>
+  </si>
+  <si>
+    <t>물리 명중력(근접)</t>
+  </si>
+  <si>
+    <t>마법 방어력</t>
+  </si>
+  <si>
+    <t>[PVP 슬레인] 치명타 공격력</t>
   </si>
 </sst>
 </file>
@@ -1972,7 +1692,7 @@
     <numFmt numFmtId="176" formatCode="0.000%"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2087,33 +1807,8 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="27">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2252,26 +1947,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF44546A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="91">
+  <borders count="90">
     <border>
       <left/>
       <right/>
@@ -3372,21 +3049,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3403,8 +3067,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3906,16 +3573,115 @@
     <xf numFmtId="14" fontId="14" fillId="20" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="14" fillId="20" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3927,54 +3693,36 @@
     <xf numFmtId="0" fontId="14" fillId="23" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="20" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="14" fillId="20" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3984,60 +3732,75 @@
     <xf numFmtId="0" fontId="14" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="20" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="20" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4047,30 +3810,9 @@
     <xf numFmtId="0" fontId="14" fillId="21" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="21" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4083,30 +3825,57 @@
     <xf numFmtId="0" fontId="14" fillId="21" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="21" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4119,17 +3888,23 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4143,16 +3918,16 @@
     <xf numFmtId="0" fontId="14" fillId="20" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
@@ -4164,181 +3939,20 @@
     <xf numFmtId="14" fontId="14" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="16" fillId="26" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="16" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2 3" xfId="4" xr:uid="{FDFA49CB-E6F7-4547-AE98-614E3EC29BF5}"/>
     <cellStyle name="표준 32" xfId="2" xr:uid="{4FC050CF-A698-4627-ACA2-B859605686D9}"/>
     <cellStyle name="표준 36" xfId="1" xr:uid="{1A468C7F-5468-42B9-A9B7-43E913A395B8}"/>
+    <cellStyle name="표준 40" xfId="6" xr:uid="{2904607D-59CE-4577-9BCC-50D64FE2FBDC}"/>
     <cellStyle name="표준 8" xfId="5" xr:uid="{7123483F-5353-40DF-9A53-01A71353A439}"/>
   </cellStyles>
   <dxfs count="2">
@@ -4666,426 +4280,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6517434B-E7CD-4A5A-BB70-B6B17332CD7F}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="36.625" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.5" customWidth="1"/>
+    <col min="4" max="19" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="319" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="319" t="s">
+      <c r="B1" t="s">
         <v>463</v>
       </c>
-      <c r="C1" s="319" t="s">
+      <c r="C1" t="s">
         <v>464</v>
       </c>
-      <c r="D1" s="319" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="319" t="s">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>465</v>
       </c>
-      <c r="F1" s="320" t="s">
+      <c r="F1" t="s">
         <v>466</v>
       </c>
-      <c r="G1" s="336" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.3">
-      <c r="A2" s="321" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>467</v>
       </c>
-      <c r="B2" s="321">
-        <v>5450159</v>
-      </c>
-      <c r="C2" s="321" t="s">
+      <c r="B2">
+        <v>233</v>
+      </c>
+      <c r="C2" t="s">
         <v>468</v>
       </c>
-      <c r="D2" s="321" t="s">
+      <c r="D2" t="s">
         <v>469</v>
       </c>
-      <c r="E2" s="322" t="s">
+      <c r="E2" t="s">
         <v>470</v>
       </c>
-      <c r="F2" s="321" t="s">
-        <v>508</v>
-      </c>
-      <c r="G2" t="str">
-        <f>A2&amp;CHAR(10)&amp;B2</f>
-        <v>일일 운세 극복의 성배 상자
-5450159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A3" s="323" t="s">
+      <c r="F2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
         <v>471</v>
       </c>
-      <c r="B3" s="323">
-        <v>5450164</v>
-      </c>
-      <c r="C3" s="323" t="s">
+      <c r="F3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
         <v>472</v>
       </c>
-      <c r="D3" s="323" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="324" t="s">
+      <c r="F4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
         <v>473</v>
       </c>
-      <c r="F3" s="325" t="s">
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
         <v>474</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G10" si="0">A3&amp;CHAR(10)&amp;B3</f>
-        <v>8강 확정 극복의 성배 상자
-5450164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A4" s="326" t="s">
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
         <v>475</v>
       </c>
-      <c r="B4" s="326">
-        <v>5450165</v>
-      </c>
-      <c r="C4" s="326" t="s">
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>476</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>477</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>478</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B11">
+        <v>272</v>
+      </c>
+      <c r="C11" t="s">
+        <v>480</v>
+      </c>
+      <c r="D11" t="s">
+        <v>469</v>
+      </c>
+      <c r="E11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F11">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>471</v>
+      </c>
+      <c r="F12">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
         <v>472</v>
       </c>
-      <c r="D4" s="326" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="327" t="s">
+      <c r="F13">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>474</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>481</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
         <v>476</v>
       </c>
-      <c r="F4" s="327" t="s">
-        <v>477</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>6강 확정 극복의 성배 상자
-5450165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.3">
-      <c r="A5" s="323" t="s">
-        <v>478</v>
-      </c>
-      <c r="B5" s="323">
-        <v>5450166</v>
-      </c>
-      <c r="C5" s="323" t="s">
-        <v>472</v>
-      </c>
-      <c r="D5" s="323" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="324" t="s">
-        <v>479</v>
-      </c>
-      <c r="F5" s="325" t="s">
-        <v>480</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>4강 확정 극복의 성배 상자
-5450166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="84" x14ac:dyDescent="0.3">
-      <c r="A6" s="321" t="s">
-        <v>481</v>
-      </c>
-      <c r="B6" s="321">
-        <v>5000110</v>
-      </c>
-      <c r="C6" s="321" t="s">
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>482</v>
       </c>
-      <c r="D6" s="321" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="328" t="s">
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
         <v>483</v>
       </c>
-      <c r="F6" s="328" t="s">
-        <v>508</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>행운의 구슬[성배]
-5000110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="108" x14ac:dyDescent="0.3">
-      <c r="A7" s="323" t="s">
-        <v>484</v>
-      </c>
-      <c r="B7" s="323">
-        <v>5450160</v>
-      </c>
-      <c r="C7" s="323" t="s">
-        <v>472</v>
-      </c>
-      <c r="D7" s="323" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="329" t="s">
-        <v>485</v>
-      </c>
-      <c r="F7" s="324" t="s">
-        <v>508</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>일일 운세 영혼의 부적 상자
-5450160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A8" s="326" t="s">
-        <v>486</v>
-      </c>
-      <c r="B8" s="326">
-        <v>5450167</v>
-      </c>
-      <c r="C8" s="330" t="s">
-        <v>472</v>
-      </c>
-      <c r="D8" s="326" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="327" t="s">
-        <v>487</v>
-      </c>
-      <c r="F8" s="325" t="s">
-        <v>488</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>8강 확정 영혼의 부적 상자
-5450167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A9" s="323" t="s">
-        <v>489</v>
-      </c>
-      <c r="B9" s="323">
-        <v>5450168</v>
-      </c>
-      <c r="C9" s="331" t="s">
-        <v>472</v>
-      </c>
-      <c r="D9" s="323" t="s">
-        <v>170</v>
-      </c>
-      <c r="E9" s="324" t="s">
-        <v>490</v>
-      </c>
-      <c r="F9" s="324" t="s">
-        <v>491</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>6강 확정 영혼의 부적 상자
-5450168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="120" x14ac:dyDescent="0.3">
-      <c r="A10" s="321" t="s">
-        <v>492</v>
-      </c>
-      <c r="B10" s="321">
-        <v>5450169</v>
-      </c>
-      <c r="C10" s="332" t="s">
-        <v>472</v>
-      </c>
-      <c r="D10" s="321" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="327" t="s">
-        <v>493</v>
-      </c>
-      <c r="F10" s="333" t="s">
-        <v>494</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>4강 확정 영혼의 부적 상자
-5450169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="84" x14ac:dyDescent="0.3">
-      <c r="A11" s="323" t="s">
-        <v>495</v>
-      </c>
-      <c r="B11" s="323">
-        <v>5000111</v>
-      </c>
-      <c r="C11" s="323" t="s">
-        <v>482</v>
-      </c>
-      <c r="D11" s="323" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="324" t="s">
-        <v>496</v>
-      </c>
-      <c r="F11" s="323" t="s">
-        <v>508</v>
-      </c>
-      <c r="G11" t="str">
-        <f>A11&amp;CHAR(10)&amp;B11</f>
-        <v>행운의 구슬[부적]
-5000111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="84" x14ac:dyDescent="0.3">
-      <c r="A12" s="321" t="s">
-        <v>497</v>
-      </c>
-      <c r="B12" s="321">
-        <v>5450161</v>
-      </c>
-      <c r="C12" s="332" t="s">
-        <v>472</v>
-      </c>
-      <c r="D12" s="321" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="333" t="s">
-        <v>498</v>
-      </c>
-      <c r="F12" s="334" t="s">
-        <v>508</v>
-      </c>
-      <c r="G12" t="str">
-        <f>A12&amp;CHAR(10)&amp;B12</f>
-        <v>전장의 서막 도감 패키지 상자
-5450161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.3">
-      <c r="A13" s="323" t="s">
-        <v>499</v>
-      </c>
-      <c r="B13" s="323">
-        <v>5450162</v>
-      </c>
-      <c r="C13" s="323" t="s">
-        <v>472</v>
-      </c>
-      <c r="D13" s="323" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="325" t="s">
-        <v>500</v>
-      </c>
-      <c r="F13" s="335" t="s">
-        <v>508</v>
-      </c>
-      <c r="G13" t="str">
-        <f>A13&amp;CHAR(10)&amp;B13</f>
-        <v>영웅 변신 확정 패키지 상자
-5450162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="108" x14ac:dyDescent="0.3">
-      <c r="A14" s="321" t="s">
-        <v>501</v>
-      </c>
-      <c r="B14" s="321">
-        <v>5450163</v>
-      </c>
-      <c r="C14" s="332" t="s">
-        <v>472</v>
-      </c>
-      <c r="D14" s="321" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="322" t="s">
-        <v>502</v>
-      </c>
-      <c r="F14" s="334" t="s">
-        <v>508</v>
-      </c>
-      <c r="G14" t="str">
-        <f>A14&amp;CHAR(10)&amp;B14</f>
-        <v>헤라켄의 특수 매터리얼 패키지 상자
-5450163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.3">
-      <c r="A15" s="323" t="s">
-        <v>503</v>
-      </c>
-      <c r="B15" s="323">
-        <v>5201003</v>
-      </c>
-      <c r="C15" s="323" t="s">
-        <v>472</v>
-      </c>
-      <c r="D15" s="323" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="324" t="s">
-        <v>504</v>
-      </c>
-      <c r="F15" s="335" t="s">
-        <v>508</v>
-      </c>
-      <c r="G15" t="str">
-        <f>A15&amp;CHAR(10)&amp;B15</f>
-        <v>헤라켄의 특수 매터리얼 상자[14일]
-5201003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.3">
-      <c r="A16" s="321" t="s">
-        <v>505</v>
-      </c>
-      <c r="B16" s="321">
-        <v>5000112</v>
-      </c>
-      <c r="C16" s="332" t="s">
-        <v>506</v>
-      </c>
-      <c r="D16" s="321" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="322" t="s">
-        <v>507</v>
-      </c>
-      <c r="F16" s="334" t="s">
-        <v>508</v>
-      </c>
-      <c r="G16" t="str">
-        <f>A16&amp;CHAR(10)&amp;B16</f>
-        <v>헤라켄의 특수 매터리얼[14일]
-5000112</v>
+      <c r="F18">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6335,13 +5719,13 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="294">
+      <c r="A2" s="195">
         <v>1</v>
       </c>
-      <c r="B2" s="297">
+      <c r="B2" s="198">
         <v>4</v>
       </c>
-      <c r="C2" s="297" t="s">
+      <c r="C2" s="198" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="6">
@@ -6379,9 +5763,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="295"/>
-      <c r="B3" s="298"/>
-      <c r="C3" s="298"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
       <c r="D3" s="12">
         <v>212466</v>
       </c>
@@ -6417,9 +5801,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="295"/>
-      <c r="B4" s="298"/>
-      <c r="C4" s="298"/>
+      <c r="A4" s="196"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
       <c r="D4" s="12">
         <v>92266</v>
       </c>
@@ -6455,9 +5839,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="296"/>
-      <c r="B5" s="299"/>
-      <c r="C5" s="299"/>
+      <c r="A5" s="197"/>
+      <c r="B5" s="200"/>
+      <c r="C5" s="200"/>
       <c r="D5" s="17">
         <v>12586</v>
       </c>
@@ -6493,13 +5877,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="294">
+      <c r="A6" s="195">
         <v>2</v>
       </c>
-      <c r="B6" s="297">
+      <c r="B6" s="198">
         <v>4</v>
       </c>
-      <c r="C6" s="297" t="s">
+      <c r="C6" s="198" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="6">
@@ -6537,9 +5921,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="295"/>
-      <c r="B7" s="298"/>
-      <c r="C7" s="298"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="199"/>
+      <c r="C7" s="199"/>
       <c r="D7" s="12">
         <v>212266</v>
       </c>
@@ -6575,9 +5959,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="295"/>
-      <c r="B8" s="298"/>
-      <c r="C8" s="298"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
       <c r="D8" s="12">
         <v>92066</v>
       </c>
@@ -6613,9 +5997,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="296"/>
-      <c r="B9" s="299"/>
-      <c r="C9" s="299"/>
+      <c r="A9" s="197"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
       <c r="D9" s="17">
         <v>102126</v>
       </c>
@@ -6651,13 +6035,13 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="294">
+      <c r="A10" s="195">
         <v>3</v>
       </c>
-      <c r="B10" s="297">
+      <c r="B10" s="198">
         <v>4</v>
       </c>
-      <c r="C10" s="297" t="s">
+      <c r="C10" s="198" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="6">
@@ -6695,9 +6079,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="295"/>
-      <c r="B11" s="298"/>
-      <c r="C11" s="298"/>
+      <c r="A11" s="196"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="199"/>
       <c r="D11" s="12">
         <v>202206</v>
       </c>
@@ -6733,9 +6117,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="295"/>
-      <c r="B12" s="298"/>
-      <c r="C12" s="298"/>
+      <c r="A12" s="196"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="199"/>
       <c r="D12" s="12">
         <v>82306</v>
       </c>
@@ -6771,9 +6155,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="296"/>
-      <c r="B13" s="299"/>
-      <c r="C13" s="299"/>
+      <c r="A13" s="197"/>
+      <c r="B13" s="200"/>
+      <c r="C13" s="200"/>
       <c r="D13" s="17">
         <v>12566</v>
       </c>
@@ -6901,10 +6285,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="304" t="s">
+      <c r="A2" s="205" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="306" t="s">
+      <c r="B2" s="207" t="s">
         <v>180</v>
       </c>
       <c r="C2" s="90" t="s">
@@ -6954,8 +6338,8 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="304"/>
-      <c r="B3" s="306"/>
+      <c r="A3" s="205"/>
+      <c r="B3" s="207"/>
       <c r="C3" s="91" t="s">
         <v>143</v>
       </c>
@@ -7003,8 +6387,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="304"/>
-      <c r="B4" s="306"/>
+      <c r="A4" s="205"/>
+      <c r="B4" s="207"/>
       <c r="C4" s="91" t="s">
         <v>144</v>
       </c>
@@ -7052,8 +6436,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="304"/>
-      <c r="B5" s="306"/>
+      <c r="A5" s="205"/>
+      <c r="B5" s="207"/>
       <c r="C5" s="91" t="s">
         <v>145</v>
       </c>
@@ -7101,8 +6485,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="304"/>
-      <c r="B6" s="306"/>
+      <c r="A6" s="205"/>
+      <c r="B6" s="207"/>
       <c r="C6" s="91" t="s">
         <v>146</v>
       </c>
@@ -7150,8 +6534,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="304"/>
-      <c r="B7" s="306"/>
+      <c r="A7" s="205"/>
+      <c r="B7" s="207"/>
       <c r="C7" s="91" t="s">
         <v>147</v>
       </c>
@@ -7199,8 +6583,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="304"/>
-      <c r="B8" s="306"/>
+      <c r="A8" s="205"/>
+      <c r="B8" s="207"/>
       <c r="C8" s="91" t="s">
         <v>148</v>
       </c>
@@ -7248,8 +6632,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="304"/>
-      <c r="B9" s="306"/>
+      <c r="A9" s="205"/>
+      <c r="B9" s="207"/>
       <c r="C9" s="91" t="s">
         <v>149</v>
       </c>
@@ -7297,8 +6681,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="304"/>
-      <c r="B10" s="306"/>
+      <c r="A10" s="205"/>
+      <c r="B10" s="207"/>
       <c r="C10" s="91" t="s">
         <v>150</v>
       </c>
@@ -7346,8 +6730,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="304"/>
-      <c r="B11" s="307"/>
+      <c r="A11" s="205"/>
+      <c r="B11" s="208"/>
       <c r="C11" s="91" t="s">
         <v>151</v>
       </c>
@@ -7395,7 +6779,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="304"/>
+      <c r="A12" s="205"/>
       <c r="B12" s="91" t="s">
         <v>152</v>
       </c>
@@ -7428,7 +6812,7 @@
       <c r="Q12" s="71"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="304"/>
+      <c r="A13" s="205"/>
       <c r="B13" s="91" t="s">
         <v>154</v>
       </c>
@@ -7461,7 +6845,7 @@
       <c r="Q13" s="71"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="304"/>
+      <c r="A14" s="205"/>
       <c r="B14" s="91" t="s">
         <v>155</v>
       </c>
@@ -7494,7 +6878,7 @@
       <c r="Q14" s="71"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="304"/>
+      <c r="A15" s="205"/>
       <c r="B15" s="105"/>
       <c r="C15" s="105"/>
       <c r="D15" s="105">
@@ -7523,7 +6907,7 @@
       <c r="Q15" s="109"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="304"/>
+      <c r="A16" s="205"/>
       <c r="B16" s="105"/>
       <c r="C16" s="105"/>
       <c r="D16" s="105">
@@ -7552,7 +6936,7 @@
       <c r="Q16" s="109"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="304"/>
+      <c r="A17" s="205"/>
       <c r="B17" s="105"/>
       <c r="C17" s="105"/>
       <c r="D17" s="105">
@@ -7581,7 +6965,7 @@
       <c r="Q17" s="109"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="304"/>
+      <c r="A18" s="205"/>
       <c r="B18" s="105"/>
       <c r="C18" s="105"/>
       <c r="D18" s="105">
@@ -7610,7 +6994,7 @@
       <c r="Q18" s="109"/>
     </row>
     <row r="19" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="305"/>
+      <c r="A19" s="206"/>
       <c r="B19" s="92" t="s">
         <v>181</v>
       </c>
@@ -7643,10 +7027,10 @@
       <c r="Q19" s="75"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="308" t="s">
+      <c r="A20" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="312" t="s">
+      <c r="B20" s="213" t="s">
         <v>180</v>
       </c>
       <c r="C20" s="93" t="s">
@@ -7690,8 +7074,8 @@
       <c r="Q20" s="81"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="309"/>
-      <c r="B21" s="313"/>
+      <c r="A21" s="210"/>
+      <c r="B21" s="214"/>
       <c r="C21" s="94" t="s">
         <v>143</v>
       </c>
@@ -7733,8 +7117,8 @@
       <c r="Q21" s="71"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="309"/>
-      <c r="B22" s="313"/>
+      <c r="A22" s="210"/>
+      <c r="B22" s="214"/>
       <c r="C22" s="94" t="s">
         <v>144</v>
       </c>
@@ -7776,8 +7160,8 @@
       <c r="Q22" s="71"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="309"/>
-      <c r="B23" s="313"/>
+      <c r="A23" s="210"/>
+      <c r="B23" s="214"/>
       <c r="C23" s="94" t="s">
         <v>145</v>
       </c>
@@ -7819,8 +7203,8 @@
       <c r="Q23" s="71"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="309"/>
-      <c r="B24" s="313"/>
+      <c r="A24" s="210"/>
+      <c r="B24" s="214"/>
       <c r="C24" s="94" t="s">
         <v>146</v>
       </c>
@@ -7862,8 +7246,8 @@
       <c r="Q24" s="71"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="309"/>
-      <c r="B25" s="313"/>
+      <c r="A25" s="210"/>
+      <c r="B25" s="214"/>
       <c r="C25" s="94" t="s">
         <v>147</v>
       </c>
@@ -7905,8 +7289,8 @@
       <c r="Q25" s="71"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="309"/>
-      <c r="B26" s="313"/>
+      <c r="A26" s="210"/>
+      <c r="B26" s="214"/>
       <c r="C26" s="94" t="s">
         <v>148</v>
       </c>
@@ -7948,8 +7332,8 @@
       <c r="Q26" s="71"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="309"/>
-      <c r="B27" s="313"/>
+      <c r="A27" s="210"/>
+      <c r="B27" s="214"/>
       <c r="C27" s="94" t="s">
         <v>149</v>
       </c>
@@ -7991,8 +7375,8 @@
       <c r="Q27" s="71"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="309"/>
-      <c r="B28" s="313"/>
+      <c r="A28" s="210"/>
+      <c r="B28" s="214"/>
       <c r="C28" s="94" t="s">
         <v>150</v>
       </c>
@@ -8034,8 +7418,8 @@
       <c r="Q28" s="71"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="309"/>
-      <c r="B29" s="313"/>
+      <c r="A29" s="210"/>
+      <c r="B29" s="214"/>
       <c r="C29" s="94" t="s">
         <v>151</v>
       </c>
@@ -8077,8 +7461,8 @@
       <c r="Q29" s="71"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="309"/>
-      <c r="B30" s="313"/>
+      <c r="A30" s="210"/>
+      <c r="B30" s="214"/>
       <c r="C30" s="94" t="s">
         <v>157</v>
       </c>
@@ -8120,8 +7504,8 @@
       <c r="Q30" s="71"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="309"/>
-      <c r="B31" s="313"/>
+      <c r="A31" s="210"/>
+      <c r="B31" s="214"/>
       <c r="C31" s="94" t="s">
         <v>158</v>
       </c>
@@ -8163,8 +7547,8 @@
       <c r="Q31" s="71"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="309"/>
-      <c r="B32" s="313"/>
+      <c r="A32" s="210"/>
+      <c r="B32" s="214"/>
       <c r="C32" s="94" t="s">
         <v>159</v>
       </c>
@@ -8206,8 +7590,8 @@
       <c r="Q32" s="71"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="309"/>
-      <c r="B33" s="314"/>
+      <c r="A33" s="210"/>
+      <c r="B33" s="215"/>
       <c r="C33" s="94" t="s">
         <v>160</v>
       </c>
@@ -8249,7 +7633,7 @@
       <c r="Q33" s="71"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="309"/>
+      <c r="A34" s="210"/>
       <c r="B34" s="95" t="s">
         <v>182</v>
       </c>
@@ -8282,7 +7666,7 @@
       <c r="Q34" s="71"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="309"/>
+      <c r="A35" s="210"/>
       <c r="B35" s="94" t="s">
         <v>161</v>
       </c>
@@ -8315,7 +7699,7 @@
       <c r="Q35" s="71"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="309"/>
+      <c r="A36" s="210"/>
       <c r="B36" s="94" t="s">
         <v>162</v>
       </c>
@@ -8348,7 +7732,7 @@
       <c r="Q36" s="71"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="309"/>
+      <c r="A37" s="210"/>
       <c r="B37" s="94" t="s">
         <v>163</v>
       </c>
@@ -8381,7 +7765,7 @@
       <c r="Q37" s="71"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="310"/>
+      <c r="A38" s="211"/>
       <c r="B38" s="110"/>
       <c r="C38" s="110"/>
       <c r="D38" s="110">
@@ -8410,7 +7794,7 @@
       <c r="Q38" s="109"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="310"/>
+      <c r="A39" s="211"/>
       <c r="B39" s="110"/>
       <c r="C39" s="110"/>
       <c r="D39" s="110">
@@ -8439,7 +7823,7 @@
       <c r="Q39" s="109"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="310"/>
+      <c r="A40" s="211"/>
       <c r="B40" s="110"/>
       <c r="C40" s="110"/>
       <c r="D40" s="110">
@@ -8468,7 +7852,7 @@
       <c r="Q40" s="109"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="310"/>
+      <c r="A41" s="211"/>
       <c r="B41" s="110"/>
       <c r="C41" s="110"/>
       <c r="D41" s="110">
@@ -8497,7 +7881,7 @@
       <c r="Q41" s="109"/>
     </row>
     <row r="42" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="311"/>
+      <c r="A42" s="212"/>
       <c r="B42" s="97" t="s">
         <v>184</v>
       </c>
@@ -8530,7 +7914,7 @@
       <c r="Q42" s="75"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="315" t="s">
+      <c r="A43" s="216" t="s">
         <v>165</v>
       </c>
       <c r="B43" s="98" t="s">
@@ -8565,7 +7949,7 @@
       <c r="Q43" s="81"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="316"/>
+      <c r="A44" s="217"/>
       <c r="B44" s="99" t="s">
         <v>167</v>
       </c>
@@ -8598,7 +7982,7 @@
       <c r="Q44" s="71"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="316"/>
+      <c r="A45" s="217"/>
       <c r="B45" s="99" t="s">
         <v>108</v>
       </c>
@@ -8631,7 +8015,7 @@
       <c r="Q45" s="71"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="316"/>
+      <c r="A46" s="217"/>
       <c r="B46" s="99"/>
       <c r="C46" s="99" t="s">
         <v>145</v>
@@ -8662,7 +8046,7 @@
       <c r="Q46" s="71"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="316"/>
+      <c r="A47" s="217"/>
       <c r="B47" s="99"/>
       <c r="C47" s="99" t="s">
         <v>146</v>
@@ -8693,7 +8077,7 @@
       <c r="Q47" s="71"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="316"/>
+      <c r="A48" s="217"/>
       <c r="B48" s="99"/>
       <c r="C48" s="99" t="s">
         <v>147</v>
@@ -8724,7 +8108,7 @@
       <c r="Q48" s="71"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="316"/>
+      <c r="A49" s="217"/>
       <c r="B49" s="99"/>
       <c r="C49" s="99" t="s">
         <v>148</v>
@@ -8755,7 +8139,7 @@
       <c r="Q49" s="71"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="316"/>
+      <c r="A50" s="217"/>
       <c r="B50" s="99"/>
       <c r="C50" s="99" t="s">
         <v>149</v>
@@ -8786,7 +8170,7 @@
       <c r="Q50" s="71"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="316"/>
+      <c r="A51" s="217"/>
       <c r="B51" s="99"/>
       <c r="C51" s="99" t="s">
         <v>150</v>
@@ -8817,7 +8201,7 @@
       <c r="Q51" s="71"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="316"/>
+      <c r="A52" s="217"/>
       <c r="B52" s="99"/>
       <c r="C52" s="99" t="s">
         <v>151</v>
@@ -8848,7 +8232,7 @@
       <c r="Q52" s="71"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="316"/>
+      <c r="A53" s="217"/>
       <c r="B53" s="99" t="s">
         <v>182</v>
       </c>
@@ -8881,7 +8265,7 @@
       <c r="Q53" s="71"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="316"/>
+      <c r="A54" s="217"/>
       <c r="B54" s="99" t="s">
         <v>168</v>
       </c>
@@ -8914,7 +8298,7 @@
       <c r="Q54" s="71"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="316"/>
+      <c r="A55" s="217"/>
       <c r="B55" s="99" t="s">
         <v>169</v>
       </c>
@@ -8947,7 +8331,7 @@
       <c r="Q55" s="71"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="317"/>
+      <c r="A56" s="218"/>
       <c r="B56" s="111"/>
       <c r="C56" s="111"/>
       <c r="D56" s="111">
@@ -8974,7 +8358,7 @@
       <c r="Q56" s="109"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="317"/>
+      <c r="A57" s="218"/>
       <c r="B57" s="111"/>
       <c r="C57" s="111"/>
       <c r="D57" s="111">
@@ -9001,7 +8385,7 @@
       <c r="Q57" s="109"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="317"/>
+      <c r="A58" s="218"/>
       <c r="B58" s="111"/>
       <c r="C58" s="111"/>
       <c r="D58" s="111">
@@ -9028,7 +8412,7 @@
       <c r="Q58" s="109"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="317"/>
+      <c r="A59" s="218"/>
       <c r="B59" s="111"/>
       <c r="C59" s="111"/>
       <c r="D59" s="111">
@@ -9055,7 +8439,7 @@
       <c r="Q59" s="109"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="318"/>
+      <c r="A60" s="219"/>
       <c r="B60" s="100" t="s">
         <v>181</v>
       </c>
@@ -9088,7 +8472,7 @@
       <c r="Q60" s="75"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="300" t="s">
+      <c r="A61" s="201" t="s">
         <v>170</v>
       </c>
       <c r="B61" s="101" t="s">
@@ -9123,7 +8507,7 @@
       <c r="Q61" s="81"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="301"/>
+      <c r="A62" s="202"/>
       <c r="B62" s="102" t="s">
         <v>171</v>
       </c>
@@ -9156,7 +8540,7 @@
       <c r="Q62" s="87"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="302"/>
+      <c r="A63" s="203"/>
       <c r="B63" s="103" t="s">
         <v>172</v>
       </c>
@@ -9189,7 +8573,7 @@
       <c r="Q63" s="71"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="302"/>
+      <c r="A64" s="203"/>
       <c r="B64" s="103" t="s">
         <v>173</v>
       </c>
@@ -9222,7 +8606,7 @@
       <c r="Q64" s="71"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="302"/>
+      <c r="A65" s="203"/>
       <c r="B65" s="103" t="s">
         <v>174</v>
       </c>
@@ -9255,7 +8639,7 @@
       <c r="Q65" s="71"/>
     </row>
     <row r="66" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="303"/>
+      <c r="A66" s="204"/>
       <c r="B66" s="104" t="s">
         <v>175</v>
       </c>
@@ -13563,22 +12947,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="287">
+      <c r="A2" s="302">
         <v>50024</v>
       </c>
-      <c r="B2" s="289" t="s">
+      <c r="B2" s="304" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="291" t="s">
+      <c r="C2" s="310" t="s">
         <v>379</v>
       </c>
-      <c r="D2" s="277">
+      <c r="D2" s="295">
         <v>1110372</v>
       </c>
-      <c r="E2" s="277">
+      <c r="E2" s="295">
         <v>11</v>
       </c>
-      <c r="F2" s="283">
+      <c r="F2" s="312">
         <v>6</v>
       </c>
       <c r="G2" s="124" t="s">
@@ -13593,53 +12977,53 @@
       <c r="J2" s="125">
         <v>6</v>
       </c>
-      <c r="K2" s="285" t="s">
+      <c r="K2" s="317" t="s">
         <v>381</v>
       </c>
-      <c r="L2" s="281" t="s">
+      <c r="L2" s="300" t="s">
         <v>381</v>
       </c>
-      <c r="M2" s="281" t="s">
+      <c r="M2" s="300" t="s">
         <v>381</v>
       </c>
-      <c r="N2" s="281" t="s">
+      <c r="N2" s="300" t="s">
         <v>381</v>
       </c>
-      <c r="O2" s="281" t="s">
+      <c r="O2" s="300" t="s">
         <v>381</v>
       </c>
-      <c r="P2" s="277" t="s">
+      <c r="P2" s="295" t="s">
         <v>382</v>
       </c>
-      <c r="Q2" s="277">
+      <c r="Q2" s="295">
         <v>1</v>
       </c>
-      <c r="R2" s="277" t="s">
+      <c r="R2" s="295" t="s">
         <v>383</v>
       </c>
-      <c r="S2" s="280">
+      <c r="S2" s="316">
         <v>45134</v>
       </c>
-      <c r="T2" s="277" t="s">
+      <c r="T2" s="295" t="s">
         <v>384</v>
       </c>
-      <c r="U2" s="277" t="s">
+      <c r="U2" s="295" t="s">
         <v>385</v>
       </c>
-      <c r="V2" s="277">
+      <c r="V2" s="295">
         <v>120</v>
       </c>
-      <c r="W2" s="277" t="s">
+      <c r="W2" s="295" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="288"/>
-      <c r="B3" s="290"/>
-      <c r="C3" s="292"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="284"/>
+      <c r="A3" s="303"/>
+      <c r="B3" s="305"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="313"/>
       <c r="G3" s="126" t="s">
         <v>387</v>
       </c>
@@ -13652,37 +13036,37 @@
       <c r="J3" s="126">
         <v>6</v>
       </c>
-      <c r="K3" s="286"/>
-      <c r="L3" s="282"/>
-      <c r="M3" s="282"/>
-      <c r="N3" s="282"/>
-      <c r="O3" s="282"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
+      <c r="K3" s="318"/>
+      <c r="L3" s="301"/>
+      <c r="M3" s="301"/>
+      <c r="N3" s="301"/>
+      <c r="O3" s="301"/>
+      <c r="P3" s="230"/>
+      <c r="Q3" s="230"/>
+      <c r="R3" s="230"/>
+      <c r="S3" s="230"/>
+      <c r="T3" s="230"/>
+      <c r="U3" s="230"/>
+      <c r="V3" s="230"/>
+      <c r="W3" s="230"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="278">
+      <c r="A4" s="314">
         <v>50025</v>
       </c>
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="223" t="s">
         <v>388</v>
       </c>
-      <c r="C4" s="196" t="s">
+      <c r="C4" s="220" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="196">
+      <c r="D4" s="220">
         <v>1110372</v>
       </c>
-      <c r="E4" s="196">
+      <c r="E4" s="220">
         <v>1</v>
       </c>
-      <c r="F4" s="196">
+      <c r="F4" s="220">
         <v>6</v>
       </c>
       <c r="G4" s="127" t="s">
@@ -13697,53 +13081,53 @@
       <c r="J4" s="128">
         <v>6</v>
       </c>
-      <c r="K4" s="279" t="s">
+      <c r="K4" s="315" t="s">
         <v>381</v>
       </c>
-      <c r="L4" s="196" t="s">
+      <c r="L4" s="220" t="s">
         <v>381</v>
       </c>
-      <c r="M4" s="196" t="s">
+      <c r="M4" s="220" t="s">
         <v>381</v>
       </c>
-      <c r="N4" s="196" t="s">
+      <c r="N4" s="220" t="s">
         <v>381</v>
       </c>
-      <c r="O4" s="196" t="s">
+      <c r="O4" s="220" t="s">
         <v>381</v>
       </c>
-      <c r="P4" s="196" t="s">
+      <c r="P4" s="220" t="s">
         <v>382</v>
       </c>
-      <c r="Q4" s="196">
+      <c r="Q4" s="220">
         <v>2</v>
       </c>
-      <c r="R4" s="196" t="s">
+      <c r="R4" s="220" t="s">
         <v>383</v>
       </c>
-      <c r="S4" s="195">
+      <c r="S4" s="225">
         <v>45134</v>
       </c>
-      <c r="T4" s="196" t="s">
+      <c r="T4" s="220" t="s">
         <v>384</v>
       </c>
-      <c r="U4" s="196" t="s">
+      <c r="U4" s="220" t="s">
         <v>389</v>
       </c>
-      <c r="V4" s="196">
+      <c r="V4" s="220">
         <v>12</v>
       </c>
-      <c r="W4" s="196" t="s">
+      <c r="W4" s="220" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="278"/>
-      <c r="B5" s="209"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
+      <c r="A5" s="314"/>
+      <c r="B5" s="223"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
       <c r="G5" s="129" t="s">
         <v>387</v>
       </c>
@@ -13756,37 +13140,37 @@
       <c r="J5" s="130">
         <v>6</v>
       </c>
-      <c r="K5" s="279"/>
-      <c r="L5" s="196"/>
-      <c r="M5" s="196"/>
-      <c r="N5" s="196"/>
-      <c r="O5" s="196"/>
-      <c r="P5" s="196"/>
-      <c r="Q5" s="196"/>
-      <c r="R5" s="196"/>
-      <c r="S5" s="196"/>
-      <c r="T5" s="196"/>
-      <c r="U5" s="196"/>
-      <c r="V5" s="196"/>
-      <c r="W5" s="196"/>
+      <c r="K5" s="315"/>
+      <c r="L5" s="220"/>
+      <c r="M5" s="220"/>
+      <c r="N5" s="220"/>
+      <c r="O5" s="220"/>
+      <c r="P5" s="220"/>
+      <c r="Q5" s="220"/>
+      <c r="R5" s="220"/>
+      <c r="S5" s="220"/>
+      <c r="T5" s="220"/>
+      <c r="U5" s="220"/>
+      <c r="V5" s="220"/>
+      <c r="W5" s="220"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="212">
+      <c r="A6" s="237">
         <v>50026</v>
       </c>
-      <c r="B6" s="270" t="s">
+      <c r="B6" s="306" t="s">
         <v>390</v>
       </c>
-      <c r="C6" s="202" t="s">
+      <c r="C6" s="231" t="s">
         <v>391</v>
       </c>
-      <c r="D6" s="203">
+      <c r="D6" s="229">
         <v>1110373</v>
       </c>
-      <c r="E6" s="202">
+      <c r="E6" s="231">
         <v>11</v>
       </c>
-      <c r="F6" s="272">
+      <c r="F6" s="308">
         <v>6</v>
       </c>
       <c r="G6" s="132" t="s">
@@ -13801,53 +13185,53 @@
       <c r="J6" s="135">
         <v>6</v>
       </c>
-      <c r="K6" s="274" t="s">
+      <c r="K6" s="292" t="s">
         <v>381</v>
       </c>
-      <c r="L6" s="202" t="s">
+      <c r="L6" s="231" t="s">
         <v>381</v>
       </c>
-      <c r="M6" s="202" t="s">
+      <c r="M6" s="231" t="s">
         <v>381</v>
       </c>
-      <c r="N6" s="202" t="s">
+      <c r="N6" s="231" t="s">
         <v>381</v>
       </c>
-      <c r="O6" s="276" t="s">
+      <c r="O6" s="294" t="s">
         <v>381</v>
       </c>
-      <c r="P6" s="277" t="s">
+      <c r="P6" s="295" t="s">
         <v>382</v>
       </c>
-      <c r="Q6" s="202">
+      <c r="Q6" s="231">
         <v>3</v>
       </c>
-      <c r="R6" s="202" t="s">
+      <c r="R6" s="231" t="s">
         <v>383</v>
       </c>
-      <c r="S6" s="215">
+      <c r="S6" s="228">
         <v>45134</v>
       </c>
-      <c r="T6" s="202" t="s">
+      <c r="T6" s="231" t="s">
         <v>384</v>
       </c>
-      <c r="U6" s="202" t="s">
+      <c r="U6" s="231" t="s">
         <v>385</v>
       </c>
-      <c r="V6" s="202">
+      <c r="V6" s="231">
         <v>120</v>
       </c>
-      <c r="W6" s="202" t="s">
+      <c r="W6" s="231" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="213"/>
-      <c r="B7" s="271"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="273"/>
+      <c r="A7" s="238"/>
+      <c r="B7" s="307"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="309"/>
       <c r="G7" s="137" t="s">
         <v>387</v>
       </c>
@@ -13860,37 +13244,37 @@
       <c r="J7" s="139">
         <v>6</v>
       </c>
-      <c r="K7" s="275"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="224"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="261"/>
-      <c r="R7" s="261"/>
-      <c r="S7" s="203"/>
-      <c r="T7" s="261"/>
-      <c r="U7" s="261"/>
-      <c r="V7" s="261"/>
-      <c r="W7" s="261"/>
+      <c r="K7" s="293"/>
+      <c r="L7" s="229"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
+      <c r="O7" s="260"/>
+      <c r="P7" s="229"/>
+      <c r="Q7" s="291"/>
+      <c r="R7" s="291"/>
+      <c r="S7" s="229"/>
+      <c r="T7" s="291"/>
+      <c r="U7" s="291"/>
+      <c r="V7" s="291"/>
+      <c r="W7" s="291"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="216">
+      <c r="A8" s="241">
         <v>50027</v>
       </c>
-      <c r="B8" s="262" t="s">
+      <c r="B8" s="296" t="s">
         <v>393</v>
       </c>
-      <c r="C8" s="207" t="s">
+      <c r="C8" s="226" t="s">
         <v>391</v>
       </c>
-      <c r="D8" s="196">
+      <c r="D8" s="220">
         <v>1110373</v>
       </c>
-      <c r="E8" s="207">
+      <c r="E8" s="226">
         <v>1</v>
       </c>
-      <c r="F8" s="207">
+      <c r="F8" s="226">
         <v>6</v>
       </c>
       <c r="G8" s="141" t="s">
@@ -13905,53 +13289,53 @@
       <c r="J8" s="143">
         <v>6</v>
       </c>
-      <c r="K8" s="264" t="s">
+      <c r="K8" s="298" t="s">
         <v>381</v>
       </c>
-      <c r="L8" s="266" t="s">
+      <c r="L8" s="286" t="s">
         <v>381</v>
       </c>
-      <c r="M8" s="266" t="s">
+      <c r="M8" s="286" t="s">
         <v>381</v>
       </c>
-      <c r="N8" s="266" t="s">
+      <c r="N8" s="286" t="s">
         <v>381</v>
       </c>
-      <c r="O8" s="268" t="s">
+      <c r="O8" s="288" t="s">
         <v>381</v>
       </c>
-      <c r="P8" s="216" t="s">
+      <c r="P8" s="241" t="s">
         <v>382</v>
       </c>
-      <c r="Q8" s="207">
+      <c r="Q8" s="226">
         <v>4</v>
       </c>
-      <c r="R8" s="207" t="s">
+      <c r="R8" s="226" t="s">
         <v>383</v>
       </c>
-      <c r="S8" s="211">
+      <c r="S8" s="240">
         <v>45134</v>
       </c>
-      <c r="T8" s="207" t="s">
+      <c r="T8" s="226" t="s">
         <v>384</v>
       </c>
-      <c r="U8" s="207" t="s">
+      <c r="U8" s="226" t="s">
         <v>389</v>
       </c>
-      <c r="V8" s="207">
+      <c r="V8" s="226">
         <v>12</v>
       </c>
-      <c r="W8" s="207" t="s">
+      <c r="W8" s="226" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="217"/>
-      <c r="B9" s="263"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="198"/>
-      <c r="F9" s="198"/>
+      <c r="A9" s="242"/>
+      <c r="B9" s="297"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="222"/>
       <c r="G9" s="144" t="s">
         <v>387</v>
       </c>
@@ -13964,55 +13348,55 @@
       <c r="J9" s="145">
         <v>6</v>
       </c>
-      <c r="K9" s="265"/>
-      <c r="L9" s="267"/>
-      <c r="M9" s="267"/>
-      <c r="N9" s="267"/>
-      <c r="O9" s="269"/>
-      <c r="P9" s="217"/>
-      <c r="Q9" s="198"/>
-      <c r="R9" s="198"/>
-      <c r="S9" s="198"/>
-      <c r="T9" s="198"/>
-      <c r="U9" s="198"/>
-      <c r="V9" s="198"/>
-      <c r="W9" s="198"/>
+      <c r="K9" s="299"/>
+      <c r="L9" s="287"/>
+      <c r="M9" s="287"/>
+      <c r="N9" s="287"/>
+      <c r="O9" s="289"/>
+      <c r="P9" s="242"/>
+      <c r="Q9" s="222"/>
+      <c r="R9" s="222"/>
+      <c r="S9" s="222"/>
+      <c r="T9" s="222"/>
+      <c r="U9" s="222"/>
+      <c r="V9" s="222"/>
+      <c r="W9" s="222"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="293">
+      <c r="A10" s="283">
         <v>10315</v>
       </c>
-      <c r="B10" s="252" t="s">
+      <c r="B10" s="277" t="s">
         <v>394</v>
       </c>
-      <c r="C10" s="254" t="s">
+      <c r="C10" s="284" t="s">
         <v>395</v>
       </c>
-      <c r="D10" s="254">
+      <c r="D10" s="284">
         <v>1110374</v>
       </c>
-      <c r="E10" s="258">
+      <c r="E10" s="285">
         <v>1</v>
       </c>
-      <c r="F10" s="238">
+      <c r="F10" s="262">
         <v>6</v>
       </c>
-      <c r="G10" s="259" t="s">
+      <c r="G10" s="281" t="s">
         <v>396</v>
       </c>
-      <c r="H10" s="237">
+      <c r="H10" s="270">
         <v>1110387</v>
       </c>
-      <c r="I10" s="238">
+      <c r="I10" s="262">
         <v>11</v>
       </c>
-      <c r="J10" s="238">
+      <c r="J10" s="262">
         <v>6</v>
       </c>
       <c r="K10" s="147" t="s">
         <v>379</v>
       </c>
-      <c r="L10" s="237">
+      <c r="L10" s="270">
         <v>1110372</v>
       </c>
       <c r="M10" s="147">
@@ -14021,165 +13405,165 @@
       <c r="N10" s="148">
         <v>0.85</v>
       </c>
-      <c r="O10" s="237">
+      <c r="O10" s="270">
         <v>6</v>
       </c>
-      <c r="P10" s="237" t="s">
+      <c r="P10" s="270" t="s">
         <v>397</v>
       </c>
-      <c r="Q10" s="254">
+      <c r="Q10" s="284">
         <v>26</v>
       </c>
-      <c r="R10" s="254" t="s">
+      <c r="R10" s="284" t="s">
         <v>383</v>
       </c>
-      <c r="S10" s="257">
+      <c r="S10" s="290">
         <v>45134</v>
       </c>
-      <c r="T10" s="257">
+      <c r="T10" s="290">
         <v>45148</v>
       </c>
-      <c r="U10" s="254" t="s">
+      <c r="U10" s="284" t="s">
         <v>385</v>
       </c>
-      <c r="V10" s="254">
+      <c r="V10" s="284">
         <v>120</v>
       </c>
-      <c r="W10" s="254" t="s">
+      <c r="W10" s="284" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="293"/>
-      <c r="B11" s="252"/>
-      <c r="C11" s="254"/>
-      <c r="D11" s="254"/>
-      <c r="E11" s="258"/>
-      <c r="F11" s="238"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="238"/>
-      <c r="I11" s="238"/>
-      <c r="J11" s="238"/>
+      <c r="A11" s="283"/>
+      <c r="B11" s="277"/>
+      <c r="C11" s="284"/>
+      <c r="D11" s="284"/>
+      <c r="E11" s="285"/>
+      <c r="F11" s="262"/>
+      <c r="G11" s="281"/>
+      <c r="H11" s="262"/>
+      <c r="I11" s="262"/>
+      <c r="J11" s="262"/>
       <c r="K11" s="149" t="s">
         <v>379</v>
       </c>
-      <c r="L11" s="238"/>
+      <c r="L11" s="262"/>
       <c r="M11" s="150">
         <v>2</v>
       </c>
       <c r="N11" s="151">
         <v>0.06</v>
       </c>
-      <c r="O11" s="238"/>
-      <c r="P11" s="238"/>
-      <c r="Q11" s="254"/>
-      <c r="R11" s="254"/>
-      <c r="S11" s="252"/>
-      <c r="T11" s="252"/>
-      <c r="U11" s="254"/>
-      <c r="V11" s="254"/>
-      <c r="W11" s="254"/>
+      <c r="O11" s="262"/>
+      <c r="P11" s="262"/>
+      <c r="Q11" s="284"/>
+      <c r="R11" s="284"/>
+      <c r="S11" s="277"/>
+      <c r="T11" s="277"/>
+      <c r="U11" s="284"/>
+      <c r="V11" s="284"/>
+      <c r="W11" s="284"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="293"/>
-      <c r="B12" s="252"/>
-      <c r="C12" s="254"/>
-      <c r="D12" s="254"/>
-      <c r="E12" s="258"/>
-      <c r="F12" s="238"/>
-      <c r="G12" s="259"/>
-      <c r="H12" s="238"/>
-      <c r="I12" s="238"/>
-      <c r="J12" s="238"/>
+      <c r="A12" s="283"/>
+      <c r="B12" s="277"/>
+      <c r="C12" s="284"/>
+      <c r="D12" s="284"/>
+      <c r="E12" s="285"/>
+      <c r="F12" s="262"/>
+      <c r="G12" s="281"/>
+      <c r="H12" s="262"/>
+      <c r="I12" s="262"/>
+      <c r="J12" s="262"/>
       <c r="K12" s="152" t="s">
         <v>379</v>
       </c>
-      <c r="L12" s="238"/>
+      <c r="L12" s="262"/>
       <c r="M12" s="153">
         <v>3</v>
       </c>
       <c r="N12" s="151">
         <v>0.04</v>
       </c>
-      <c r="O12" s="238"/>
-      <c r="P12" s="238"/>
-      <c r="Q12" s="254"/>
-      <c r="R12" s="254"/>
-      <c r="S12" s="252"/>
-      <c r="T12" s="252"/>
-      <c r="U12" s="254"/>
-      <c r="V12" s="254"/>
-      <c r="W12" s="254"/>
+      <c r="O12" s="262"/>
+      <c r="P12" s="262"/>
+      <c r="Q12" s="284"/>
+      <c r="R12" s="284"/>
+      <c r="S12" s="277"/>
+      <c r="T12" s="277"/>
+      <c r="U12" s="284"/>
+      <c r="V12" s="284"/>
+      <c r="W12" s="284"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="293"/>
-      <c r="B13" s="252"/>
-      <c r="C13" s="254"/>
-      <c r="D13" s="254"/>
-      <c r="E13" s="258"/>
-      <c r="F13" s="238"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="238"/>
-      <c r="I13" s="238"/>
-      <c r="J13" s="238"/>
+      <c r="A13" s="283"/>
+      <c r="B13" s="277"/>
+      <c r="C13" s="284"/>
+      <c r="D13" s="284"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="262"/>
+      <c r="G13" s="281"/>
+      <c r="H13" s="262"/>
+      <c r="I13" s="262"/>
+      <c r="J13" s="262"/>
       <c r="K13" s="152" t="s">
         <v>379</v>
       </c>
-      <c r="L13" s="238"/>
+      <c r="L13" s="262"/>
       <c r="M13" s="153">
         <v>4</v>
       </c>
       <c r="N13" s="151">
         <v>0.03</v>
       </c>
-      <c r="O13" s="238"/>
-      <c r="P13" s="238"/>
-      <c r="Q13" s="254"/>
-      <c r="R13" s="254"/>
-      <c r="S13" s="252"/>
-      <c r="T13" s="252"/>
-      <c r="U13" s="254"/>
-      <c r="V13" s="254"/>
-      <c r="W13" s="254"/>
+      <c r="O13" s="262"/>
+      <c r="P13" s="262"/>
+      <c r="Q13" s="284"/>
+      <c r="R13" s="284"/>
+      <c r="S13" s="277"/>
+      <c r="T13" s="277"/>
+      <c r="U13" s="284"/>
+      <c r="V13" s="284"/>
+      <c r="W13" s="284"/>
     </row>
     <row r="14" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="293"/>
-      <c r="B14" s="252"/>
-      <c r="C14" s="254"/>
-      <c r="D14" s="254"/>
-      <c r="E14" s="258"/>
-      <c r="F14" s="238"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="239"/>
-      <c r="I14" s="241"/>
-      <c r="J14" s="242"/>
+      <c r="A14" s="283"/>
+      <c r="B14" s="277"/>
+      <c r="C14" s="284"/>
+      <c r="D14" s="284"/>
+      <c r="E14" s="285"/>
+      <c r="F14" s="262"/>
+      <c r="G14" s="282"/>
+      <c r="H14" s="271"/>
+      <c r="I14" s="273"/>
+      <c r="J14" s="263"/>
       <c r="K14" s="154" t="s">
         <v>379</v>
       </c>
-      <c r="L14" s="239"/>
+      <c r="L14" s="271"/>
       <c r="M14" s="153">
         <v>5</v>
       </c>
       <c r="N14" s="151">
         <v>0.02</v>
       </c>
-      <c r="O14" s="242"/>
-      <c r="P14" s="238"/>
-      <c r="Q14" s="254"/>
-      <c r="R14" s="254"/>
-      <c r="S14" s="252"/>
-      <c r="T14" s="252"/>
-      <c r="U14" s="254"/>
-      <c r="V14" s="254"/>
-      <c r="W14" s="254"/>
+      <c r="O14" s="263"/>
+      <c r="P14" s="262"/>
+      <c r="Q14" s="284"/>
+      <c r="R14" s="284"/>
+      <c r="S14" s="277"/>
+      <c r="T14" s="277"/>
+      <c r="U14" s="284"/>
+      <c r="V14" s="284"/>
+      <c r="W14" s="284"/>
     </row>
     <row r="15" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="293"/>
-      <c r="B15" s="252"/>
-      <c r="C15" s="254"/>
-      <c r="D15" s="254"/>
-      <c r="E15" s="258"/>
-      <c r="F15" s="242"/>
+      <c r="A15" s="283"/>
+      <c r="B15" s="277"/>
+      <c r="C15" s="284"/>
+      <c r="D15" s="284"/>
+      <c r="E15" s="285"/>
+      <c r="F15" s="263"/>
       <c r="G15" s="146" t="s">
         <v>399</v>
       </c>
@@ -14207,50 +13591,50 @@
       <c r="O15" s="158" t="s">
         <v>381</v>
       </c>
-      <c r="P15" s="238"/>
-      <c r="Q15" s="254"/>
-      <c r="R15" s="254"/>
-      <c r="S15" s="252"/>
-      <c r="T15" s="252"/>
-      <c r="U15" s="254"/>
-      <c r="V15" s="254"/>
-      <c r="W15" s="254"/>
+      <c r="P15" s="262"/>
+      <c r="Q15" s="284"/>
+      <c r="R15" s="284"/>
+      <c r="S15" s="277"/>
+      <c r="T15" s="277"/>
+      <c r="U15" s="284"/>
+      <c r="V15" s="284"/>
+      <c r="W15" s="284"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="246">
+      <c r="A16" s="264">
         <v>10316</v>
       </c>
-      <c r="B16" s="237" t="s">
+      <c r="B16" s="270" t="s">
         <v>400</v>
       </c>
-      <c r="C16" s="237" t="s">
+      <c r="C16" s="270" t="s">
         <v>401</v>
       </c>
-      <c r="D16" s="237">
+      <c r="D16" s="270">
         <v>1110375</v>
       </c>
-      <c r="E16" s="237">
+      <c r="E16" s="270">
         <v>1</v>
       </c>
-      <c r="F16" s="237">
+      <c r="F16" s="270">
         <v>6</v>
       </c>
-      <c r="G16" s="237" t="s">
+      <c r="G16" s="270" t="s">
         <v>402</v>
       </c>
-      <c r="H16" s="237">
+      <c r="H16" s="270">
         <v>1110388</v>
       </c>
-      <c r="I16" s="255">
+      <c r="I16" s="279">
         <v>11</v>
       </c>
-      <c r="J16" s="237">
+      <c r="J16" s="270">
         <v>6</v>
       </c>
       <c r="K16" s="159" t="s">
         <v>403</v>
       </c>
-      <c r="L16" s="237">
+      <c r="L16" s="270">
         <v>1110373</v>
       </c>
       <c r="M16" s="159">
@@ -14259,165 +13643,165 @@
       <c r="N16" s="160">
         <v>0.85</v>
       </c>
-      <c r="O16" s="237">
+      <c r="O16" s="270">
         <v>6</v>
       </c>
-      <c r="P16" s="237" t="s">
+      <c r="P16" s="270" t="s">
         <v>397</v>
       </c>
-      <c r="Q16" s="237">
+      <c r="Q16" s="270">
         <v>27</v>
       </c>
-      <c r="R16" s="237" t="s">
+      <c r="R16" s="270" t="s">
         <v>383</v>
       </c>
-      <c r="S16" s="251">
+      <c r="S16" s="276">
         <v>45134</v>
       </c>
-      <c r="T16" s="251">
+      <c r="T16" s="276">
         <v>45148</v>
       </c>
-      <c r="U16" s="237" t="s">
+      <c r="U16" s="270" t="s">
         <v>385</v>
       </c>
-      <c r="V16" s="237">
+      <c r="V16" s="270">
         <v>120</v>
       </c>
-      <c r="W16" s="237" t="s">
+      <c r="W16" s="270" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="247"/>
-      <c r="B17" s="238"/>
-      <c r="C17" s="238"/>
-      <c r="D17" s="238"/>
-      <c r="E17" s="238"/>
-      <c r="F17" s="238"/>
-      <c r="G17" s="238"/>
-      <c r="H17" s="238"/>
-      <c r="I17" s="256"/>
-      <c r="J17" s="238"/>
+      <c r="A17" s="265"/>
+      <c r="B17" s="262"/>
+      <c r="C17" s="262"/>
+      <c r="D17" s="262"/>
+      <c r="E17" s="262"/>
+      <c r="F17" s="262"/>
+      <c r="G17" s="262"/>
+      <c r="H17" s="262"/>
+      <c r="I17" s="280"/>
+      <c r="J17" s="262"/>
       <c r="K17" s="149" t="s">
         <v>403</v>
       </c>
-      <c r="L17" s="238"/>
+      <c r="L17" s="262"/>
       <c r="M17" s="149">
         <v>2</v>
       </c>
       <c r="N17" s="161">
         <v>0.06</v>
       </c>
-      <c r="O17" s="238"/>
-      <c r="P17" s="238"/>
-      <c r="Q17" s="238"/>
-      <c r="R17" s="238"/>
-      <c r="S17" s="252"/>
-      <c r="T17" s="252"/>
-      <c r="U17" s="238"/>
-      <c r="V17" s="238"/>
-      <c r="W17" s="238"/>
+      <c r="O17" s="262"/>
+      <c r="P17" s="262"/>
+      <c r="Q17" s="262"/>
+      <c r="R17" s="262"/>
+      <c r="S17" s="277"/>
+      <c r="T17" s="277"/>
+      <c r="U17" s="262"/>
+      <c r="V17" s="262"/>
+      <c r="W17" s="262"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="247"/>
-      <c r="B18" s="238"/>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
-      <c r="E18" s="238"/>
-      <c r="F18" s="238"/>
-      <c r="G18" s="238"/>
-      <c r="H18" s="238"/>
-      <c r="I18" s="256"/>
-      <c r="J18" s="238"/>
+      <c r="A18" s="265"/>
+      <c r="B18" s="262"/>
+      <c r="C18" s="262"/>
+      <c r="D18" s="262"/>
+      <c r="E18" s="262"/>
+      <c r="F18" s="262"/>
+      <c r="G18" s="262"/>
+      <c r="H18" s="262"/>
+      <c r="I18" s="280"/>
+      <c r="J18" s="262"/>
       <c r="K18" s="162" t="s">
         <v>403</v>
       </c>
-      <c r="L18" s="238"/>
+      <c r="L18" s="262"/>
       <c r="M18" s="162">
         <v>3</v>
       </c>
       <c r="N18" s="163">
         <v>0.04</v>
       </c>
-      <c r="O18" s="238"/>
-      <c r="P18" s="238"/>
-      <c r="Q18" s="238"/>
-      <c r="R18" s="238"/>
-      <c r="S18" s="252"/>
-      <c r="T18" s="252"/>
-      <c r="U18" s="238"/>
-      <c r="V18" s="238"/>
-      <c r="W18" s="238"/>
+      <c r="O18" s="262"/>
+      <c r="P18" s="262"/>
+      <c r="Q18" s="262"/>
+      <c r="R18" s="262"/>
+      <c r="S18" s="277"/>
+      <c r="T18" s="277"/>
+      <c r="U18" s="262"/>
+      <c r="V18" s="262"/>
+      <c r="W18" s="262"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="247"/>
-      <c r="B19" s="238"/>
-      <c r="C19" s="238"/>
-      <c r="D19" s="238"/>
-      <c r="E19" s="238"/>
-      <c r="F19" s="238"/>
-      <c r="G19" s="238"/>
-      <c r="H19" s="238"/>
-      <c r="I19" s="256"/>
-      <c r="J19" s="238"/>
+      <c r="A19" s="265"/>
+      <c r="B19" s="262"/>
+      <c r="C19" s="262"/>
+      <c r="D19" s="262"/>
+      <c r="E19" s="262"/>
+      <c r="F19" s="262"/>
+      <c r="G19" s="262"/>
+      <c r="H19" s="262"/>
+      <c r="I19" s="280"/>
+      <c r="J19" s="262"/>
       <c r="K19" s="162" t="s">
         <v>403</v>
       </c>
-      <c r="L19" s="238"/>
+      <c r="L19" s="262"/>
       <c r="M19" s="162">
         <v>4</v>
       </c>
       <c r="N19" s="163">
         <v>0.03</v>
       </c>
-      <c r="O19" s="238"/>
-      <c r="P19" s="238"/>
-      <c r="Q19" s="238"/>
-      <c r="R19" s="238"/>
-      <c r="S19" s="252"/>
-      <c r="T19" s="252"/>
-      <c r="U19" s="238"/>
-      <c r="V19" s="238"/>
-      <c r="W19" s="238"/>
+      <c r="O19" s="262"/>
+      <c r="P19" s="262"/>
+      <c r="Q19" s="262"/>
+      <c r="R19" s="262"/>
+      <c r="S19" s="277"/>
+      <c r="T19" s="277"/>
+      <c r="U19" s="262"/>
+      <c r="V19" s="262"/>
+      <c r="W19" s="262"/>
     </row>
     <row r="20" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="247"/>
-      <c r="B20" s="238"/>
-      <c r="C20" s="238"/>
-      <c r="D20" s="238"/>
-      <c r="E20" s="238"/>
-      <c r="F20" s="238"/>
-      <c r="G20" s="241"/>
-      <c r="H20" s="239"/>
-      <c r="I20" s="256"/>
-      <c r="J20" s="242"/>
+      <c r="A20" s="265"/>
+      <c r="B20" s="262"/>
+      <c r="C20" s="262"/>
+      <c r="D20" s="262"/>
+      <c r="E20" s="262"/>
+      <c r="F20" s="262"/>
+      <c r="G20" s="273"/>
+      <c r="H20" s="271"/>
+      <c r="I20" s="280"/>
+      <c r="J20" s="263"/>
       <c r="K20" s="162" t="s">
         <v>403</v>
       </c>
-      <c r="L20" s="239"/>
+      <c r="L20" s="271"/>
       <c r="M20" s="158">
         <v>5</v>
       </c>
       <c r="N20" s="164">
         <v>0.02</v>
       </c>
-      <c r="O20" s="241"/>
-      <c r="P20" s="238"/>
-      <c r="Q20" s="238"/>
-      <c r="R20" s="238"/>
-      <c r="S20" s="252"/>
-      <c r="T20" s="252"/>
-      <c r="U20" s="238"/>
-      <c r="V20" s="238"/>
-      <c r="W20" s="238"/>
+      <c r="O20" s="273"/>
+      <c r="P20" s="262"/>
+      <c r="Q20" s="262"/>
+      <c r="R20" s="262"/>
+      <c r="S20" s="277"/>
+      <c r="T20" s="277"/>
+      <c r="U20" s="262"/>
+      <c r="V20" s="262"/>
+      <c r="W20" s="262"/>
     </row>
     <row r="21" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="248"/>
-      <c r="B21" s="239"/>
-      <c r="C21" s="239"/>
-      <c r="D21" s="239"/>
-      <c r="E21" s="239"/>
-      <c r="F21" s="239"/>
+      <c r="A21" s="266"/>
+      <c r="B21" s="271"/>
+      <c r="C21" s="271"/>
+      <c r="D21" s="271"/>
+      <c r="E21" s="271"/>
+      <c r="F21" s="271"/>
       <c r="G21" s="165" t="s">
         <v>399</v>
       </c>
@@ -14445,20 +13829,20 @@
       <c r="O21" s="165" t="s">
         <v>381</v>
       </c>
-      <c r="P21" s="239"/>
-      <c r="Q21" s="239"/>
-      <c r="R21" s="239"/>
-      <c r="S21" s="253"/>
-      <c r="T21" s="253"/>
-      <c r="U21" s="239"/>
-      <c r="V21" s="239"/>
-      <c r="W21" s="239"/>
+      <c r="P21" s="271"/>
+      <c r="Q21" s="271"/>
+      <c r="R21" s="271"/>
+      <c r="S21" s="278"/>
+      <c r="T21" s="278"/>
+      <c r="U21" s="271"/>
+      <c r="V21" s="271"/>
+      <c r="W21" s="271"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="247">
+      <c r="A22" s="265">
         <v>70021</v>
       </c>
-      <c r="B22" s="244" t="s">
+      <c r="B22" s="268" t="s">
         <v>404</v>
       </c>
       <c r="C22" s="152" t="s">
@@ -14485,59 +13869,59 @@
       <c r="J22" s="146" t="s">
         <v>381</v>
       </c>
-      <c r="K22" s="238" t="s">
+      <c r="K22" s="262" t="s">
         <v>381</v>
       </c>
-      <c r="L22" s="238" t="s">
+      <c r="L22" s="262" t="s">
         <v>381</v>
       </c>
-      <c r="M22" s="238" t="s">
+      <c r="M22" s="262" t="s">
         <v>381</v>
       </c>
-      <c r="N22" s="238" t="s">
+      <c r="N22" s="262" t="s">
         <v>381</v>
       </c>
-      <c r="O22" s="238" t="s">
+      <c r="O22" s="262" t="s">
         <v>381</v>
       </c>
-      <c r="P22" s="238" t="s">
+      <c r="P22" s="262" t="s">
         <v>406</v>
       </c>
-      <c r="Q22" s="238">
+      <c r="Q22" s="262">
         <v>8</v>
       </c>
-      <c r="R22" s="238" t="s">
+      <c r="R22" s="262" t="s">
         <v>383</v>
       </c>
-      <c r="S22" s="250">
+      <c r="S22" s="275">
         <v>45134</v>
       </c>
-      <c r="T22" s="250">
+      <c r="T22" s="275">
         <v>45148</v>
       </c>
-      <c r="U22" s="238" t="s">
+      <c r="U22" s="262" t="s">
         <v>407</v>
       </c>
-      <c r="V22" s="238">
+      <c r="V22" s="262">
         <v>0</v>
       </c>
-      <c r="W22" s="238" t="s">
+      <c r="W22" s="262" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="247"/>
-      <c r="B23" s="244"/>
-      <c r="C23" s="238" t="s">
+      <c r="A23" s="265"/>
+      <c r="B23" s="268"/>
+      <c r="C23" s="262" t="s">
         <v>409</v>
       </c>
-      <c r="D23" s="238">
+      <c r="D23" s="262">
         <v>1110269</v>
       </c>
-      <c r="E23" s="238">
+      <c r="E23" s="262">
         <v>1</v>
       </c>
-      <c r="F23" s="238">
+      <c r="F23" s="262">
         <v>6</v>
       </c>
       <c r="G23" s="152" t="s">
@@ -14552,27 +13936,27 @@
       <c r="J23" s="149">
         <v>6</v>
       </c>
-      <c r="K23" s="238"/>
-      <c r="L23" s="238"/>
-      <c r="M23" s="238"/>
-      <c r="N23" s="238"/>
-      <c r="O23" s="238"/>
-      <c r="P23" s="238"/>
-      <c r="Q23" s="238"/>
-      <c r="R23" s="238"/>
-      <c r="S23" s="244"/>
-      <c r="T23" s="244"/>
-      <c r="U23" s="238"/>
-      <c r="V23" s="238"/>
-      <c r="W23" s="238"/>
+      <c r="K23" s="262"/>
+      <c r="L23" s="262"/>
+      <c r="M23" s="262"/>
+      <c r="N23" s="262"/>
+      <c r="O23" s="262"/>
+      <c r="P23" s="262"/>
+      <c r="Q23" s="262"/>
+      <c r="R23" s="262"/>
+      <c r="S23" s="268"/>
+      <c r="T23" s="268"/>
+      <c r="U23" s="262"/>
+      <c r="V23" s="262"/>
+      <c r="W23" s="262"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="247"/>
-      <c r="B24" s="244"/>
-      <c r="C24" s="238"/>
-      <c r="D24" s="238"/>
-      <c r="E24" s="238"/>
-      <c r="F24" s="238"/>
+      <c r="A24" s="265"/>
+      <c r="B24" s="268"/>
+      <c r="C24" s="262"/>
+      <c r="D24" s="262"/>
+      <c r="E24" s="262"/>
+      <c r="F24" s="262"/>
       <c r="G24" s="152" t="s">
         <v>411</v>
       </c>
@@ -14585,27 +13969,27 @@
       <c r="J24" s="152">
         <v>6</v>
       </c>
-      <c r="K24" s="238"/>
-      <c r="L24" s="238"/>
-      <c r="M24" s="238"/>
-      <c r="N24" s="238"/>
-      <c r="O24" s="238"/>
-      <c r="P24" s="238"/>
-      <c r="Q24" s="238"/>
-      <c r="R24" s="238"/>
-      <c r="S24" s="244"/>
-      <c r="T24" s="244"/>
-      <c r="U24" s="238"/>
-      <c r="V24" s="238"/>
-      <c r="W24" s="238"/>
+      <c r="K24" s="262"/>
+      <c r="L24" s="262"/>
+      <c r="M24" s="262"/>
+      <c r="N24" s="262"/>
+      <c r="O24" s="262"/>
+      <c r="P24" s="262"/>
+      <c r="Q24" s="262"/>
+      <c r="R24" s="262"/>
+      <c r="S24" s="268"/>
+      <c r="T24" s="268"/>
+      <c r="U24" s="262"/>
+      <c r="V24" s="262"/>
+      <c r="W24" s="262"/>
     </row>
     <row r="25" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="248"/>
-      <c r="B25" s="245"/>
-      <c r="C25" s="239"/>
-      <c r="D25" s="239"/>
-      <c r="E25" s="239"/>
-      <c r="F25" s="239"/>
+      <c r="A25" s="266"/>
+      <c r="B25" s="269"/>
+      <c r="C25" s="271"/>
+      <c r="D25" s="271"/>
+      <c r="E25" s="271"/>
+      <c r="F25" s="271"/>
       <c r="G25" s="165" t="s">
         <v>412</v>
       </c>
@@ -14618,25 +14002,25 @@
       <c r="J25" s="165">
         <v>6</v>
       </c>
-      <c r="K25" s="239"/>
-      <c r="L25" s="239"/>
-      <c r="M25" s="239"/>
-      <c r="N25" s="239"/>
-      <c r="O25" s="239"/>
-      <c r="P25" s="239"/>
-      <c r="Q25" s="239"/>
-      <c r="R25" s="239"/>
-      <c r="S25" s="245"/>
-      <c r="T25" s="245"/>
-      <c r="U25" s="239"/>
-      <c r="V25" s="239"/>
-      <c r="W25" s="239"/>
+      <c r="K25" s="271"/>
+      <c r="L25" s="271"/>
+      <c r="M25" s="271"/>
+      <c r="N25" s="271"/>
+      <c r="O25" s="271"/>
+      <c r="P25" s="271"/>
+      <c r="Q25" s="271"/>
+      <c r="R25" s="271"/>
+      <c r="S25" s="269"/>
+      <c r="T25" s="269"/>
+      <c r="U25" s="271"/>
+      <c r="V25" s="271"/>
+      <c r="W25" s="271"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="246">
+      <c r="A26" s="264">
         <v>70026</v>
       </c>
-      <c r="B26" s="249" t="s">
+      <c r="B26" s="267" t="s">
         <v>413</v>
       </c>
       <c r="C26" s="152" t="s">
@@ -14663,59 +14047,59 @@
       <c r="J26" s="152" t="s">
         <v>381</v>
       </c>
-      <c r="K26" s="237" t="s">
+      <c r="K26" s="270" t="s">
         <v>381</v>
       </c>
-      <c r="L26" s="237" t="s">
+      <c r="L26" s="270" t="s">
         <v>381</v>
       </c>
-      <c r="M26" s="237" t="s">
+      <c r="M26" s="270" t="s">
         <v>381</v>
       </c>
-      <c r="N26" s="237" t="s">
+      <c r="N26" s="270" t="s">
         <v>381</v>
       </c>
-      <c r="O26" s="237" t="s">
+      <c r="O26" s="270" t="s">
         <v>381</v>
       </c>
-      <c r="P26" s="237" t="s">
+      <c r="P26" s="270" t="s">
         <v>406</v>
       </c>
-      <c r="Q26" s="237">
+      <c r="Q26" s="270">
         <v>9</v>
       </c>
-      <c r="R26" s="237" t="s">
+      <c r="R26" s="270" t="s">
         <v>383</v>
       </c>
-      <c r="S26" s="243">
+      <c r="S26" s="274">
         <v>45134</v>
       </c>
-      <c r="T26" s="243">
+      <c r="T26" s="274">
         <v>45148</v>
       </c>
-      <c r="U26" s="237" t="s">
+      <c r="U26" s="270" t="s">
         <v>414</v>
       </c>
-      <c r="V26" s="237">
+      <c r="V26" s="270">
         <v>0</v>
       </c>
-      <c r="W26" s="237" t="s">
+      <c r="W26" s="270" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="247"/>
-      <c r="B27" s="244"/>
-      <c r="C27" s="238" t="s">
+      <c r="A27" s="265"/>
+      <c r="B27" s="268"/>
+      <c r="C27" s="262" t="s">
         <v>415</v>
       </c>
-      <c r="D27" s="238">
+      <c r="D27" s="262">
         <v>1110299</v>
       </c>
-      <c r="E27" s="238">
+      <c r="E27" s="262">
         <v>1</v>
       </c>
-      <c r="F27" s="240">
+      <c r="F27" s="272">
         <v>6</v>
       </c>
       <c r="G27" s="149" t="s">
@@ -14730,27 +14114,27 @@
       <c r="J27" s="152">
         <v>6</v>
       </c>
-      <c r="K27" s="238"/>
-      <c r="L27" s="238"/>
-      <c r="M27" s="238"/>
-      <c r="N27" s="238"/>
-      <c r="O27" s="238"/>
-      <c r="P27" s="238"/>
-      <c r="Q27" s="238"/>
-      <c r="R27" s="238"/>
-      <c r="S27" s="244"/>
-      <c r="T27" s="244"/>
-      <c r="U27" s="238"/>
-      <c r="V27" s="238"/>
-      <c r="W27" s="238"/>
+      <c r="K27" s="262"/>
+      <c r="L27" s="262"/>
+      <c r="M27" s="262"/>
+      <c r="N27" s="262"/>
+      <c r="O27" s="262"/>
+      <c r="P27" s="262"/>
+      <c r="Q27" s="262"/>
+      <c r="R27" s="262"/>
+      <c r="S27" s="268"/>
+      <c r="T27" s="268"/>
+      <c r="U27" s="262"/>
+      <c r="V27" s="262"/>
+      <c r="W27" s="262"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="247"/>
-      <c r="B28" s="244"/>
-      <c r="C28" s="238"/>
-      <c r="D28" s="238"/>
-      <c r="E28" s="238"/>
-      <c r="F28" s="238"/>
+      <c r="A28" s="265"/>
+      <c r="B28" s="268"/>
+      <c r="C28" s="262"/>
+      <c r="D28" s="262"/>
+      <c r="E28" s="262"/>
+      <c r="F28" s="262"/>
       <c r="G28" s="152" t="s">
         <v>411</v>
       </c>
@@ -14763,27 +14147,27 @@
       <c r="J28" s="152">
         <v>6</v>
       </c>
-      <c r="K28" s="238"/>
-      <c r="L28" s="238"/>
-      <c r="M28" s="238"/>
-      <c r="N28" s="238"/>
-      <c r="O28" s="238"/>
-      <c r="P28" s="238"/>
-      <c r="Q28" s="238"/>
-      <c r="R28" s="238"/>
-      <c r="S28" s="244"/>
-      <c r="T28" s="244"/>
-      <c r="U28" s="238"/>
-      <c r="V28" s="238"/>
-      <c r="W28" s="238"/>
+      <c r="K28" s="262"/>
+      <c r="L28" s="262"/>
+      <c r="M28" s="262"/>
+      <c r="N28" s="262"/>
+      <c r="O28" s="262"/>
+      <c r="P28" s="262"/>
+      <c r="Q28" s="262"/>
+      <c r="R28" s="262"/>
+      <c r="S28" s="268"/>
+      <c r="T28" s="268"/>
+      <c r="U28" s="262"/>
+      <c r="V28" s="262"/>
+      <c r="W28" s="262"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="247"/>
-      <c r="B29" s="244"/>
-      <c r="C29" s="238"/>
-      <c r="D29" s="238"/>
-      <c r="E29" s="238"/>
-      <c r="F29" s="238"/>
+      <c r="A29" s="265"/>
+      <c r="B29" s="268"/>
+      <c r="C29" s="262"/>
+      <c r="D29" s="262"/>
+      <c r="E29" s="262"/>
+      <c r="F29" s="262"/>
       <c r="G29" s="152" t="s">
         <v>412</v>
       </c>
@@ -14796,37 +14180,37 @@
       <c r="J29" s="152">
         <v>6</v>
       </c>
-      <c r="K29" s="241"/>
-      <c r="L29" s="241"/>
-      <c r="M29" s="241"/>
-      <c r="N29" s="241"/>
-      <c r="O29" s="241"/>
-      <c r="P29" s="238"/>
-      <c r="Q29" s="238"/>
-      <c r="R29" s="238"/>
-      <c r="S29" s="244"/>
-      <c r="T29" s="244"/>
-      <c r="U29" s="238"/>
-      <c r="V29" s="238"/>
-      <c r="W29" s="238"/>
+      <c r="K29" s="273"/>
+      <c r="L29" s="273"/>
+      <c r="M29" s="273"/>
+      <c r="N29" s="273"/>
+      <c r="O29" s="273"/>
+      <c r="P29" s="262"/>
+      <c r="Q29" s="262"/>
+      <c r="R29" s="262"/>
+      <c r="S29" s="268"/>
+      <c r="T29" s="268"/>
+      <c r="U29" s="262"/>
+      <c r="V29" s="262"/>
+      <c r="W29" s="262"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="247"/>
-      <c r="B30" s="244"/>
-      <c r="C30" s="238"/>
-      <c r="D30" s="238"/>
-      <c r="E30" s="238"/>
-      <c r="F30" s="238"/>
-      <c r="G30" s="238" t="s">
+      <c r="A30" s="265"/>
+      <c r="B30" s="268"/>
+      <c r="C30" s="262"/>
+      <c r="D30" s="262"/>
+      <c r="E30" s="262"/>
+      <c r="F30" s="262"/>
+      <c r="G30" s="262" t="s">
         <v>416</v>
       </c>
-      <c r="H30" s="238">
+      <c r="H30" s="262">
         <v>1110280</v>
       </c>
-      <c r="I30" s="238">
+      <c r="I30" s="262">
         <v>1</v>
       </c>
-      <c r="J30" s="238">
+      <c r="J30" s="262">
         <v>7</v>
       </c>
       <c r="K30" s="152" t="s">
@@ -14844,26 +14228,26 @@
       <c r="O30" s="152">
         <v>6</v>
       </c>
-      <c r="P30" s="238"/>
-      <c r="Q30" s="238"/>
-      <c r="R30" s="238"/>
-      <c r="S30" s="244"/>
-      <c r="T30" s="244"/>
-      <c r="U30" s="238"/>
-      <c r="V30" s="238"/>
-      <c r="W30" s="238"/>
+      <c r="P30" s="262"/>
+      <c r="Q30" s="262"/>
+      <c r="R30" s="262"/>
+      <c r="S30" s="268"/>
+      <c r="T30" s="268"/>
+      <c r="U30" s="262"/>
+      <c r="V30" s="262"/>
+      <c r="W30" s="262"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="247"/>
-      <c r="B31" s="244"/>
-      <c r="C31" s="238"/>
-      <c r="D31" s="238"/>
-      <c r="E31" s="238"/>
-      <c r="F31" s="238"/>
-      <c r="G31" s="241"/>
-      <c r="H31" s="241"/>
-      <c r="I31" s="241"/>
-      <c r="J31" s="242"/>
+      <c r="A31" s="265"/>
+      <c r="B31" s="268"/>
+      <c r="C31" s="262"/>
+      <c r="D31" s="262"/>
+      <c r="E31" s="262"/>
+      <c r="F31" s="262"/>
+      <c r="G31" s="273"/>
+      <c r="H31" s="273"/>
+      <c r="I31" s="273"/>
+      <c r="J31" s="263"/>
       <c r="K31" s="152" t="s">
         <v>418</v>
       </c>
@@ -14879,32 +14263,32 @@
       <c r="O31" s="152">
         <v>7</v>
       </c>
-      <c r="P31" s="238"/>
-      <c r="Q31" s="238"/>
-      <c r="R31" s="238"/>
-      <c r="S31" s="244"/>
-      <c r="T31" s="244"/>
-      <c r="U31" s="238"/>
-      <c r="V31" s="238"/>
-      <c r="W31" s="238"/>
+      <c r="P31" s="262"/>
+      <c r="Q31" s="262"/>
+      <c r="R31" s="262"/>
+      <c r="S31" s="268"/>
+      <c r="T31" s="268"/>
+      <c r="U31" s="262"/>
+      <c r="V31" s="262"/>
+      <c r="W31" s="262"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="247"/>
-      <c r="B32" s="244"/>
-      <c r="C32" s="238"/>
-      <c r="D32" s="238"/>
-      <c r="E32" s="238"/>
-      <c r="F32" s="238"/>
-      <c r="G32" s="238" t="s">
+      <c r="A32" s="265"/>
+      <c r="B32" s="268"/>
+      <c r="C32" s="262"/>
+      <c r="D32" s="262"/>
+      <c r="E32" s="262"/>
+      <c r="F32" s="262"/>
+      <c r="G32" s="262" t="s">
         <v>419</v>
       </c>
-      <c r="H32" s="238">
+      <c r="H32" s="262">
         <v>1110207</v>
       </c>
-      <c r="I32" s="238">
+      <c r="I32" s="262">
         <v>1</v>
       </c>
-      <c r="J32" s="238">
+      <c r="J32" s="262">
         <v>6</v>
       </c>
       <c r="K32" s="152" t="s">
@@ -14922,26 +14306,26 @@
       <c r="O32" s="152">
         <v>6</v>
       </c>
-      <c r="P32" s="238"/>
-      <c r="Q32" s="238"/>
-      <c r="R32" s="238"/>
-      <c r="S32" s="244"/>
-      <c r="T32" s="244"/>
-      <c r="U32" s="238"/>
-      <c r="V32" s="238"/>
-      <c r="W32" s="238"/>
+      <c r="P32" s="262"/>
+      <c r="Q32" s="262"/>
+      <c r="R32" s="262"/>
+      <c r="S32" s="268"/>
+      <c r="T32" s="268"/>
+      <c r="U32" s="262"/>
+      <c r="V32" s="262"/>
+      <c r="W32" s="262"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="247"/>
-      <c r="B33" s="244"/>
-      <c r="C33" s="238"/>
-      <c r="D33" s="238"/>
-      <c r="E33" s="238"/>
-      <c r="F33" s="238"/>
-      <c r="G33" s="242"/>
-      <c r="H33" s="241"/>
-      <c r="I33" s="241"/>
-      <c r="J33" s="242"/>
+      <c r="A33" s="265"/>
+      <c r="B33" s="268"/>
+      <c r="C33" s="262"/>
+      <c r="D33" s="262"/>
+      <c r="E33" s="262"/>
+      <c r="F33" s="262"/>
+      <c r="G33" s="263"/>
+      <c r="H33" s="273"/>
+      <c r="I33" s="273"/>
+      <c r="J33" s="263"/>
       <c r="K33" s="152" t="s">
         <v>421</v>
       </c>
@@ -14957,22 +14341,22 @@
       <c r="O33" s="152">
         <v>6</v>
       </c>
-      <c r="P33" s="238"/>
-      <c r="Q33" s="238"/>
-      <c r="R33" s="238"/>
-      <c r="S33" s="244"/>
-      <c r="T33" s="244"/>
-      <c r="U33" s="238"/>
-      <c r="V33" s="238"/>
-      <c r="W33" s="238"/>
+      <c r="P33" s="262"/>
+      <c r="Q33" s="262"/>
+      <c r="R33" s="262"/>
+      <c r="S33" s="268"/>
+      <c r="T33" s="268"/>
+      <c r="U33" s="262"/>
+      <c r="V33" s="262"/>
+      <c r="W33" s="262"/>
     </row>
     <row r="34" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="248"/>
-      <c r="B34" s="245"/>
-      <c r="C34" s="239"/>
-      <c r="D34" s="239"/>
-      <c r="E34" s="239"/>
-      <c r="F34" s="239"/>
+      <c r="A34" s="266"/>
+      <c r="B34" s="269"/>
+      <c r="C34" s="271"/>
+      <c r="D34" s="271"/>
+      <c r="E34" s="271"/>
+      <c r="F34" s="271"/>
       <c r="G34" s="165" t="s">
         <v>422</v>
       </c>
@@ -15000,20 +14384,20 @@
       <c r="O34" s="165" t="s">
         <v>381</v>
       </c>
-      <c r="P34" s="239"/>
-      <c r="Q34" s="239"/>
-      <c r="R34" s="239"/>
-      <c r="S34" s="245"/>
-      <c r="T34" s="245"/>
-      <c r="U34" s="239"/>
-      <c r="V34" s="239"/>
-      <c r="W34" s="239"/>
+      <c r="P34" s="271"/>
+      <c r="Q34" s="271"/>
+      <c r="R34" s="271"/>
+      <c r="S34" s="269"/>
+      <c r="T34" s="269"/>
+      <c r="U34" s="271"/>
+      <c r="V34" s="271"/>
+      <c r="W34" s="271"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" s="213">
+      <c r="A35" s="238">
         <v>70025</v>
       </c>
-      <c r="B35" s="203" t="s">
+      <c r="B35" s="229" t="s">
         <v>423</v>
       </c>
       <c r="C35" s="172" t="s">
@@ -15040,59 +14424,59 @@
       <c r="J35" s="172" t="s">
         <v>381</v>
       </c>
-      <c r="K35" s="203" t="s">
+      <c r="K35" s="229" t="s">
         <v>381</v>
       </c>
-      <c r="L35" s="203" t="s">
+      <c r="L35" s="229" t="s">
         <v>381</v>
       </c>
-      <c r="M35" s="203" t="s">
+      <c r="M35" s="229" t="s">
         <v>381</v>
       </c>
-      <c r="N35" s="203" t="s">
+      <c r="N35" s="229" t="s">
         <v>381</v>
       </c>
-      <c r="O35" s="232" t="s">
+      <c r="O35" s="256" t="s">
         <v>381</v>
       </c>
-      <c r="P35" s="234" t="s">
+      <c r="P35" s="258" t="s">
         <v>406</v>
       </c>
-      <c r="Q35" s="203">
+      <c r="Q35" s="229">
         <v>10</v>
       </c>
-      <c r="R35" s="203" t="s">
+      <c r="R35" s="229" t="s">
         <v>383</v>
       </c>
-      <c r="S35" s="231">
+      <c r="S35" s="254">
         <v>45134</v>
       </c>
-      <c r="T35" s="231">
+      <c r="T35" s="254">
         <v>45148</v>
       </c>
-      <c r="U35" s="203" t="s">
+      <c r="U35" s="229" t="s">
         <v>424</v>
       </c>
-      <c r="V35" s="203">
+      <c r="V35" s="229">
         <v>0</v>
       </c>
-      <c r="W35" s="203" t="s">
+      <c r="W35" s="229" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="213"/>
-      <c r="B36" s="203"/>
-      <c r="C36" s="203" t="s">
+      <c r="A36" s="238"/>
+      <c r="B36" s="229"/>
+      <c r="C36" s="229" t="s">
         <v>426</v>
       </c>
-      <c r="D36" s="203">
+      <c r="D36" s="229">
         <v>1110298</v>
       </c>
-      <c r="E36" s="203">
+      <c r="E36" s="229">
         <v>1</v>
       </c>
-      <c r="F36" s="203">
+      <c r="F36" s="229">
         <v>6</v>
       </c>
       <c r="G36" s="172" t="s">
@@ -15107,27 +14491,27 @@
       <c r="J36" s="172">
         <v>6</v>
       </c>
-      <c r="K36" s="203"/>
-      <c r="L36" s="203"/>
-      <c r="M36" s="203"/>
-      <c r="N36" s="203"/>
-      <c r="O36" s="232"/>
-      <c r="P36" s="234"/>
-      <c r="Q36" s="203"/>
-      <c r="R36" s="203"/>
-      <c r="S36" s="203"/>
-      <c r="T36" s="203"/>
-      <c r="U36" s="203"/>
-      <c r="V36" s="203"/>
-      <c r="W36" s="203"/>
+      <c r="K36" s="229"/>
+      <c r="L36" s="229"/>
+      <c r="M36" s="229"/>
+      <c r="N36" s="229"/>
+      <c r="O36" s="256"/>
+      <c r="P36" s="258"/>
+      <c r="Q36" s="229"/>
+      <c r="R36" s="229"/>
+      <c r="S36" s="229"/>
+      <c r="T36" s="229"/>
+      <c r="U36" s="229"/>
+      <c r="V36" s="229"/>
+      <c r="W36" s="229"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="213"/>
-      <c r="B37" s="203"/>
-      <c r="C37" s="203"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="203"/>
+      <c r="A37" s="238"/>
+      <c r="B37" s="229"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="229"/>
+      <c r="E37" s="229"/>
+      <c r="F37" s="229"/>
       <c r="G37" s="172" t="s">
         <v>411</v>
       </c>
@@ -15140,27 +14524,27 @@
       <c r="J37" s="172">
         <v>6</v>
       </c>
-      <c r="K37" s="203"/>
-      <c r="L37" s="203"/>
-      <c r="M37" s="203"/>
-      <c r="N37" s="203"/>
-      <c r="O37" s="232"/>
-      <c r="P37" s="234"/>
-      <c r="Q37" s="203"/>
-      <c r="R37" s="203"/>
-      <c r="S37" s="203"/>
-      <c r="T37" s="203"/>
-      <c r="U37" s="203"/>
-      <c r="V37" s="203"/>
-      <c r="W37" s="203"/>
+      <c r="K37" s="229"/>
+      <c r="L37" s="229"/>
+      <c r="M37" s="229"/>
+      <c r="N37" s="229"/>
+      <c r="O37" s="256"/>
+      <c r="P37" s="258"/>
+      <c r="Q37" s="229"/>
+      <c r="R37" s="229"/>
+      <c r="S37" s="229"/>
+      <c r="T37" s="229"/>
+      <c r="U37" s="229"/>
+      <c r="V37" s="229"/>
+      <c r="W37" s="229"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="213"/>
-      <c r="B38" s="203"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="203"/>
-      <c r="E38" s="203"/>
-      <c r="F38" s="203"/>
+      <c r="A38" s="238"/>
+      <c r="B38" s="229"/>
+      <c r="C38" s="229"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="229"/>
+      <c r="F38" s="229"/>
       <c r="G38" s="172" t="s">
         <v>412</v>
       </c>
@@ -15173,37 +14557,37 @@
       <c r="J38" s="140">
         <v>6</v>
       </c>
-      <c r="K38" s="221"/>
-      <c r="L38" s="221"/>
-      <c r="M38" s="221"/>
-      <c r="N38" s="221"/>
-      <c r="O38" s="233"/>
-      <c r="P38" s="234"/>
-      <c r="Q38" s="203"/>
-      <c r="R38" s="203"/>
-      <c r="S38" s="203"/>
-      <c r="T38" s="203"/>
-      <c r="U38" s="203"/>
-      <c r="V38" s="203"/>
-      <c r="W38" s="203"/>
+      <c r="K38" s="243"/>
+      <c r="L38" s="243"/>
+      <c r="M38" s="243"/>
+      <c r="N38" s="243"/>
+      <c r="O38" s="257"/>
+      <c r="P38" s="258"/>
+      <c r="Q38" s="229"/>
+      <c r="R38" s="229"/>
+      <c r="S38" s="229"/>
+      <c r="T38" s="229"/>
+      <c r="U38" s="229"/>
+      <c r="V38" s="229"/>
+      <c r="W38" s="229"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="213"/>
-      <c r="B39" s="203"/>
-      <c r="C39" s="203"/>
-      <c r="D39" s="203"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="203"/>
-      <c r="G39" s="203" t="s">
+      <c r="A39" s="238"/>
+      <c r="B39" s="229"/>
+      <c r="C39" s="229"/>
+      <c r="D39" s="229"/>
+      <c r="E39" s="229"/>
+      <c r="F39" s="229"/>
+      <c r="G39" s="229" t="s">
         <v>416</v>
       </c>
-      <c r="H39" s="203">
+      <c r="H39" s="229">
         <v>1110280</v>
       </c>
-      <c r="I39" s="203">
+      <c r="I39" s="229">
         <v>3</v>
       </c>
-      <c r="J39" s="222">
+      <c r="J39" s="244">
         <v>7</v>
       </c>
       <c r="K39" s="172" t="s">
@@ -15221,26 +14605,26 @@
       <c r="O39" s="175">
         <v>6</v>
       </c>
-      <c r="P39" s="234"/>
-      <c r="Q39" s="203"/>
-      <c r="R39" s="203"/>
-      <c r="S39" s="203"/>
-      <c r="T39" s="203"/>
-      <c r="U39" s="203"/>
-      <c r="V39" s="203"/>
-      <c r="W39" s="203"/>
+      <c r="P39" s="258"/>
+      <c r="Q39" s="229"/>
+      <c r="R39" s="229"/>
+      <c r="S39" s="229"/>
+      <c r="T39" s="229"/>
+      <c r="U39" s="229"/>
+      <c r="V39" s="229"/>
+      <c r="W39" s="229"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="213"/>
-      <c r="B40" s="203"/>
-      <c r="C40" s="203"/>
-      <c r="D40" s="203"/>
-      <c r="E40" s="203"/>
-      <c r="F40" s="203"/>
-      <c r="G40" s="236"/>
-      <c r="H40" s="236"/>
-      <c r="I40" s="236"/>
-      <c r="J40" s="221"/>
+      <c r="A40" s="238"/>
+      <c r="B40" s="229"/>
+      <c r="C40" s="229"/>
+      <c r="D40" s="229"/>
+      <c r="E40" s="229"/>
+      <c r="F40" s="229"/>
+      <c r="G40" s="255"/>
+      <c r="H40" s="255"/>
+      <c r="I40" s="255"/>
+      <c r="J40" s="243"/>
       <c r="K40" s="172" t="s">
         <v>418</v>
       </c>
@@ -15256,32 +14640,32 @@
       <c r="O40" s="175">
         <v>7</v>
       </c>
-      <c r="P40" s="234"/>
-      <c r="Q40" s="203"/>
-      <c r="R40" s="203"/>
-      <c r="S40" s="203"/>
-      <c r="T40" s="203"/>
-      <c r="U40" s="203"/>
-      <c r="V40" s="203"/>
-      <c r="W40" s="203"/>
+      <c r="P40" s="258"/>
+      <c r="Q40" s="229"/>
+      <c r="R40" s="229"/>
+      <c r="S40" s="229"/>
+      <c r="T40" s="229"/>
+      <c r="U40" s="229"/>
+      <c r="V40" s="229"/>
+      <c r="W40" s="229"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A41" s="213"/>
-      <c r="B41" s="203"/>
-      <c r="C41" s="203"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="203"/>
-      <c r="G41" s="203" t="s">
+      <c r="A41" s="238"/>
+      <c r="B41" s="229"/>
+      <c r="C41" s="229"/>
+      <c r="D41" s="229"/>
+      <c r="E41" s="229"/>
+      <c r="F41" s="229"/>
+      <c r="G41" s="229" t="s">
         <v>419</v>
       </c>
-      <c r="H41" s="203">
+      <c r="H41" s="229">
         <v>1110207</v>
       </c>
-      <c r="I41" s="203">
+      <c r="I41" s="229">
         <v>3</v>
       </c>
-      <c r="J41" s="224">
+      <c r="J41" s="260">
         <v>6</v>
       </c>
       <c r="K41" s="131" t="s">
@@ -15299,26 +14683,26 @@
       <c r="O41" s="175">
         <v>6</v>
       </c>
-      <c r="P41" s="234"/>
-      <c r="Q41" s="203"/>
-      <c r="R41" s="203"/>
-      <c r="S41" s="203"/>
-      <c r="T41" s="203"/>
-      <c r="U41" s="203"/>
-      <c r="V41" s="203"/>
-      <c r="W41" s="203"/>
+      <c r="P41" s="258"/>
+      <c r="Q41" s="229"/>
+      <c r="R41" s="229"/>
+      <c r="S41" s="229"/>
+      <c r="T41" s="229"/>
+      <c r="U41" s="229"/>
+      <c r="V41" s="229"/>
+      <c r="W41" s="229"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="213"/>
-      <c r="B42" s="203"/>
-      <c r="C42" s="203"/>
-      <c r="D42" s="203"/>
-      <c r="E42" s="203"/>
-      <c r="F42" s="203"/>
-      <c r="G42" s="236"/>
-      <c r="H42" s="236"/>
-      <c r="I42" s="236"/>
-      <c r="J42" s="225"/>
+      <c r="A42" s="238"/>
+      <c r="B42" s="229"/>
+      <c r="C42" s="229"/>
+      <c r="D42" s="229"/>
+      <c r="E42" s="229"/>
+      <c r="F42" s="229"/>
+      <c r="G42" s="255"/>
+      <c r="H42" s="255"/>
+      <c r="I42" s="255"/>
+      <c r="J42" s="261"/>
       <c r="K42" s="178" t="s">
         <v>421</v>
       </c>
@@ -15334,22 +14718,22 @@
       <c r="O42" s="172">
         <v>6</v>
       </c>
-      <c r="P42" s="234"/>
-      <c r="Q42" s="203"/>
-      <c r="R42" s="203"/>
-      <c r="S42" s="203"/>
-      <c r="T42" s="203"/>
-      <c r="U42" s="203"/>
-      <c r="V42" s="203"/>
-      <c r="W42" s="203"/>
+      <c r="P42" s="258"/>
+      <c r="Q42" s="229"/>
+      <c r="R42" s="229"/>
+      <c r="S42" s="229"/>
+      <c r="T42" s="229"/>
+      <c r="U42" s="229"/>
+      <c r="V42" s="229"/>
+      <c r="W42" s="229"/>
     </row>
     <row r="43" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="214"/>
-      <c r="B43" s="204"/>
-      <c r="C43" s="204"/>
-      <c r="D43" s="204"/>
-      <c r="E43" s="204"/>
-      <c r="F43" s="204"/>
+      <c r="A43" s="239"/>
+      <c r="B43" s="230"/>
+      <c r="C43" s="230"/>
+      <c r="D43" s="230"/>
+      <c r="E43" s="230"/>
+      <c r="F43" s="230"/>
       <c r="G43" s="180" t="s">
         <v>422</v>
       </c>
@@ -15377,32 +14761,32 @@
       <c r="O43" s="180" t="s">
         <v>381</v>
       </c>
-      <c r="P43" s="235"/>
-      <c r="Q43" s="204"/>
-      <c r="R43" s="204"/>
-      <c r="S43" s="204"/>
-      <c r="T43" s="204"/>
-      <c r="U43" s="204"/>
-      <c r="V43" s="204"/>
-      <c r="W43" s="204"/>
+      <c r="P43" s="259"/>
+      <c r="Q43" s="230"/>
+      <c r="R43" s="230"/>
+      <c r="S43" s="230"/>
+      <c r="T43" s="230"/>
+      <c r="U43" s="230"/>
+      <c r="V43" s="230"/>
+      <c r="W43" s="230"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="226">
+      <c r="A44" s="249">
         <v>10246</v>
       </c>
-      <c r="B44" s="196" t="s">
+      <c r="B44" s="220" t="s">
         <v>427</v>
       </c>
-      <c r="C44" s="228" t="s">
+      <c r="C44" s="251" t="s">
         <v>428</v>
       </c>
-      <c r="D44" s="207">
+      <c r="D44" s="226">
         <v>1110300</v>
       </c>
-      <c r="E44" s="207">
+      <c r="E44" s="226">
         <v>1</v>
       </c>
-      <c r="F44" s="207">
+      <c r="F44" s="226">
         <v>6</v>
       </c>
       <c r="G44" s="182" t="s">
@@ -15432,48 +14816,48 @@
       <c r="O44" s="182" t="s">
         <v>381</v>
       </c>
-      <c r="P44" s="207" t="s">
+      <c r="P44" s="226" t="s">
         <v>430</v>
       </c>
-      <c r="Q44" s="207">
+      <c r="Q44" s="226">
         <v>3</v>
       </c>
-      <c r="R44" s="207" t="s">
+      <c r="R44" s="226" t="s">
         <v>383</v>
       </c>
-      <c r="S44" s="211">
+      <c r="S44" s="240">
         <v>45134</v>
       </c>
-      <c r="T44" s="211">
+      <c r="T44" s="240">
         <v>45148</v>
       </c>
-      <c r="U44" s="207" t="s">
+      <c r="U44" s="226" t="s">
         <v>431</v>
       </c>
-      <c r="V44" s="207">
+      <c r="V44" s="226">
         <v>80</v>
       </c>
-      <c r="W44" s="207" t="s">
+      <c r="W44" s="226" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="226"/>
-      <c r="B45" s="196"/>
-      <c r="C45" s="229"/>
-      <c r="D45" s="196"/>
-      <c r="E45" s="196"/>
-      <c r="F45" s="196"/>
-      <c r="G45" s="196" t="s">
+      <c r="A45" s="249"/>
+      <c r="B45" s="220"/>
+      <c r="C45" s="252"/>
+      <c r="D45" s="220"/>
+      <c r="E45" s="220"/>
+      <c r="F45" s="220"/>
+      <c r="G45" s="220" t="s">
         <v>433</v>
       </c>
-      <c r="H45" s="196">
+      <c r="H45" s="220">
         <v>1110278</v>
       </c>
-      <c r="I45" s="196">
+      <c r="I45" s="220">
         <v>1</v>
       </c>
-      <c r="J45" s="196">
+      <c r="J45" s="220">
         <v>7</v>
       </c>
       <c r="K45" s="182" t="s">
@@ -15488,29 +14872,29 @@
       <c r="N45" s="183">
         <v>0.75</v>
       </c>
-      <c r="O45" s="196">
+      <c r="O45" s="220">
         <v>6</v>
       </c>
-      <c r="P45" s="196"/>
-      <c r="Q45" s="196"/>
-      <c r="R45" s="196"/>
-      <c r="S45" s="196"/>
-      <c r="T45" s="196"/>
-      <c r="U45" s="196"/>
-      <c r="V45" s="196"/>
-      <c r="W45" s="196"/>
+      <c r="P45" s="220"/>
+      <c r="Q45" s="220"/>
+      <c r="R45" s="220"/>
+      <c r="S45" s="220"/>
+      <c r="T45" s="220"/>
+      <c r="U45" s="220"/>
+      <c r="V45" s="220"/>
+      <c r="W45" s="220"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A46" s="226"/>
-      <c r="B46" s="196"/>
-      <c r="C46" s="229"/>
-      <c r="D46" s="196"/>
-      <c r="E46" s="196"/>
-      <c r="F46" s="196"/>
-      <c r="G46" s="196"/>
-      <c r="H46" s="196"/>
-      <c r="I46" s="196"/>
-      <c r="J46" s="196"/>
+      <c r="A46" s="249"/>
+      <c r="B46" s="220"/>
+      <c r="C46" s="252"/>
+      <c r="D46" s="220"/>
+      <c r="E46" s="220"/>
+      <c r="F46" s="220"/>
+      <c r="G46" s="220"/>
+      <c r="H46" s="220"/>
+      <c r="I46" s="220"/>
+      <c r="J46" s="220"/>
       <c r="K46" s="182" t="s">
         <v>429</v>
       </c>
@@ -15523,27 +14907,27 @@
       <c r="N46" s="183">
         <v>0.22</v>
       </c>
-      <c r="O46" s="196"/>
-      <c r="P46" s="196"/>
-      <c r="Q46" s="196"/>
-      <c r="R46" s="196"/>
-      <c r="S46" s="196"/>
-      <c r="T46" s="196"/>
-      <c r="U46" s="196"/>
-      <c r="V46" s="196"/>
-      <c r="W46" s="196"/>
+      <c r="O46" s="220"/>
+      <c r="P46" s="220"/>
+      <c r="Q46" s="220"/>
+      <c r="R46" s="220"/>
+      <c r="S46" s="220"/>
+      <c r="T46" s="220"/>
+      <c r="U46" s="220"/>
+      <c r="V46" s="220"/>
+      <c r="W46" s="220"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47" s="226"/>
-      <c r="B47" s="196"/>
-      <c r="C47" s="229"/>
-      <c r="D47" s="196"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="196"/>
-      <c r="G47" s="196"/>
-      <c r="H47" s="196"/>
-      <c r="I47" s="196"/>
-      <c r="J47" s="196"/>
+      <c r="A47" s="249"/>
+      <c r="B47" s="220"/>
+      <c r="C47" s="252"/>
+      <c r="D47" s="220"/>
+      <c r="E47" s="220"/>
+      <c r="F47" s="220"/>
+      <c r="G47" s="220"/>
+      <c r="H47" s="220"/>
+      <c r="I47" s="220"/>
+      <c r="J47" s="220"/>
       <c r="K47" s="182" t="s">
         <v>429</v>
       </c>
@@ -15556,27 +14940,27 @@
       <c r="N47" s="183">
         <v>0.02</v>
       </c>
-      <c r="O47" s="196"/>
-      <c r="P47" s="196"/>
-      <c r="Q47" s="196"/>
-      <c r="R47" s="196"/>
-      <c r="S47" s="196"/>
-      <c r="T47" s="196"/>
-      <c r="U47" s="196"/>
-      <c r="V47" s="196"/>
-      <c r="W47" s="196"/>
+      <c r="O47" s="220"/>
+      <c r="P47" s="220"/>
+      <c r="Q47" s="220"/>
+      <c r="R47" s="220"/>
+      <c r="S47" s="220"/>
+      <c r="T47" s="220"/>
+      <c r="U47" s="220"/>
+      <c r="V47" s="220"/>
+      <c r="W47" s="220"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48" s="226"/>
-      <c r="B48" s="196"/>
-      <c r="C48" s="229"/>
-      <c r="D48" s="196"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="196"/>
-      <c r="G48" s="223"/>
-      <c r="H48" s="223"/>
-      <c r="I48" s="223"/>
-      <c r="J48" s="208"/>
+      <c r="A48" s="249"/>
+      <c r="B48" s="220"/>
+      <c r="C48" s="252"/>
+      <c r="D48" s="220"/>
+      <c r="E48" s="220"/>
+      <c r="F48" s="220"/>
+      <c r="G48" s="248"/>
+      <c r="H48" s="248"/>
+      <c r="I48" s="248"/>
+      <c r="J48" s="227"/>
       <c r="K48" s="182" t="s">
         <v>429</v>
       </c>
@@ -15589,23 +14973,23 @@
       <c r="N48" s="183">
         <v>0.01</v>
       </c>
-      <c r="O48" s="208"/>
-      <c r="P48" s="196"/>
-      <c r="Q48" s="196"/>
-      <c r="R48" s="196"/>
-      <c r="S48" s="196"/>
-      <c r="T48" s="196"/>
-      <c r="U48" s="196"/>
-      <c r="V48" s="196"/>
-      <c r="W48" s="196"/>
+      <c r="O48" s="227"/>
+      <c r="P48" s="220"/>
+      <c r="Q48" s="220"/>
+      <c r="R48" s="220"/>
+      <c r="S48" s="220"/>
+      <c r="T48" s="220"/>
+      <c r="U48" s="220"/>
+      <c r="V48" s="220"/>
+      <c r="W48" s="220"/>
     </row>
     <row r="49" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="227"/>
-      <c r="B49" s="198"/>
-      <c r="C49" s="230"/>
-      <c r="D49" s="198"/>
-      <c r="E49" s="198"/>
-      <c r="F49" s="198"/>
+      <c r="A49" s="250"/>
+      <c r="B49" s="222"/>
+      <c r="C49" s="253"/>
+      <c r="D49" s="222"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="222"/>
       <c r="G49" s="144" t="s">
         <v>410</v>
       </c>
@@ -15633,32 +15017,32 @@
       <c r="O49" s="144" t="s">
         <v>381</v>
       </c>
-      <c r="P49" s="196"/>
-      <c r="Q49" s="198"/>
-      <c r="R49" s="198"/>
-      <c r="S49" s="198"/>
-      <c r="T49" s="198"/>
-      <c r="U49" s="198"/>
-      <c r="V49" s="198"/>
-      <c r="W49" s="198"/>
+      <c r="P49" s="220"/>
+      <c r="Q49" s="222"/>
+      <c r="R49" s="222"/>
+      <c r="S49" s="222"/>
+      <c r="T49" s="222"/>
+      <c r="U49" s="222"/>
+      <c r="V49" s="222"/>
+      <c r="W49" s="222"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A50" s="213">
+      <c r="A50" s="238">
         <v>10247</v>
       </c>
-      <c r="B50" s="203" t="s">
+      <c r="B50" s="229" t="s">
         <v>434</v>
       </c>
-      <c r="C50" s="202" t="s">
+      <c r="C50" s="231" t="s">
         <v>435</v>
       </c>
-      <c r="D50" s="202">
+      <c r="D50" s="231">
         <v>1110301</v>
       </c>
-      <c r="E50" s="203">
+      <c r="E50" s="229">
         <v>1</v>
       </c>
-      <c r="F50" s="202">
+      <c r="F50" s="231">
         <v>6</v>
       </c>
       <c r="G50" s="172" t="s">
@@ -15688,48 +15072,48 @@
       <c r="O50" s="136" t="s">
         <v>381</v>
       </c>
-      <c r="P50" s="202" t="s">
+      <c r="P50" s="231" t="s">
         <v>430</v>
       </c>
-      <c r="Q50" s="202">
+      <c r="Q50" s="231">
         <v>4</v>
       </c>
-      <c r="R50" s="202" t="s">
+      <c r="R50" s="231" t="s">
         <v>383</v>
       </c>
-      <c r="S50" s="218">
+      <c r="S50" s="245">
         <v>45134</v>
       </c>
-      <c r="T50" s="218">
+      <c r="T50" s="245">
         <v>45148</v>
       </c>
-      <c r="U50" s="202" t="s">
+      <c r="U50" s="231" t="s">
         <v>431</v>
       </c>
-      <c r="V50" s="202">
+      <c r="V50" s="231">
         <v>80</v>
       </c>
-      <c r="W50" s="202" t="s">
+      <c r="W50" s="231" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A51" s="213"/>
-      <c r="B51" s="203"/>
-      <c r="C51" s="203"/>
-      <c r="D51" s="203"/>
-      <c r="E51" s="203"/>
-      <c r="F51" s="203"/>
-      <c r="G51" s="203" t="s">
+      <c r="A51" s="238"/>
+      <c r="B51" s="229"/>
+      <c r="C51" s="229"/>
+      <c r="D51" s="229"/>
+      <c r="E51" s="229"/>
+      <c r="F51" s="229"/>
+      <c r="G51" s="229" t="s">
         <v>437</v>
       </c>
-      <c r="H51" s="203">
+      <c r="H51" s="229">
         <v>1110279</v>
       </c>
-      <c r="I51" s="203">
+      <c r="I51" s="229">
         <v>1</v>
       </c>
-      <c r="J51" s="203">
+      <c r="J51" s="229">
         <v>7</v>
       </c>
       <c r="K51" s="172" t="s">
@@ -15744,29 +15128,29 @@
       <c r="N51" s="185">
         <v>0.75</v>
       </c>
-      <c r="O51" s="222">
+      <c r="O51" s="244">
         <v>6</v>
       </c>
-      <c r="P51" s="203"/>
-      <c r="Q51" s="203"/>
-      <c r="R51" s="203"/>
-      <c r="S51" s="219"/>
-      <c r="T51" s="219"/>
-      <c r="U51" s="203"/>
-      <c r="V51" s="203"/>
-      <c r="W51" s="203"/>
+      <c r="P51" s="229"/>
+      <c r="Q51" s="229"/>
+      <c r="R51" s="229"/>
+      <c r="S51" s="246"/>
+      <c r="T51" s="246"/>
+      <c r="U51" s="229"/>
+      <c r="V51" s="229"/>
+      <c r="W51" s="229"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A52" s="213"/>
-      <c r="B52" s="203"/>
-      <c r="C52" s="203"/>
-      <c r="D52" s="203"/>
-      <c r="E52" s="203"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="203"/>
-      <c r="H52" s="203"/>
-      <c r="I52" s="203"/>
-      <c r="J52" s="203"/>
+      <c r="A52" s="238"/>
+      <c r="B52" s="229"/>
+      <c r="C52" s="229"/>
+      <c r="D52" s="229"/>
+      <c r="E52" s="229"/>
+      <c r="F52" s="229"/>
+      <c r="G52" s="229"/>
+      <c r="H52" s="229"/>
+      <c r="I52" s="229"/>
+      <c r="J52" s="229"/>
       <c r="K52" s="172" t="s">
         <v>436</v>
       </c>
@@ -15779,27 +15163,27 @@
       <c r="N52" s="185">
         <v>0.22</v>
       </c>
-      <c r="O52" s="203"/>
-      <c r="P52" s="203"/>
-      <c r="Q52" s="203"/>
-      <c r="R52" s="203"/>
-      <c r="S52" s="219"/>
-      <c r="T52" s="219"/>
-      <c r="U52" s="203"/>
-      <c r="V52" s="203"/>
-      <c r="W52" s="203"/>
+      <c r="O52" s="229"/>
+      <c r="P52" s="229"/>
+      <c r="Q52" s="229"/>
+      <c r="R52" s="229"/>
+      <c r="S52" s="246"/>
+      <c r="T52" s="246"/>
+      <c r="U52" s="229"/>
+      <c r="V52" s="229"/>
+      <c r="W52" s="229"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A53" s="213"/>
-      <c r="B53" s="203"/>
-      <c r="C53" s="203"/>
-      <c r="D53" s="203"/>
-      <c r="E53" s="203"/>
-      <c r="F53" s="203"/>
-      <c r="G53" s="203"/>
-      <c r="H53" s="203"/>
-      <c r="I53" s="203"/>
-      <c r="J53" s="203"/>
+      <c r="A53" s="238"/>
+      <c r="B53" s="229"/>
+      <c r="C53" s="229"/>
+      <c r="D53" s="229"/>
+      <c r="E53" s="229"/>
+      <c r="F53" s="229"/>
+      <c r="G53" s="229"/>
+      <c r="H53" s="229"/>
+      <c r="I53" s="229"/>
+      <c r="J53" s="229"/>
       <c r="K53" s="172" t="s">
         <v>436</v>
       </c>
@@ -15812,27 +15196,27 @@
       <c r="N53" s="185">
         <v>0.02</v>
       </c>
-      <c r="O53" s="203"/>
-      <c r="P53" s="203"/>
-      <c r="Q53" s="203"/>
-      <c r="R53" s="203"/>
-      <c r="S53" s="219"/>
-      <c r="T53" s="219"/>
-      <c r="U53" s="203"/>
-      <c r="V53" s="203"/>
-      <c r="W53" s="203"/>
+      <c r="O53" s="229"/>
+      <c r="P53" s="229"/>
+      <c r="Q53" s="229"/>
+      <c r="R53" s="229"/>
+      <c r="S53" s="246"/>
+      <c r="T53" s="246"/>
+      <c r="U53" s="229"/>
+      <c r="V53" s="229"/>
+      <c r="W53" s="229"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A54" s="213"/>
-      <c r="B54" s="203"/>
-      <c r="C54" s="203"/>
-      <c r="D54" s="203"/>
-      <c r="E54" s="203"/>
-      <c r="F54" s="203"/>
-      <c r="G54" s="221"/>
-      <c r="H54" s="221"/>
-      <c r="I54" s="221"/>
-      <c r="J54" s="221"/>
+      <c r="A54" s="238"/>
+      <c r="B54" s="229"/>
+      <c r="C54" s="229"/>
+      <c r="D54" s="229"/>
+      <c r="E54" s="229"/>
+      <c r="F54" s="229"/>
+      <c r="G54" s="243"/>
+      <c r="H54" s="243"/>
+      <c r="I54" s="243"/>
+      <c r="J54" s="243"/>
       <c r="K54" s="172" t="s">
         <v>436</v>
       </c>
@@ -15845,23 +15229,23 @@
       <c r="N54" s="185">
         <v>0.01</v>
       </c>
-      <c r="O54" s="221"/>
-      <c r="P54" s="203"/>
-      <c r="Q54" s="203"/>
-      <c r="R54" s="203"/>
-      <c r="S54" s="219"/>
-      <c r="T54" s="219"/>
-      <c r="U54" s="203"/>
-      <c r="V54" s="203"/>
-      <c r="W54" s="203"/>
+      <c r="O54" s="243"/>
+      <c r="P54" s="229"/>
+      <c r="Q54" s="229"/>
+      <c r="R54" s="229"/>
+      <c r="S54" s="246"/>
+      <c r="T54" s="246"/>
+      <c r="U54" s="229"/>
+      <c r="V54" s="229"/>
+      <c r="W54" s="229"/>
     </row>
     <row r="55" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="214"/>
-      <c r="B55" s="204"/>
-      <c r="C55" s="204"/>
-      <c r="D55" s="204"/>
-      <c r="E55" s="204"/>
-      <c r="F55" s="204"/>
+      <c r="A55" s="239"/>
+      <c r="B55" s="230"/>
+      <c r="C55" s="230"/>
+      <c r="D55" s="230"/>
+      <c r="E55" s="230"/>
+      <c r="F55" s="230"/>
       <c r="G55" s="180" t="s">
         <v>411</v>
       </c>
@@ -15889,32 +15273,32 @@
       <c r="O55" s="180" t="s">
         <v>381</v>
       </c>
-      <c r="P55" s="204"/>
-      <c r="Q55" s="204"/>
-      <c r="R55" s="204"/>
-      <c r="S55" s="220"/>
-      <c r="T55" s="220"/>
-      <c r="U55" s="204"/>
-      <c r="V55" s="204"/>
-      <c r="W55" s="204"/>
+      <c r="P55" s="230"/>
+      <c r="Q55" s="230"/>
+      <c r="R55" s="230"/>
+      <c r="S55" s="247"/>
+      <c r="T55" s="247"/>
+      <c r="U55" s="230"/>
+      <c r="V55" s="230"/>
+      <c r="W55" s="230"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A56" s="216">
+      <c r="A56" s="241">
         <v>10317</v>
       </c>
-      <c r="B56" s="207" t="s">
+      <c r="B56" s="226" t="s">
         <v>438</v>
       </c>
-      <c r="C56" s="207" t="s">
+      <c r="C56" s="226" t="s">
         <v>439</v>
       </c>
-      <c r="D56" s="207">
+      <c r="D56" s="226">
         <v>1110376</v>
       </c>
-      <c r="E56" s="207">
+      <c r="E56" s="226">
         <v>1</v>
       </c>
-      <c r="F56" s="207">
+      <c r="F56" s="226">
         <v>6</v>
       </c>
       <c r="G56" s="182" t="s">
@@ -15929,53 +15313,53 @@
       <c r="J56" s="182">
         <v>6</v>
       </c>
-      <c r="K56" s="207" t="s">
+      <c r="K56" s="226" t="s">
         <v>381</v>
       </c>
-      <c r="L56" s="207" t="s">
+      <c r="L56" s="226" t="s">
         <v>381</v>
       </c>
-      <c r="M56" s="207" t="s">
+      <c r="M56" s="226" t="s">
         <v>381</v>
       </c>
-      <c r="N56" s="207" t="s">
+      <c r="N56" s="226" t="s">
         <v>381</v>
       </c>
-      <c r="O56" s="207" t="s">
+      <c r="O56" s="226" t="s">
         <v>381</v>
       </c>
-      <c r="P56" s="207" t="s">
+      <c r="P56" s="226" t="s">
         <v>397</v>
       </c>
-      <c r="Q56" s="207">
+      <c r="Q56" s="226">
         <v>28</v>
       </c>
-      <c r="R56" s="207" t="s">
+      <c r="R56" s="226" t="s">
         <v>383</v>
       </c>
-      <c r="S56" s="211">
+      <c r="S56" s="240">
         <v>45134</v>
       </c>
-      <c r="T56" s="211">
+      <c r="T56" s="240">
         <v>45148</v>
       </c>
-      <c r="U56" s="207" t="s">
+      <c r="U56" s="226" t="s">
         <v>441</v>
       </c>
-      <c r="V56" s="199">
+      <c r="V56" s="232">
         <v>900</v>
       </c>
-      <c r="W56" s="207" t="s">
+      <c r="W56" s="226" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A57" s="205"/>
-      <c r="B57" s="196"/>
-      <c r="C57" s="196"/>
-      <c r="D57" s="196"/>
-      <c r="E57" s="196"/>
-      <c r="F57" s="196"/>
+      <c r="A57" s="235"/>
+      <c r="B57" s="220"/>
+      <c r="C57" s="220"/>
+      <c r="D57" s="220"/>
+      <c r="E57" s="220"/>
+      <c r="F57" s="220"/>
       <c r="G57" s="182" t="s">
         <v>442</v>
       </c>
@@ -15988,27 +15372,27 @@
       <c r="J57" s="182">
         <v>6</v>
       </c>
-      <c r="K57" s="196"/>
-      <c r="L57" s="196"/>
-      <c r="M57" s="196"/>
-      <c r="N57" s="196"/>
-      <c r="O57" s="196"/>
-      <c r="P57" s="196"/>
-      <c r="Q57" s="196"/>
-      <c r="R57" s="196"/>
-      <c r="S57" s="196"/>
-      <c r="T57" s="196"/>
-      <c r="U57" s="196"/>
-      <c r="V57" s="200"/>
-      <c r="W57" s="196"/>
+      <c r="K57" s="220"/>
+      <c r="L57" s="220"/>
+      <c r="M57" s="220"/>
+      <c r="N57" s="220"/>
+      <c r="O57" s="220"/>
+      <c r="P57" s="220"/>
+      <c r="Q57" s="220"/>
+      <c r="R57" s="220"/>
+      <c r="S57" s="220"/>
+      <c r="T57" s="220"/>
+      <c r="U57" s="220"/>
+      <c r="V57" s="233"/>
+      <c r="W57" s="220"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A58" s="205"/>
-      <c r="B58" s="196"/>
-      <c r="C58" s="196"/>
-      <c r="D58" s="196"/>
-      <c r="E58" s="196"/>
-      <c r="F58" s="196"/>
+      <c r="A58" s="235"/>
+      <c r="B58" s="220"/>
+      <c r="C58" s="220"/>
+      <c r="D58" s="220"/>
+      <c r="E58" s="220"/>
+      <c r="F58" s="220"/>
       <c r="G58" s="182" t="s">
         <v>410</v>
       </c>
@@ -16021,27 +15405,27 @@
       <c r="J58" s="182">
         <v>6</v>
       </c>
-      <c r="K58" s="196"/>
-      <c r="L58" s="196"/>
-      <c r="M58" s="196"/>
-      <c r="N58" s="196"/>
-      <c r="O58" s="196"/>
-      <c r="P58" s="196"/>
-      <c r="Q58" s="196"/>
-      <c r="R58" s="196"/>
-      <c r="S58" s="196"/>
-      <c r="T58" s="196"/>
-      <c r="U58" s="196"/>
-      <c r="V58" s="200"/>
-      <c r="W58" s="196"/>
+      <c r="K58" s="220"/>
+      <c r="L58" s="220"/>
+      <c r="M58" s="220"/>
+      <c r="N58" s="220"/>
+      <c r="O58" s="220"/>
+      <c r="P58" s="220"/>
+      <c r="Q58" s="220"/>
+      <c r="R58" s="220"/>
+      <c r="S58" s="220"/>
+      <c r="T58" s="220"/>
+      <c r="U58" s="220"/>
+      <c r="V58" s="233"/>
+      <c r="W58" s="220"/>
     </row>
     <row r="59" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="217"/>
-      <c r="B59" s="198"/>
-      <c r="C59" s="198"/>
-      <c r="D59" s="198"/>
-      <c r="E59" s="198"/>
-      <c r="F59" s="198"/>
+      <c r="A59" s="242"/>
+      <c r="B59" s="222"/>
+      <c r="C59" s="222"/>
+      <c r="D59" s="222"/>
+      <c r="E59" s="222"/>
+      <c r="F59" s="222"/>
       <c r="G59" s="182" t="s">
         <v>399</v>
       </c>
@@ -16054,37 +15438,37 @@
       <c r="J59" s="182">
         <v>6</v>
       </c>
-      <c r="K59" s="198"/>
-      <c r="L59" s="198"/>
-      <c r="M59" s="198"/>
-      <c r="N59" s="198"/>
-      <c r="O59" s="198"/>
-      <c r="P59" s="198"/>
-      <c r="Q59" s="198"/>
-      <c r="R59" s="198"/>
-      <c r="S59" s="198"/>
-      <c r="T59" s="198"/>
-      <c r="U59" s="198"/>
-      <c r="V59" s="201"/>
-      <c r="W59" s="198"/>
+      <c r="K59" s="222"/>
+      <c r="L59" s="222"/>
+      <c r="M59" s="222"/>
+      <c r="N59" s="222"/>
+      <c r="O59" s="222"/>
+      <c r="P59" s="222"/>
+      <c r="Q59" s="222"/>
+      <c r="R59" s="222"/>
+      <c r="S59" s="222"/>
+      <c r="T59" s="222"/>
+      <c r="U59" s="222"/>
+      <c r="V59" s="234"/>
+      <c r="W59" s="222"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A60" s="212">
+      <c r="A60" s="237">
         <v>10318</v>
       </c>
-      <c r="B60" s="202" t="s">
+      <c r="B60" s="231" t="s">
         <v>443</v>
       </c>
-      <c r="C60" s="202" t="s">
+      <c r="C60" s="231" t="s">
         <v>444</v>
       </c>
-      <c r="D60" s="202">
+      <c r="D60" s="231">
         <v>1110377</v>
       </c>
-      <c r="E60" s="202">
+      <c r="E60" s="231">
         <v>1</v>
       </c>
-      <c r="F60" s="202">
+      <c r="F60" s="231">
         <v>6</v>
       </c>
       <c r="G60" s="184" t="s">
@@ -16114,38 +15498,38 @@
       <c r="O60" s="136" t="s">
         <v>381</v>
       </c>
-      <c r="P60" s="202" t="s">
+      <c r="P60" s="231" t="s">
         <v>397</v>
       </c>
-      <c r="Q60" s="202">
+      <c r="Q60" s="231">
         <v>29</v>
       </c>
-      <c r="R60" s="202" t="s">
+      <c r="R60" s="231" t="s">
         <v>383</v>
       </c>
-      <c r="S60" s="215">
+      <c r="S60" s="228">
         <v>45134</v>
       </c>
-      <c r="T60" s="215">
+      <c r="T60" s="228">
         <v>45148</v>
       </c>
-      <c r="U60" s="202" t="s">
+      <c r="U60" s="231" t="s">
         <v>441</v>
       </c>
-      <c r="V60" s="199">
+      <c r="V60" s="232">
         <v>900</v>
       </c>
-      <c r="W60" s="202" t="s">
+      <c r="W60" s="231" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A61" s="213"/>
-      <c r="B61" s="203"/>
-      <c r="C61" s="203"/>
-      <c r="D61" s="203"/>
-      <c r="E61" s="203"/>
-      <c r="F61" s="203"/>
+      <c r="A61" s="238"/>
+      <c r="B61" s="229"/>
+      <c r="C61" s="229"/>
+      <c r="D61" s="229"/>
+      <c r="E61" s="229"/>
+      <c r="F61" s="229"/>
       <c r="G61" s="172" t="s">
         <v>410</v>
       </c>
@@ -16173,22 +15557,22 @@
       <c r="O61" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="P61" s="203"/>
-      <c r="Q61" s="203"/>
-      <c r="R61" s="203"/>
-      <c r="S61" s="203"/>
-      <c r="T61" s="203"/>
-      <c r="U61" s="203"/>
-      <c r="V61" s="200"/>
-      <c r="W61" s="203"/>
+      <c r="P61" s="229"/>
+      <c r="Q61" s="229"/>
+      <c r="R61" s="229"/>
+      <c r="S61" s="229"/>
+      <c r="T61" s="229"/>
+      <c r="U61" s="229"/>
+      <c r="V61" s="233"/>
+      <c r="W61" s="229"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A62" s="213"/>
-      <c r="B62" s="203"/>
-      <c r="C62" s="203"/>
-      <c r="D62" s="203"/>
-      <c r="E62" s="203"/>
-      <c r="F62" s="203"/>
+      <c r="A62" s="238"/>
+      <c r="B62" s="229"/>
+      <c r="C62" s="229"/>
+      <c r="D62" s="229"/>
+      <c r="E62" s="229"/>
+      <c r="F62" s="229"/>
       <c r="G62" s="172" t="s">
         <v>411</v>
       </c>
@@ -16216,22 +15600,22 @@
       <c r="O62" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="P62" s="203"/>
-      <c r="Q62" s="203"/>
-      <c r="R62" s="203"/>
-      <c r="S62" s="203"/>
-      <c r="T62" s="203"/>
-      <c r="U62" s="203"/>
-      <c r="V62" s="200"/>
-      <c r="W62" s="203"/>
+      <c r="P62" s="229"/>
+      <c r="Q62" s="229"/>
+      <c r="R62" s="229"/>
+      <c r="S62" s="229"/>
+      <c r="T62" s="229"/>
+      <c r="U62" s="229"/>
+      <c r="V62" s="233"/>
+      <c r="W62" s="229"/>
     </row>
     <row r="63" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="214"/>
-      <c r="B63" s="204"/>
-      <c r="C63" s="204"/>
-      <c r="D63" s="204"/>
-      <c r="E63" s="204"/>
-      <c r="F63" s="204"/>
+      <c r="A63" s="239"/>
+      <c r="B63" s="230"/>
+      <c r="C63" s="230"/>
+      <c r="D63" s="230"/>
+      <c r="E63" s="230"/>
+      <c r="F63" s="230"/>
       <c r="G63" s="172" t="s">
         <v>399</v>
       </c>
@@ -16259,44 +15643,44 @@
       <c r="O63" s="180" t="s">
         <v>381</v>
       </c>
-      <c r="P63" s="204"/>
-      <c r="Q63" s="204"/>
-      <c r="R63" s="204"/>
-      <c r="S63" s="204"/>
-      <c r="T63" s="204"/>
-      <c r="U63" s="204"/>
-      <c r="V63" s="201"/>
-      <c r="W63" s="204"/>
+      <c r="P63" s="230"/>
+      <c r="Q63" s="230"/>
+      <c r="R63" s="230"/>
+      <c r="S63" s="230"/>
+      <c r="T63" s="230"/>
+      <c r="U63" s="230"/>
+      <c r="V63" s="234"/>
+      <c r="W63" s="230"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A64" s="205">
+      <c r="A64" s="235">
         <v>10301</v>
       </c>
-      <c r="B64" s="196" t="s">
+      <c r="B64" s="220" t="s">
         <v>446</v>
       </c>
-      <c r="C64" s="196" t="s">
+      <c r="C64" s="220" t="s">
         <v>447</v>
       </c>
-      <c r="D64" s="196">
+      <c r="D64" s="220">
         <v>1110283</v>
       </c>
-      <c r="E64" s="196">
+      <c r="E64" s="220">
         <v>1</v>
       </c>
-      <c r="F64" s="196">
+      <c r="F64" s="220">
         <v>6</v>
       </c>
-      <c r="G64" s="207" t="s">
+      <c r="G64" s="226" t="s">
         <v>419</v>
       </c>
-      <c r="H64" s="207">
+      <c r="H64" s="226">
         <v>1110207</v>
       </c>
-      <c r="I64" s="207">
+      <c r="I64" s="226">
         <v>35</v>
       </c>
-      <c r="J64" s="207">
+      <c r="J64" s="226">
         <v>6</v>
       </c>
       <c r="K64" s="187" t="s">
@@ -16314,42 +15698,42 @@
       <c r="O64" s="187">
         <v>6</v>
       </c>
-      <c r="P64" s="196" t="s">
+      <c r="P64" s="220" t="s">
         <v>448</v>
       </c>
-      <c r="Q64" s="196">
+      <c r="Q64" s="220">
         <v>30</v>
       </c>
-      <c r="R64" s="209" t="s">
+      <c r="R64" s="223" t="s">
         <v>383</v>
       </c>
-      <c r="S64" s="195">
+      <c r="S64" s="225">
         <v>45134</v>
       </c>
-      <c r="T64" s="195">
+      <c r="T64" s="225">
         <v>45148</v>
       </c>
-      <c r="U64" s="196" t="s">
+      <c r="U64" s="220" t="s">
         <v>449</v>
       </c>
-      <c r="V64" s="196">
+      <c r="V64" s="220">
         <v>200</v>
       </c>
-      <c r="W64" s="196" t="s">
+      <c r="W64" s="220" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A65" s="205"/>
-      <c r="B65" s="196"/>
-      <c r="C65" s="196"/>
-      <c r="D65" s="196"/>
-      <c r="E65" s="196"/>
-      <c r="F65" s="196"/>
-      <c r="G65" s="208"/>
-      <c r="H65" s="208"/>
-      <c r="I65" s="208"/>
-      <c r="J65" s="208"/>
+      <c r="A65" s="235"/>
+      <c r="B65" s="220"/>
+      <c r="C65" s="220"/>
+      <c r="D65" s="220"/>
+      <c r="E65" s="220"/>
+      <c r="F65" s="220"/>
+      <c r="G65" s="227"/>
+      <c r="H65" s="227"/>
+      <c r="I65" s="227"/>
+      <c r="J65" s="227"/>
       <c r="K65" s="189" t="s">
         <v>421</v>
       </c>
@@ -16365,22 +15749,22 @@
       <c r="O65" s="189">
         <v>6</v>
       </c>
-      <c r="P65" s="196"/>
-      <c r="Q65" s="196"/>
-      <c r="R65" s="209"/>
-      <c r="S65" s="196"/>
-      <c r="T65" s="196"/>
-      <c r="U65" s="196"/>
-      <c r="V65" s="196"/>
-      <c r="W65" s="196"/>
+      <c r="P65" s="220"/>
+      <c r="Q65" s="220"/>
+      <c r="R65" s="223"/>
+      <c r="S65" s="220"/>
+      <c r="T65" s="220"/>
+      <c r="U65" s="220"/>
+      <c r="V65" s="220"/>
+      <c r="W65" s="220"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A66" s="205"/>
-      <c r="B66" s="196"/>
-      <c r="C66" s="196"/>
-      <c r="D66" s="196"/>
-      <c r="E66" s="196"/>
-      <c r="F66" s="196"/>
+      <c r="A66" s="235"/>
+      <c r="B66" s="220"/>
+      <c r="C66" s="220"/>
+      <c r="D66" s="220"/>
+      <c r="E66" s="220"/>
+      <c r="F66" s="220"/>
       <c r="G66" s="182" t="s">
         <v>451</v>
       </c>
@@ -16393,37 +15777,37 @@
       <c r="J66" s="182">
         <v>6</v>
       </c>
-      <c r="K66" s="196" t="s">
+      <c r="K66" s="220" t="s">
         <v>381</v>
       </c>
-      <c r="L66" s="196" t="s">
+      <c r="L66" s="220" t="s">
         <v>381</v>
       </c>
-      <c r="M66" s="196" t="s">
+      <c r="M66" s="220" t="s">
         <v>381</v>
       </c>
-      <c r="N66" s="196" t="s">
+      <c r="N66" s="220" t="s">
         <v>381</v>
       </c>
-      <c r="O66" s="196" t="s">
+      <c r="O66" s="220" t="s">
         <v>381</v>
       </c>
-      <c r="P66" s="196"/>
-      <c r="Q66" s="196"/>
-      <c r="R66" s="209"/>
-      <c r="S66" s="196"/>
-      <c r="T66" s="196"/>
-      <c r="U66" s="196"/>
-      <c r="V66" s="196"/>
-      <c r="W66" s="196"/>
+      <c r="P66" s="220"/>
+      <c r="Q66" s="220"/>
+      <c r="R66" s="223"/>
+      <c r="S66" s="220"/>
+      <c r="T66" s="220"/>
+      <c r="U66" s="220"/>
+      <c r="V66" s="220"/>
+      <c r="W66" s="220"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A67" s="205"/>
-      <c r="B67" s="196"/>
-      <c r="C67" s="196"/>
-      <c r="D67" s="196"/>
-      <c r="E67" s="196"/>
-      <c r="F67" s="196"/>
+      <c r="A67" s="235"/>
+      <c r="B67" s="220"/>
+      <c r="C67" s="220"/>
+      <c r="D67" s="220"/>
+      <c r="E67" s="220"/>
+      <c r="F67" s="220"/>
       <c r="G67" s="182" t="s">
         <v>452</v>
       </c>
@@ -16436,27 +15820,27 @@
       <c r="J67" s="182">
         <v>6</v>
       </c>
-      <c r="K67" s="196"/>
-      <c r="L67" s="196"/>
-      <c r="M67" s="196"/>
-      <c r="N67" s="196"/>
-      <c r="O67" s="196"/>
-      <c r="P67" s="196"/>
-      <c r="Q67" s="196"/>
-      <c r="R67" s="209"/>
-      <c r="S67" s="196"/>
-      <c r="T67" s="196"/>
-      <c r="U67" s="196"/>
-      <c r="V67" s="196"/>
-      <c r="W67" s="196"/>
+      <c r="K67" s="220"/>
+      <c r="L67" s="220"/>
+      <c r="M67" s="220"/>
+      <c r="N67" s="220"/>
+      <c r="O67" s="220"/>
+      <c r="P67" s="220"/>
+      <c r="Q67" s="220"/>
+      <c r="R67" s="223"/>
+      <c r="S67" s="220"/>
+      <c r="T67" s="220"/>
+      <c r="U67" s="220"/>
+      <c r="V67" s="220"/>
+      <c r="W67" s="220"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A68" s="205"/>
-      <c r="B68" s="196"/>
-      <c r="C68" s="196"/>
-      <c r="D68" s="196"/>
-      <c r="E68" s="196"/>
-      <c r="F68" s="196"/>
+      <c r="A68" s="235"/>
+      <c r="B68" s="220"/>
+      <c r="C68" s="220"/>
+      <c r="D68" s="220"/>
+      <c r="E68" s="220"/>
+      <c r="F68" s="220"/>
       <c r="G68" s="182" t="s">
         <v>453</v>
       </c>
@@ -16469,27 +15853,27 @@
       <c r="J68" s="182">
         <v>6</v>
       </c>
-      <c r="K68" s="196"/>
-      <c r="L68" s="196"/>
-      <c r="M68" s="196"/>
-      <c r="N68" s="196"/>
-      <c r="O68" s="196"/>
-      <c r="P68" s="196"/>
-      <c r="Q68" s="196"/>
-      <c r="R68" s="209"/>
-      <c r="S68" s="196"/>
-      <c r="T68" s="196"/>
-      <c r="U68" s="196"/>
-      <c r="V68" s="196"/>
-      <c r="W68" s="196"/>
+      <c r="K68" s="220"/>
+      <c r="L68" s="220"/>
+      <c r="M68" s="220"/>
+      <c r="N68" s="220"/>
+      <c r="O68" s="220"/>
+      <c r="P68" s="220"/>
+      <c r="Q68" s="220"/>
+      <c r="R68" s="223"/>
+      <c r="S68" s="220"/>
+      <c r="T68" s="220"/>
+      <c r="U68" s="220"/>
+      <c r="V68" s="220"/>
+      <c r="W68" s="220"/>
     </row>
     <row r="69" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="206"/>
-      <c r="B69" s="197"/>
-      <c r="C69" s="197"/>
-      <c r="D69" s="197"/>
-      <c r="E69" s="197"/>
-      <c r="F69" s="197"/>
+      <c r="A69" s="236"/>
+      <c r="B69" s="221"/>
+      <c r="C69" s="221"/>
+      <c r="D69" s="221"/>
+      <c r="E69" s="221"/>
+      <c r="F69" s="221"/>
       <c r="G69" s="144" t="s">
         <v>399</v>
       </c>
@@ -16502,8 +15886,8 @@
       <c r="J69" s="144">
         <v>6</v>
       </c>
-      <c r="K69" s="198"/>
-      <c r="L69" s="198"/>
+      <c r="K69" s="222"/>
+      <c r="L69" s="222"/>
       <c r="M69" s="144" t="s">
         <v>381</v>
       </c>
@@ -16513,14 +15897,14 @@
       <c r="O69" s="144" t="s">
         <v>381</v>
       </c>
-      <c r="P69" s="197"/>
-      <c r="Q69" s="197"/>
-      <c r="R69" s="210"/>
-      <c r="S69" s="197"/>
-      <c r="T69" s="197"/>
-      <c r="U69" s="197"/>
-      <c r="V69" s="197"/>
-      <c r="W69" s="197"/>
+      <c r="P69" s="221"/>
+      <c r="Q69" s="221"/>
+      <c r="R69" s="224"/>
+      <c r="S69" s="221"/>
+      <c r="T69" s="221"/>
+      <c r="U69" s="221"/>
+      <c r="V69" s="221"/>
+      <c r="W69" s="221"/>
     </row>
     <row r="70" spans="1:23" ht="84.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="192">
@@ -16697,27 +16081,244 @@
     </row>
   </sheetData>
   <mergeCells count="283">
-    <mergeCell ref="W64:W69"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="M66:M68"/>
-    <mergeCell ref="N66:N68"/>
-    <mergeCell ref="O66:O68"/>
-    <mergeCell ref="Q64:Q69"/>
-    <mergeCell ref="R64:R69"/>
-    <mergeCell ref="S64:S69"/>
-    <mergeCell ref="T64:T69"/>
-    <mergeCell ref="U64:U69"/>
-    <mergeCell ref="V64:V69"/>
-    <mergeCell ref="F64:F69"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="P64:P69"/>
-    <mergeCell ref="S60:S63"/>
-    <mergeCell ref="T60:T63"/>
-    <mergeCell ref="U60:U63"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="V10:V15"/>
+    <mergeCell ref="W10:W15"/>
+    <mergeCell ref="Q10:Q15"/>
+    <mergeCell ref="R10:R15"/>
+    <mergeCell ref="S10:S15"/>
+    <mergeCell ref="T10:T15"/>
+    <mergeCell ref="U10:U15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="P10:P15"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="L10:L14"/>
+    <mergeCell ref="O10:O14"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="U16:U21"/>
+    <mergeCell ref="V16:V21"/>
+    <mergeCell ref="W16:W21"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="L16:L20"/>
+    <mergeCell ref="O16:O20"/>
+    <mergeCell ref="P16:P21"/>
+    <mergeCell ref="Q16:Q21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="R16:R21"/>
+    <mergeCell ref="S16:S21"/>
+    <mergeCell ref="T16:T21"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="U22:U25"/>
+    <mergeCell ref="V22:V25"/>
+    <mergeCell ref="W22:W25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="P22:P25"/>
+    <mergeCell ref="Q22:Q25"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="S22:S25"/>
+    <mergeCell ref="T22:T25"/>
+    <mergeCell ref="U26:U34"/>
+    <mergeCell ref="V26:V34"/>
+    <mergeCell ref="W26:W34"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="F27:F34"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P34"/>
+    <mergeCell ref="Q26:Q34"/>
+    <mergeCell ref="R26:R34"/>
+    <mergeCell ref="S26:S34"/>
+    <mergeCell ref="T26:T34"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="M35:M38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="U35:U43"/>
+    <mergeCell ref="V35:V43"/>
+    <mergeCell ref="W35:W43"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="D36:D43"/>
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="N35:N38"/>
+    <mergeCell ref="O35:O38"/>
+    <mergeCell ref="P35:P43"/>
+    <mergeCell ref="Q35:Q43"/>
+    <mergeCell ref="R35:R43"/>
+    <mergeCell ref="S35:S43"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="E44:E49"/>
+    <mergeCell ref="F44:F49"/>
+    <mergeCell ref="T35:T43"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="C50:C55"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="E50:E55"/>
+    <mergeCell ref="F50:F55"/>
+    <mergeCell ref="V44:V49"/>
+    <mergeCell ref="W44:W49"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="J45:J48"/>
+    <mergeCell ref="O45:O48"/>
+    <mergeCell ref="P44:P49"/>
+    <mergeCell ref="Q44:Q49"/>
+    <mergeCell ref="R44:R49"/>
+    <mergeCell ref="S44:S49"/>
+    <mergeCell ref="T44:T49"/>
+    <mergeCell ref="U44:U49"/>
+    <mergeCell ref="V50:V55"/>
+    <mergeCell ref="W50:W55"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="O51:O54"/>
+    <mergeCell ref="P50:P55"/>
+    <mergeCell ref="Q50:Q55"/>
+    <mergeCell ref="R50:R55"/>
+    <mergeCell ref="S50:S55"/>
+    <mergeCell ref="T50:T55"/>
+    <mergeCell ref="U50:U55"/>
+    <mergeCell ref="L56:L59"/>
+    <mergeCell ref="M56:M59"/>
+    <mergeCell ref="N56:N59"/>
+    <mergeCell ref="O56:O59"/>
+    <mergeCell ref="P56:P59"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="F56:F59"/>
     <mergeCell ref="V60:V63"/>
     <mergeCell ref="W60:W63"/>
     <mergeCell ref="A64:A69"/>
@@ -16742,244 +16343,27 @@
     <mergeCell ref="U56:U59"/>
     <mergeCell ref="V56:V59"/>
     <mergeCell ref="K56:K59"/>
-    <mergeCell ref="L56:L59"/>
-    <mergeCell ref="M56:M59"/>
-    <mergeCell ref="N56:N59"/>
-    <mergeCell ref="O56:O59"/>
-    <mergeCell ref="P56:P59"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="V50:V55"/>
-    <mergeCell ref="W50:W55"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="I51:I54"/>
-    <mergeCell ref="J51:J54"/>
-    <mergeCell ref="O51:O54"/>
-    <mergeCell ref="P50:P55"/>
-    <mergeCell ref="Q50:Q55"/>
-    <mergeCell ref="R50:R55"/>
-    <mergeCell ref="S50:S55"/>
-    <mergeCell ref="T50:T55"/>
-    <mergeCell ref="U50:U55"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="C50:C55"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="E50:E55"/>
-    <mergeCell ref="F50:F55"/>
-    <mergeCell ref="V44:V49"/>
-    <mergeCell ref="W44:W49"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="J45:J48"/>
-    <mergeCell ref="O45:O48"/>
-    <mergeCell ref="P44:P49"/>
-    <mergeCell ref="Q44:Q49"/>
-    <mergeCell ref="R44:R49"/>
-    <mergeCell ref="S44:S49"/>
-    <mergeCell ref="T44:T49"/>
-    <mergeCell ref="U44:U49"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="E44:E49"/>
-    <mergeCell ref="F44:F49"/>
-    <mergeCell ref="T35:T43"/>
-    <mergeCell ref="U35:U43"/>
-    <mergeCell ref="V35:V43"/>
-    <mergeCell ref="W35:W43"/>
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="D36:D43"/>
-    <mergeCell ref="E36:E43"/>
-    <mergeCell ref="F36:F43"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="N35:N38"/>
-    <mergeCell ref="O35:O38"/>
-    <mergeCell ref="P35:P43"/>
-    <mergeCell ref="Q35:Q43"/>
-    <mergeCell ref="R35:R43"/>
-    <mergeCell ref="S35:S43"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="A35:A43"/>
-    <mergeCell ref="B35:B43"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="M35:M38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="U26:U34"/>
-    <mergeCell ref="V26:V34"/>
-    <mergeCell ref="W26:W34"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="F27:F34"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P34"/>
-    <mergeCell ref="Q26:Q34"/>
-    <mergeCell ref="R26:R34"/>
-    <mergeCell ref="S26:S34"/>
-    <mergeCell ref="T26:T34"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="U22:U25"/>
-    <mergeCell ref="V22:V25"/>
-    <mergeCell ref="W22:W25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="P22:P25"/>
-    <mergeCell ref="Q22:Q25"/>
-    <mergeCell ref="R22:R25"/>
-    <mergeCell ref="S22:S25"/>
-    <mergeCell ref="T22:T25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="R16:R21"/>
-    <mergeCell ref="S16:S21"/>
-    <mergeCell ref="T16:T21"/>
-    <mergeCell ref="U16:U21"/>
-    <mergeCell ref="V16:V21"/>
-    <mergeCell ref="W16:W21"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="J16:J20"/>
-    <mergeCell ref="L16:L20"/>
-    <mergeCell ref="O16:O20"/>
-    <mergeCell ref="P16:P21"/>
-    <mergeCell ref="Q16:Q21"/>
-    <mergeCell ref="V10:V15"/>
-    <mergeCell ref="W10:W15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="P10:P15"/>
-    <mergeCell ref="Q10:Q15"/>
-    <mergeCell ref="R10:R15"/>
-    <mergeCell ref="S10:S15"/>
-    <mergeCell ref="T10:T15"/>
-    <mergeCell ref="U10:U15"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="L10:L14"/>
-    <mergeCell ref="O10:O14"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F64:F69"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="P64:P69"/>
+    <mergeCell ref="S60:S63"/>
+    <mergeCell ref="T60:T63"/>
+    <mergeCell ref="U60:U63"/>
+    <mergeCell ref="W64:W69"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="M66:M68"/>
+    <mergeCell ref="N66:N68"/>
+    <mergeCell ref="O66:O68"/>
+    <mergeCell ref="Q64:Q69"/>
+    <mergeCell ref="R64:R69"/>
+    <mergeCell ref="S64:S69"/>
+    <mergeCell ref="T64:T69"/>
+    <mergeCell ref="U64:U69"/>
+    <mergeCell ref="V64:V69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
